--- a/docs/paper_total_sessies_2025_2.xlsx
+++ b/docs/paper_total_sessies_2025_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vunl-my.sharepoint.com/personal/j_c_muis_vu_nl/Documents/Documents/GitHub/dvds2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A282215-DE9C-4694-B0B0-0BF0426614D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{877EAA2D-3255-4979-B2E3-9046FDE48074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="492" yWindow="768" windowWidth="22548" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="492" yWindow="2688" windowWidth="22548" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alle abstracts" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="registratie 2 juni" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'alle abstracts'!$A$1:$Z$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'alle abstracts'!$A$1:$Z$168</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3344" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="1261">
   <si>
     <t>naam</t>
   </si>
@@ -2693,10 +2693,10 @@
     <t>M</t>
   </si>
   <si>
-    <t>M-1</t>
-  </si>
-  <si>
-    <t>Family &amp; Youth 3 – Transistions in youth and young adults</t>
+    <t>M-2</t>
+  </si>
+  <si>
+    <t>Family &amp; Youth 2 – Transistions in youth and young adults</t>
   </si>
   <si>
     <t>HG-02A33</t>
@@ -2766,18 +2766,6 @@
   </si>
   <si>
     <t>elise.thoen@uantwerpen.be</t>
-  </si>
-  <si>
-    <t>M-2</t>
-  </si>
-  <si>
-    <t>Family &amp; Youth 1 – Singlehood and parenthood</t>
-  </si>
-  <si>
-    <t>İlayda Özoruç</t>
-  </si>
-  <si>
-    <t>i.ozoruc@tilburguniversity.edu</t>
   </si>
   <si>
     <t>More Than Just Single: The Relationship between Self-Defined Singlehood and Singlehood Satisfaction</t>
@@ -2792,50 +2780,36 @@
     <t xml:space="preserve">norms on single </t>
   </si>
   <si>
-    <t>Marieke Waegebaert</t>
-  </si>
-  <si>
-    <t>marieke.waegebaert@ugent.be</t>
-  </si>
-  <si>
-    <t>Een leven zonder kinderen: Ervaringen in de LGBTQ+-gemeenschap</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">In westerse landen neemt het aantal mensen zonder kinderen toe, terwijl een pronatalistisch en heteronormatief discours dominant blijft, waarin vooral heteroseksuele vrouwen als ‘geschikte moeders’ worden gezien. Dit onderzoek verkent hoe deze normen het leven van personen uit de LGBTQ+-gemeenschap beïnvloeden. Het niet krijgen van kinderen is vaak het gevolg van een complex samenspel van factoren doorheen iemands persoonlijke levensloop. Aan de hand van een biografische narratieve analyse van zestien interviews met veertigplussers uit de LGBTQ+-gemeenschap worden deze complexe dynamieken in kaart gebracht.  
-Uit de analyse blijkt dat niet alleen pronatalistische, maar vooral heteronormatieve normen bepalend zijn. Dit  beïnvloedt (1) respondenten hun visie op ouderschap, (2) de sociale druk die zij ervaren om te voldoen aan deze normen en (3) de barrières waarmee zij worden geconfronteerd. Daarnaast werd onderzocht hoe respondenten omgaan met deze dominante normen. Doorheen hun leven lijken twee tegenstrijdige narratieven te spelen: het narratief van de ‘normale weg’ waarin respondenten dominante normen proberen te volgen en het narratief van de ‘eigen weg’, waarin respondenten heel duidelijk voor zichzelf kiezen en vooral de dichte omgeving belangrijk lijkt. De bevindingen tonen aan dat het niet hebben van kinderen geen eenduidig, statisch gegeven is, maar juist complex, dynamisch en fluïde is, waarbij zowel pronatalistische als heteronormatieve elementen een rol spelen. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dit artikel is geschreven voor de Masterclass van Tijdschrift Sociologie 2025 </t>
-    </r>
+    <t>İlayda Özoruç</t>
+  </si>
+  <si>
+    <t>Katya Ivanova, Jeroen Vermunt, Manon A. van Scheppingen</t>
+  </si>
+  <si>
+    <t>i.ozoruc@tilburguniversity.edu</t>
+  </si>
+  <si>
+    <t>M-1</t>
+  </si>
+  <si>
+    <t>Family &amp; Youth 1 – Choices in households, work and care</t>
+  </si>
+  <si>
+    <t>Katia Begall</t>
+  </si>
+  <si>
+    <t>katia.begall@ru.nl</t>
+  </si>
+  <si>
+    <t>Subjective wellbeing and the timing of parenthood: Does deviating from descriptive and prescriptive age norms matter?</t>
+  </si>
+  <si>
+    <t>Transitioning into parenthood is a significant life event that can influence subjective well-being, with timing potentially playing a key role. Although deviations from normative parenthood timing are increasingly accepted, norms surrounding parenthood persist in the Netherlands. Descriptive norms (what most people do) are often used as a proxy for prescriptive norms (what most people think should be done), though they are conceptually distinct and function differently. Previous research found a gap of 1.5 to 4 years between the ideal and actual age of parenthood across 29 European countries, raising questions about distinct impacts of each norm on well-being. The present study explored whether deviations from descriptive and prescriptive parenthood age norms are related to well-being namely life satisfaction (LS) and self-esteem (SE), and if these associations differ by gender. Using the Dutch LISS panel (2023, N = 979, Age = 25-50), we defined off-time parenthood via generalized additive models and ran multiple linear regressions with main effects, control variables, and gender interactions. The results show that early parenthood, compared to (prescriptive) on-time parenthood, was associated with lower LS (b = -0.24, p = .024), but this effect disappeared once control variables were included. SE was not significantly related to deviations from prescriptive norms. Deviating from descriptive norms was not significantly related to either LS or SE. We will discuss implications of these results within the Dutch context, exploring how parenthood timing norms did not have the expected impact on well-being, and exploring how future research could further examine these relationships.</t>
   </si>
   <si>
     <t>norms parenthood</t>
   </si>
   <si>
-    <t>Katya Ivanova, Jeroen Vermunt, Manon A. van Scheppingen</t>
-  </si>
-  <si>
-    <t>Subjective wellbeing and the timing of parenthood: Does deviating from descriptive and prescriptive age norms matter?</t>
-  </si>
-  <si>
-    <t>Transitioning into parenthood is a significant life event that can influence subjective well-being, with timing potentially playing a key role. Although deviations from normative parenthood timing are increasingly accepted, norms surrounding parenthood persist in the Netherlands. Descriptive norms (what most people do) are often used as a proxy for prescriptive norms (what most people think should be done), though they are conceptually distinct and function differently. Previous research found a gap of 1.5 to 4 years between the ideal and actual age of parenthood across 29 European countries, raising questions about distinct impacts of each norm on well-being. The present study explored whether deviations from descriptive and prescriptive parenthood age norms are related to well-being namely life satisfaction (LS) and self-esteem (SE), and if these associations differ by gender. Using the Dutch LISS panel (2023, N = 979, Age = 25-50), we defined off-time parenthood via generalized additive models and ran multiple linear regressions with main effects, control variables, and gender interactions. The results show that early parenthood, compared to (prescriptive) on-time parenthood, was associated with lower LS (b = -0.24, p = .024), but this effect disappeared once control variables were included. SE was not significantly related to deviations from prescriptive norms. Deviating from descriptive norms was not significantly related to either LS or SE. We will discuss implications of these results within the Dutch context, exploring how parenthood timing norms did not have the expected impact on well-being, and exploring how future research could further examine these relationships.</t>
-  </si>
-  <si>
     <t>Aysegül Güneyli</t>
   </si>
   <si>
@@ -2845,18 +2819,6 @@
     <t>ayseguel.gueneyli@ru.nl</t>
   </si>
   <si>
-    <t>M-3</t>
-  </si>
-  <si>
-    <t>Family &amp; Youth 2 – Choices in households, work and care</t>
-  </si>
-  <si>
-    <t>Katia Begall</t>
-  </si>
-  <si>
-    <t>katia.begall@ru.nl</t>
-  </si>
-  <si>
     <t>Cumulative wellbeing outcomes of informal care and childcare in the Netherlands</t>
   </si>
   <si>
@@ -2864,24 +2826,6 @@
   </si>
   <si>
     <t>sessie 2 - taakverdeling</t>
-  </si>
-  <si>
-    <t>Maike van Damme</t>
-  </si>
-  <si>
-    <t>Fernando Ruiz-Vallejo</t>
-  </si>
-  <si>
-    <t>mvandamme@ced.uab.es</t>
-  </si>
-  <si>
-    <t>Unmarried cohabitation and union stability: The cohabitation-diffusion-hypothesis revisited</t>
-  </si>
-  <si>
-    <t>We revisit the U-shape diffusion hypothesis of Liefbroer and Dourleijn (2006) by replicating the impact of cohabitation diffusion on union dissolution in different union cohorts in ‘European’ contexts, the USA, and Canada. The impact of cohabitation diffusion on union dissolution is expected to take the form of a U-shaped relationship because of selection effects into cohabitation of ‘separation tolerant’ and less committed couples in low cohabitation contexts, or selection into marriage of ‘conventional’ couples in high cohabitation contexts. We use data from the Harmonized Histories (HH) from the Generations and Gender Programme (GGP) of 22 countries and 14 (5-year) birth cohorts (1930/34 - 1995/99). Our analytical sample entails women (age at least 15 years), who were at some moment in a union (period (1950-2019)). We perform Cox proportional hazards models per country-birth cohort to assess if there is variation in the ‘cohabitation effect’ over time in the 22 countries. Then, using meta-analysis, we check to what extent the variation in the ‘cohabitation effect’ can be explained by the percentage and percentage squared of the cohabitation rate in country-birth cohorts. Our findings indicate a U-shaped relationship between the cohabitation rate and the relative risk of union dissolution of cohabiting couples, with prior cohabiting, currently married couples having a risk of separation between cohabiting couples and married couples. We try to theoretically explain the impact of cohabitation diffusion by examining contextual norms on marriage and divorce.</t>
-  </si>
-  <si>
-    <t>sessie 3 - Lifecourse</t>
   </si>
   <si>
     <t>Patrick Präg</t>
@@ -2983,21 +2927,6 @@
   <si>
     <t xml:space="preserve">
 In this paper, we present stories of discrimination and disadvantage within Amsterdam’s education system, shared by parents and students of color and/or those with a migration background. These stories expose feelings and perspectives on discrimination and racism. Despite more than 40 years of policies aimed at addressing these issues, significant challenges remain. The stories highlight a wide range of concerns, including communication difficulties between schools and parents, conflicts within schools, low educational quality, and acts of discrimination. We will also reflect on the process of presenting these stories to a citizens' assembly, composed of 50 individuals representing migrant parents and parents of color in the city. This assembly developed bottom-up recommendations for school boards, the municipal government, and policymakers in education and other relevant fields in the city, aiming to combat racism and discrimination in education.</t>
-  </si>
-  <si>
-    <t>Niels Vullings</t>
-  </si>
-  <si>
-    <t>Margriet van Hek, Jos Slabbekoorn</t>
-  </si>
-  <si>
-    <t>niels.vullings@ru.nl</t>
-  </si>
-  <si>
-    <t>At Home within the System: An intersectional study on socioeconomic status, gender and ethnicity.</t>
-  </si>
-  <si>
-    <t>In most western societies, education is an important predictor for future success. Yet, not every student feels like they have a place in the educational system. While previous studies have highlighted how socioeconomic status, gender and ethnicity separately influence school belonging, little is known about school belonging from an intersectional perspective. Thus, this study will examine how intersections of SES, gender and ethnicity creates unique experiences of school belonging among Dutch secondary-school students. Taking inspiration from theories on culture practice (Bourdieu), gender differences (Eccles, van Houtte) and oppositional culture (Lundy), this study aims to derive a theoretical framework that understands how being part of multiple marginalised groups affects school belonging. Additionally, the role of teacher expectations and the norm climate at school is included, to study how these factors impact school belonging of different social groups. To study this phenomenon, this study uses MAIHDA-models on Dutch data (n ≈ 4000) from CILS 2010. By understanding which social groups feel included in the educational system, we can figure out how to make education more inclusive and promote equal opportunities in education.</t>
   </si>
   <si>
     <t>Klara Laga</t>
@@ -3897,6 +3826,9 @@
     <t>L-2</t>
   </si>
   <si>
+    <t>M-3</t>
+  </si>
+  <si>
     <t xml:space="preserve">dagevos@essb.eur.nl, </t>
   </si>
   <si>
@@ -4056,6 +3988,9 @@
     <t>m.j.m.ramaekers@vu.nl</t>
   </si>
   <si>
+    <t>marieke.waegebaert@ugent.be</t>
+  </si>
+  <si>
     <t>Marleen.hasselt@ru.nl</t>
   </si>
   <si>
@@ -4065,6 +4000,9 @@
     <t>munger2@uni-muenster.de</t>
   </si>
   <si>
+    <t>mvandamme@ced.uab.es</t>
+  </si>
+  <si>
     <t xml:space="preserve">n.a.kusmallah@vu.nl </t>
   </si>
   <si>
@@ -4077,6 +4015,9 @@
     <t>Niels.spierings@ru.nl</t>
   </si>
   <si>
+    <t>niels.vullings@ru.nl</t>
+  </si>
+  <si>
     <t>nooitgedagt@essb.eur.nl,</t>
   </si>
   <si>
@@ -4254,6 +4195,9 @@
     <t>M.vanderkruk@essb.eur.nl</t>
   </si>
   <si>
+    <t>prive adres</t>
+  </si>
+  <si>
     <t>mariela.vaniersel@eur.nl</t>
   </si>
   <si>
@@ -4273,6 +4217,9 @@
   </si>
   <si>
     <t>n.vanmiltenburg@caop.nl</t>
+  </si>
+  <si>
+    <t>prive mail</t>
   </si>
   <si>
     <t>o.j.m.velthuis@uva.nl</t>
@@ -5245,12 +5192,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z172"/>
+  <dimension ref="A1:Z169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="77" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="Q147" sqref="Q147"/>
+      <selection pane="bottomLeft" activeCell="A133" sqref="A133:XFD133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12110,13 +12057,13 @@
         <v>787</v>
       </c>
       <c r="G124" s="27" t="s">
-        <v>813</v>
+        <v>788</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>814</v>
+        <v>789</v>
       </c>
       <c r="I124" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" s="3" t="s">
         <v>790</v>
@@ -12125,51 +12072,54 @@
         <v>30</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="M124" s="5" t="s">
-        <v>816</v>
+        <v>791</v>
+      </c>
+      <c r="M124" s="66" t="s">
+        <v>792</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
       <c r="O124" s="5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="Q124" s="5" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="S124" s="24" t="s">
         <v>257</v>
       </c>
       <c r="T124" s="23" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="125" spans="1:26" ht="115.2" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>820</v>
+        <v>816</v>
+      </c>
+      <c r="B125" s="62" t="s">
+        <v>817</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>787</v>
       </c>
       <c r="G125" s="27" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="I125" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>790</v>
@@ -12178,57 +12128,62 @@
         <v>30</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="M125" s="5" t="s">
-        <v>816</v>
+        <v>821</v>
+      </c>
+      <c r="M125" s="66" t="s">
+        <v>822</v>
       </c>
       <c r="N125" s="3" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="O125" s="5" t="s">
-        <v>822</v>
-      </c>
-      <c r="Q125" s="85" t="s">
         <v>823</v>
       </c>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="R125" s="19"/>
       <c r="S125" s="24" t="s">
         <v>257</v>
       </c>
       <c r="T125" s="45" t="s">
-        <v>824</v>
-      </c>
-      <c r="U125" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+        <v>825</v>
+      </c>
+      <c r="U125" s="23"/>
+      <c r="V125" s="23"/>
+      <c r="W125"/>
+      <c r="X125" s="5"/>
+      <c r="Y125" s="5"/>
+      <c r="Z125" s="5"/>
+    </row>
+    <row r="126" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="B126" s="62" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>787</v>
       </c>
       <c r="G126" s="27" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="I126" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" s="3" t="s">
         <v>790</v>
@@ -12237,27 +12192,27 @@
         <v>30</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="M126" s="5" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="O126" s="5" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="P126" s="5"/>
       <c r="Q126" s="5" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="R126" s="19"/>
       <c r="S126" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="T126" s="45" t="s">
-        <v>824</v>
+      <c r="T126" s="23" t="s">
+        <v>831</v>
       </c>
       <c r="U126" s="23"/>
       <c r="V126" s="23"/>
@@ -12266,30 +12221,30 @@
       <c r="Y126" s="5"/>
       <c r="Z126" s="5"/>
     </row>
-    <row r="127" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B127" s="62" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>249</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>787</v>
       </c>
       <c r="G127" s="27" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="I127" s="3">
         <v>2</v>
@@ -12301,27 +12256,27 @@
         <v>30</v>
       </c>
       <c r="L127" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="M127" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="N127" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="O127" s="5" t="s">
         <v>833</v>
-      </c>
-      <c r="M127" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="N127" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="O127" s="5" t="s">
-        <v>835</v>
       </c>
       <c r="P127" s="5"/>
       <c r="Q127" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="R127" s="19"/>
       <c r="S127" s="24" t="s">
         <v>257</v>
       </c>
       <c r="T127" s="23" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="U127" s="23"/>
       <c r="V127" s="23"/>
@@ -12330,15 +12285,15 @@
       <c r="Y127" s="5"/>
       <c r="Z127" s="5"/>
     </row>
-    <row r="128" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B128" s="62" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>249</v>
@@ -12350,10 +12305,10 @@
         <v>787</v>
       </c>
       <c r="G128" s="27" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="I128" s="3">
         <v>2</v>
@@ -12365,27 +12320,27 @@
         <v>30</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="M128" s="5" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="O128" s="5" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="P128" s="5"/>
       <c r="Q128" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="R128" s="19"/>
       <c r="S128" s="24" t="s">
         <v>257</v>
       </c>
       <c r="T128" s="23" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="U128" s="23"/>
       <c r="V128" s="23"/>
@@ -12396,28 +12351,28 @@
     </row>
     <row r="129" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="B129" s="62" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>249</v>
+        <v>643</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>787</v>
       </c>
       <c r="G129" s="27" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="I129" s="3">
         <v>2</v>
@@ -12429,27 +12384,27 @@
         <v>30</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="M129" s="5" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="N129" s="3" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="O129" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="P129" s="5"/>
       <c r="Q129" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="R129" s="19"/>
       <c r="S129" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="T129" s="23" t="s">
-        <v>837</v>
+      <c r="T129" s="45" t="s">
+        <v>845</v>
       </c>
       <c r="U129" s="23"/>
       <c r="V129" s="23"/>
@@ -12458,63 +12413,57 @@
       <c r="Y129" s="5"/>
       <c r="Z129" s="5"/>
     </row>
-    <row r="130" spans="1:26" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B130" s="62"/>
+      <c r="C130" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="B130" s="62" t="s">
+      <c r="D130" s="3" t="s">
         <v>848</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F130" s="3" t="s">
-        <v>787</v>
+      <c r="F130" s="28" t="s">
+        <v>849</v>
       </c>
       <c r="G130" s="27" t="s">
-        <v>831</v>
+        <v>850</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>832</v>
+        <v>851</v>
       </c>
       <c r="I130" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>790</v>
+        <v>852</v>
       </c>
       <c r="K130" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="M130" s="5" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
       <c r="N130" s="3" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="O130" s="5" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="P130" s="5"/>
       <c r="Q130" s="5" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="R130" s="19"/>
-      <c r="S130" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="T130" s="23" t="s">
-        <v>837</v>
-      </c>
+      <c r="S130" s="24"/>
+      <c r="T130" s="23"/>
       <c r="U130" s="23"/>
       <c r="V130" s="23"/>
       <c r="W130"/>
@@ -12522,63 +12471,57 @@
       <c r="Y130" s="5"/>
       <c r="Z130" s="5"/>
     </row>
-    <row r="131" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="B131" s="62"/>
+      <c r="C131" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F131" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="G131" s="27" t="s">
+        <v>850</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I131" s="3">
+        <v>3</v>
+      </c>
+      <c r="J131" s="3" t="s">
         <v>852</v>
-      </c>
-      <c r="B131" s="62" t="s">
-        <v>853</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="G131" s="27" t="s">
-        <v>831</v>
-      </c>
-      <c r="H131" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="I131" s="3">
-        <v>2</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>790</v>
       </c>
       <c r="K131" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="M131" s="5" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
       <c r="N131" s="3" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="O131" s="5" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="P131" s="5"/>
       <c r="Q131" s="5" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="R131" s="19"/>
-      <c r="S131" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="T131" s="45" t="s">
-        <v>857</v>
-      </c>
+      <c r="S131" s="24"/>
+      <c r="T131" s="23"/>
       <c r="U131" s="23"/>
       <c r="V131" s="23"/>
       <c r="W131"/>
@@ -12588,51 +12531,53 @@
     </row>
     <row r="132" spans="1:26" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="B132" s="62"/>
+        <v>859</v>
+      </c>
+      <c r="B132" s="62" t="s">
+        <v>860</v>
+      </c>
       <c r="C132" s="5" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F132" s="28" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="G132" s="27" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="I132" s="3">
         <v>3</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="K132" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="M132" s="5" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="N132" s="3" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="O132" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="P132" s="5"/>
       <c r="Q132" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="R132" s="19"/>
       <c r="S132" s="24"/>
@@ -12644,53 +12589,53 @@
       <c r="Y132" s="5"/>
       <c r="Z132" s="5"/>
     </row>
-    <row r="133" spans="1:26" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B133" s="62"/>
       <c r="C133" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F133" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="G133" s="27" t="s">
+        <v>866</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="I133" s="3">
+        <v>1</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L133" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F133" s="28" t="s">
-        <v>861</v>
-      </c>
-      <c r="G133" s="27" t="s">
-        <v>862</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="I133" s="3">
-        <v>3</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="K133" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L133" s="3" t="s">
-        <v>858</v>
-      </c>
       <c r="M133" s="5" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="N133" s="3" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="O133" s="5" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="P133" s="5"/>
       <c r="Q133" s="5" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="R133" s="19"/>
       <c r="S133" s="24"/>
@@ -12702,55 +12647,55 @@
       <c r="Y133" s="5"/>
       <c r="Z133" s="5"/>
     </row>
-    <row r="134" spans="1:26" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B134" s="62" t="s">
         <v>872</v>
       </c>
       <c r="C134" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F134" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="G134" s="27" t="s">
+        <v>866</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="I134" s="3">
+        <v>1</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="M134" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="N134" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="O134" s="5" t="s">
         <v>873</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F134" s="28" t="s">
-        <v>861</v>
-      </c>
-      <c r="G134" s="27" t="s">
-        <v>862</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="I134" s="3">
-        <v>3</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="K134" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L134" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="M134" s="5" t="s">
-        <v>859</v>
-      </c>
-      <c r="N134" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="O134" s="5" t="s">
-        <v>874</v>
       </c>
       <c r="P134" s="5"/>
       <c r="Q134" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="R134" s="19"/>
       <c r="S134" s="24"/>
@@ -12762,55 +12707,55 @@
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
     </row>
-    <row r="135" spans="1:26" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="B135" s="62" t="s">
         <v>876</v>
       </c>
-      <c r="B135" s="62" t="s">
+      <c r="C135" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="D135" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F135" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="G135" s="27" t="s">
+        <v>866</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="I135" s="3">
+        <v>1</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="M135" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="N135" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="O135" s="5" t="s">
         <v>878</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F135" s="28" t="s">
-        <v>861</v>
-      </c>
-      <c r="G135" s="27" t="s">
-        <v>862</v>
-      </c>
-      <c r="H135" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="I135" s="3">
-        <v>3</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="K135" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L135" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="M135" s="5" t="s">
-        <v>859</v>
-      </c>
-      <c r="N135" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="O135" s="5" t="s">
-        <v>879</v>
       </c>
       <c r="P135" s="5"/>
       <c r="Q135" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="R135" s="19"/>
       <c r="S135" s="24"/>
@@ -12822,46 +12767,46 @@
       <c r="Y135" s="5"/>
       <c r="Z135" s="5"/>
     </row>
-    <row r="136" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" s="9" customFormat="1" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="B136" s="62" t="s">
         <v>881</v>
       </c>
-      <c r="B136" s="62"/>
       <c r="C136" s="5" t="s">
         <v>882</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>860</v>
+        <v>883</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F136" s="28" t="s">
-        <v>861</v>
+        <v>25</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>849</v>
       </c>
       <c r="G136" s="27" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="I136" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="M136" s="5" t="s">
         <v>886</v>
       </c>
+      <c r="M136" s="5"/>
       <c r="N136" s="3" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="O136" s="5" t="s">
         <v>887</v>
@@ -12882,53 +12827,53 @@
     </row>
     <row r="137" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="B137" s="62" t="s">
+        <v>764</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F137" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="G137" s="27" t="s">
+        <v>884</v>
+      </c>
+      <c r="H137" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="B137" s="62" t="s">
-        <v>889</v>
-      </c>
-      <c r="C137" s="5" t="s">
+      <c r="I137" s="3">
+        <v>2</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L137" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F137" s="28" t="s">
-        <v>861</v>
-      </c>
-      <c r="G137" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="H137" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="I137" s="3">
-        <v>1</v>
-      </c>
-      <c r="J137" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="K137" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L137" s="3" t="s">
-        <v>885</v>
-      </c>
       <c r="M137" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="N137" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="N137" s="3" t="s">
-        <v>885</v>
-      </c>
       <c r="O137" s="5" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="P137" s="5"/>
       <c r="Q137" s="5" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="R137" s="19"/>
       <c r="S137" s="24"/>
@@ -12940,55 +12885,55 @@
       <c r="Y137" s="5"/>
       <c r="Z137" s="5"/>
     </row>
-    <row r="138" spans="1:26" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B138" s="62" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F138" s="28" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="G138" s="27" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="I138" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="M138" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="N138" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="N138" s="3" t="s">
-        <v>885</v>
-      </c>
       <c r="O138" s="5" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P138" s="5"/>
       <c r="Q138" s="5" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="R138" s="19"/>
       <c r="S138" s="24"/>
@@ -13000,53 +12945,55 @@
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
     </row>
-    <row r="139" spans="1:26" s="9" customFormat="1" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:26" s="9" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="B139" s="62" t="s">
         <v>898</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>899</v>
+      <c r="C139" s="66" t="s">
+        <v>539</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>900</v>
+        <v>848</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>861</v>
+        <v>37</v>
+      </c>
+      <c r="F139" s="28" t="s">
+        <v>849</v>
       </c>
       <c r="G139" s="27" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="I139" s="3">
         <v>2</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="K139" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="M139" s="5"/>
+        <v>886</v>
+      </c>
+      <c r="M139" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="N139" s="3" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="O139" s="5" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="P139" s="5"/>
       <c r="Q139" s="5" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="R139" s="19"/>
       <c r="S139" s="24"/>
@@ -13058,55 +13005,55 @@
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
     </row>
-    <row r="140" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:26" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="B140" s="62" t="s">
+        <v>902</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F140" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="G140" s="27" t="s">
+        <v>905</v>
+      </c>
+      <c r="H140" s="5" t="s">
         <v>906</v>
       </c>
-      <c r="B140" s="62" t="s">
-        <v>764</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>907</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F140" s="28" t="s">
-        <v>861</v>
-      </c>
-      <c r="G140" s="27" t="s">
-        <v>901</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>902</v>
-      </c>
       <c r="I140" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>864</v>
+        <v>297</v>
       </c>
       <c r="K140" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="M140" s="5" t="s">
-        <v>539</v>
+        <v>908</v>
       </c>
       <c r="N140" s="3" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="O140" s="5" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="P140" s="5"/>
       <c r="Q140" s="5" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="R140" s="19"/>
       <c r="S140" s="24"/>
@@ -13118,55 +13065,55 @@
       <c r="Y140" s="5"/>
       <c r="Z140" s="5"/>
     </row>
-    <row r="141" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B141" s="62" t="s">
         <v>911</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F141" s="28" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="G141" s="27" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="I141" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>864</v>
+        <v>297</v>
       </c>
       <c r="K141" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="M141" s="5" t="s">
-        <v>539</v>
+        <v>908</v>
       </c>
       <c r="N141" s="3" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="O141" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="P141" s="5"/>
       <c r="Q141" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="R141" s="19"/>
       <c r="S141" s="24"/>
@@ -13178,55 +13125,55 @@
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
     </row>
-    <row r="142" spans="1:26" s="9" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="B142" s="62" t="s">
         <v>915</v>
       </c>
-      <c r="C142" s="66" t="s">
-        <v>539</v>
+      <c r="C142" s="5" t="s">
+        <v>916</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F142" s="28" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="G142" s="27" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="I142" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>864</v>
+        <v>297</v>
       </c>
       <c r="K142" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="M142" s="5" t="s">
-        <v>539</v>
+        <v>908</v>
       </c>
       <c r="N142" s="3" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="O142" s="5" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="P142" s="5"/>
       <c r="Q142" s="5" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="R142" s="19"/>
       <c r="S142" s="24"/>
@@ -13238,30 +13185,30 @@
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
     </row>
-    <row r="143" spans="1:26" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B143" s="62" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>921</v>
+        <v>848</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="F143" s="28" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="G143" s="27" t="s">
-        <v>922</v>
+        <v>905</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>923</v>
+        <v>906</v>
       </c>
       <c r="I143" s="3">
         <v>3</v>
@@ -13273,20 +13220,20 @@
         <v>30</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>924</v>
+        <v>907</v>
       </c>
       <c r="M143" s="5" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="N143" s="3" t="s">
-        <v>924</v>
+        <v>907</v>
       </c>
       <c r="O143" s="5" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="P143" s="5"/>
       <c r="Q143" s="5" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="R143" s="19"/>
       <c r="S143" s="24"/>
@@ -13298,55 +13245,55 @@
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
     </row>
-    <row r="144" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:26" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="B144" s="62" t="s">
+      <c r="B144" s="101" t="s">
+        <v>925</v>
+      </c>
+      <c r="C144" s="102" t="s">
+        <v>926</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="F144" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F144" s="28" t="s">
-        <v>861</v>
-      </c>
       <c r="G144" s="27" t="s">
-        <v>922</v>
-      </c>
-      <c r="H144" s="5" t="s">
-        <v>923</v>
-      </c>
-      <c r="I144" s="3">
-        <v>3</v>
-      </c>
-      <c r="J144" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="K144" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L144" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="M144" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="N144" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="O144" s="5" t="s">
         <v>929</v>
+      </c>
+      <c r="H144" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="I144" s="7">
+        <v>2</v>
+      </c>
+      <c r="J144" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="K144" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L144" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="M144" s="15" t="s">
+        <v>933</v>
+      </c>
+      <c r="N144" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="O144" s="102" t="s">
+        <v>934</v>
       </c>
       <c r="P144" s="5"/>
       <c r="Q144" s="5" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="R144" s="19"/>
       <c r="S144" s="24"/>
@@ -13359,232 +13306,221 @@
       <c r="Z144" s="5"/>
     </row>
     <row r="145" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="13" t="s">
+        <v>936</v>
+      </c>
+      <c r="B145" s="82"/>
+      <c r="C145" s="36" t="s">
+        <v>937</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="G145" s="27" t="s">
+        <v>929</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="I145" s="7">
+        <v>2</v>
+      </c>
+      <c r="J145" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="B145" s="62" t="s">
+      <c r="K145" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L145" s="13" t="s">
         <v>932</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="M145" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F145" s="28" t="s">
-        <v>861</v>
-      </c>
-      <c r="G145" s="27" t="s">
-        <v>922</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>923</v>
-      </c>
-      <c r="I145" s="3">
-        <v>3</v>
-      </c>
-      <c r="J145" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="K145" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L145" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="M145" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="N145" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="O145" s="5" t="s">
-        <v>934</v>
-      </c>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5" t="s">
-        <v>935</v>
+      <c r="N145" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="O145" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="P145" s="8"/>
+      <c r="Q145" s="8" t="s">
+        <v>939</v>
       </c>
       <c r="R145" s="19"/>
-      <c r="S145" s="24"/>
-      <c r="T145" s="23"/>
-      <c r="U145" s="23"/>
-      <c r="V145" s="23"/>
-      <c r="W145"/>
-      <c r="X145" s="5"/>
-      <c r="Y145" s="5"/>
-      <c r="Z145" s="5"/>
-    </row>
-    <row r="146" spans="1:26" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="B146" s="62" t="s">
-        <v>937</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>938</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F146" s="28" t="s">
-        <v>861</v>
+      <c r="S145" s="30"/>
+      <c r="T145" s="7"/>
+      <c r="X145" s="8"/>
+      <c r="Y145" s="8"/>
+      <c r="Z145" s="8"/>
+    </row>
+    <row r="146" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="B146" s="82"/>
+      <c r="C146" s="61" t="s">
+        <v>941</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>928</v>
       </c>
       <c r="G146" s="27" t="s">
-        <v>922</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>923</v>
-      </c>
-      <c r="I146" s="3">
-        <v>3</v>
-      </c>
-      <c r="J146" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="K146" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L146" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="M146" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="N146" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="O146" s="5" t="s">
-        <v>939</v>
-      </c>
-      <c r="P146" s="5"/>
-      <c r="Q146" s="5" t="s">
-        <v>940</v>
+        <v>929</v>
+      </c>
+      <c r="H146" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="I146" s="7">
+        <v>2</v>
+      </c>
+      <c r="J146" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="K146" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L146" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="M146" s="15" t="s">
+        <v>933</v>
+      </c>
+      <c r="N146" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="O146" s="88" t="s">
+        <v>942</v>
+      </c>
+      <c r="P146" s="8"/>
+      <c r="Q146" s="8" t="s">
+        <v>943</v>
       </c>
       <c r="R146" s="19"/>
-      <c r="S146" s="24"/>
-      <c r="T146" s="23"/>
-      <c r="U146" s="23"/>
-      <c r="V146" s="23"/>
-      <c r="W146"/>
-      <c r="X146" s="5"/>
-      <c r="Y146" s="5"/>
-      <c r="Z146" s="5"/>
+      <c r="S146" s="30"/>
+      <c r="T146" s="7"/>
+      <c r="X146" s="8"/>
+      <c r="Y146" s="8"/>
+      <c r="Z146" s="8"/>
     </row>
     <row r="147" spans="1:26" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
-        <v>941</v>
-      </c>
-      <c r="B147" s="101" t="s">
-        <v>942</v>
-      </c>
-      <c r="C147" s="102" t="s">
-        <v>943</v>
+      <c r="A147" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="B147" s="82" t="s">
+        <v>945</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>946</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>944</v>
+        <v>927</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>714</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>945</v>
+        <v>928</v>
       </c>
       <c r="G147" s="27" t="s">
-        <v>946</v>
+        <v>929</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>947</v>
+        <v>930</v>
       </c>
       <c r="I147" s="7">
         <v>2</v>
       </c>
       <c r="J147" s="7" t="s">
-        <v>948</v>
+        <v>931</v>
       </c>
       <c r="K147" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L147" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="M147" s="15" t="s">
+        <v>933</v>
+      </c>
+      <c r="N147" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="O147" s="37" t="s">
+        <v>947</v>
+      </c>
+      <c r="P147" s="8"/>
+      <c r="Q147" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="R147" s="19"/>
+      <c r="S147" s="30"/>
+      <c r="T147" s="7"/>
+      <c r="X147" s="8"/>
+      <c r="Y147" s="8"/>
+      <c r="Z147" s="8"/>
+    </row>
+    <row r="148" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A148" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="M147" s="15" t="s">
+      <c r="B148" s="82" t="s">
         <v>950</v>
       </c>
-      <c r="N147" s="13" t="s">
-        <v>949</v>
-      </c>
-      <c r="O147" s="102" t="s">
+      <c r="C148" s="8" t="s">
         <v>951</v>
       </c>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="R147" s="19"/>
-      <c r="S147" s="24"/>
-      <c r="T147" s="23"/>
-      <c r="U147" s="23"/>
-      <c r="V147" s="23"/>
-      <c r="W147"/>
-      <c r="X147" s="5"/>
-      <c r="Y147" s="5"/>
-      <c r="Z147" s="5"/>
-    </row>
-    <row r="148" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A148" s="13" t="s">
-        <v>953</v>
-      </c>
-      <c r="B148" s="82"/>
-      <c r="C148" s="36" t="s">
-        <v>954</v>
-      </c>
       <c r="D148" s="7" t="s">
-        <v>944</v>
+        <v>927</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>714</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>945</v>
+        <v>928</v>
       </c>
       <c r="G148" s="27" t="s">
-        <v>946</v>
+        <v>929</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>947</v>
+        <v>930</v>
       </c>
       <c r="I148" s="7">
         <v>2</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>948</v>
+        <v>931</v>
       </c>
       <c r="K148" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L148" s="13" t="s">
-        <v>949</v>
+        <v>932</v>
       </c>
       <c r="M148" s="15" t="s">
-        <v>950</v>
+        <v>933</v>
       </c>
       <c r="N148" s="13" t="s">
-        <v>949</v>
+        <v>932</v>
       </c>
       <c r="O148" s="8" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="P148" s="8"/>
-      <c r="Q148" s="8" t="s">
-        <v>956</v>
+      <c r="Q148" s="38" t="s">
+        <v>953</v>
       </c>
       <c r="R148" s="19"/>
       <c r="S148" s="30"/>
@@ -13593,475 +13529,490 @@
       <c r="Y148" s="8"/>
       <c r="Z148" s="8"/>
     </row>
-    <row r="149" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A149" s="13" t="s">
+    <row r="149" spans="1:26" s="9" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="B149" s="62" t="s">
+        <v>955</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="B149" s="82"/>
-      <c r="C149" s="61" t="s">
+      <c r="E149" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F149" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="D149" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="F149" s="7" t="s">
-        <v>945</v>
-      </c>
       <c r="G149" s="27" t="s">
-        <v>946</v>
-      </c>
-      <c r="H149" s="8" t="s">
-        <v>947</v>
-      </c>
-      <c r="I149" s="7">
-        <v>2</v>
-      </c>
-      <c r="J149" s="7" t="s">
-        <v>948</v>
-      </c>
-      <c r="K149" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L149" s="13" t="s">
-        <v>949</v>
-      </c>
-      <c r="M149" s="15" t="s">
-        <v>950</v>
-      </c>
-      <c r="N149" s="13" t="s">
-        <v>949</v>
-      </c>
-      <c r="O149" s="88" t="s">
         <v>959</v>
       </c>
-      <c r="P149" s="8"/>
-      <c r="Q149" s="8" t="s">
+      <c r="H149" s="5" t="s">
         <v>960</v>
       </c>
+      <c r="I149" s="3">
+        <v>1</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="M149" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="N149" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="O149" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5" t="s">
+        <v>962</v>
+      </c>
       <c r="R149" s="19"/>
-      <c r="S149" s="30"/>
-      <c r="T149" s="7"/>
-      <c r="X149" s="8"/>
-      <c r="Y149" s="8"/>
-      <c r="Z149" s="8"/>
-    </row>
-    <row r="150" spans="1:26" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A150" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="B150" s="82" t="s">
-        <v>962</v>
-      </c>
-      <c r="C150" s="8" t="s">
+      <c r="S149" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="T149" s="23" t="s">
         <v>963</v>
       </c>
-      <c r="D150" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="F150" s="7" t="s">
-        <v>945</v>
+      <c r="U149" s="23"/>
+      <c r="V149" s="23"/>
+      <c r="W149"/>
+      <c r="X149" s="5"/>
+      <c r="Y149" s="5"/>
+      <c r="Z149" s="5"/>
+    </row>
+    <row r="150" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="B150" s="62" t="s">
+        <v>965</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F150" s="28" t="s">
+        <v>958</v>
       </c>
       <c r="G150" s="27" t="s">
-        <v>946</v>
-      </c>
-      <c r="H150" s="8" t="s">
-        <v>947</v>
-      </c>
-      <c r="I150" s="7">
-        <v>2</v>
-      </c>
-      <c r="J150" s="7" t="s">
-        <v>948</v>
-      </c>
-      <c r="K150" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L150" s="13" t="s">
-        <v>949</v>
-      </c>
-      <c r="M150" s="15" t="s">
-        <v>950</v>
-      </c>
-      <c r="N150" s="13" t="s">
-        <v>949</v>
-      </c>
-      <c r="O150" s="37" t="s">
-        <v>964</v>
-      </c>
-      <c r="P150" s="8"/>
-      <c r="Q150" s="8" t="s">
-        <v>965</v>
+        <v>959</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="I150" s="3">
+        <v>1</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="M150" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="N150" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="O150" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5" t="s">
+        <v>968</v>
       </c>
       <c r="R150" s="19"/>
-      <c r="S150" s="30"/>
-      <c r="T150" s="7"/>
-      <c r="X150" s="8"/>
-      <c r="Y150" s="8"/>
-      <c r="Z150" s="8"/>
-    </row>
-    <row r="151" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A151" s="7" t="s">
-        <v>966</v>
-      </c>
-      <c r="B151" s="82" t="s">
-        <v>967</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>968</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>945</v>
+      <c r="S150" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="T150" s="23" t="s">
+        <v>969</v>
+      </c>
+      <c r="U150" s="23"/>
+      <c r="V150" s="23"/>
+      <c r="W150"/>
+      <c r="X150" s="5"/>
+      <c r="Y150" s="5"/>
+      <c r="Z150" s="5"/>
+    </row>
+    <row r="151" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="B151" s="62" t="s">
+        <v>971</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>958</v>
       </c>
       <c r="G151" s="27" t="s">
-        <v>946</v>
-      </c>
-      <c r="H151" s="8" t="s">
-        <v>947</v>
-      </c>
-      <c r="I151" s="7">
-        <v>2</v>
-      </c>
-      <c r="J151" s="7" t="s">
-        <v>948</v>
-      </c>
-      <c r="K151" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L151" s="13" t="s">
-        <v>949</v>
-      </c>
-      <c r="M151" s="15" t="s">
-        <v>950</v>
-      </c>
-      <c r="N151" s="13" t="s">
-        <v>949</v>
-      </c>
-      <c r="O151" s="8" t="s">
-        <v>969</v>
-      </c>
-      <c r="P151" s="8"/>
-      <c r="Q151" s="38" t="s">
-        <v>970</v>
-      </c>
-      <c r="R151" s="19"/>
-      <c r="S151" s="30"/>
-      <c r="T151" s="7"/>
-      <c r="X151" s="8"/>
-      <c r="Y151" s="8"/>
-      <c r="Z151" s="8"/>
-    </row>
-    <row r="152" spans="1:26" s="9" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A152" s="3" t="s">
-        <v>971</v>
-      </c>
-      <c r="B152" s="62" t="s">
-        <v>972</v>
-      </c>
-      <c r="C152" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="I151" s="3">
+        <v>1</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="M151" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="N151" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="O151" s="5" t="s">
         <v>973</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="Q151" s="5" t="s">
         <v>974</v>
       </c>
-      <c r="E152" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F152" s="3" t="s">
+      <c r="S151" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="T151" s="23" t="s">
         <v>975</v>
       </c>
+    </row>
+    <row r="152" spans="1:26" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A152" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="B152" s="84" t="s">
+        <v>977</v>
+      </c>
+      <c r="C152" s="61" t="s">
+        <v>978</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>958</v>
+      </c>
       <c r="G152" s="27" t="s">
-        <v>976</v>
+        <v>959</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>977</v>
-      </c>
-      <c r="I152" s="3">
+        <v>960</v>
+      </c>
+      <c r="I152" s="7">
         <v>1</v>
       </c>
       <c r="J152" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="K152" s="3" t="s">
+      <c r="K152" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>971</v>
+        <v>954</v>
       </c>
       <c r="M152" s="5" t="s">
-        <v>973</v>
-      </c>
-      <c r="N152" s="3" t="s">
-        <v>971</v>
-      </c>
-      <c r="O152" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="P152" s="5"/>
-      <c r="Q152" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="N152" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="O152" s="40" t="s">
         <v>979</v>
       </c>
-      <c r="R152" s="19"/>
-      <c r="S152" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="T152" s="23" t="s">
+      <c r="P152" s="8"/>
+      <c r="Q152" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="U152" s="23"/>
-      <c r="V152" s="23"/>
-      <c r="W152"/>
-      <c r="X152" s="5"/>
-      <c r="Y152" s="5"/>
-      <c r="Z152" s="5"/>
-    </row>
-    <row r="153" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="S152" s="30"/>
+      <c r="T152" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="U152" s="9"/>
+      <c r="V152" s="9"/>
+      <c r="W152" s="9"/>
+      <c r="X152" s="8"/>
+      <c r="Y152" s="8"/>
+      <c r="Z152" s="8"/>
+    </row>
+    <row r="153" spans="1:26" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="B153" s="62" t="s">
         <v>982</v>
       </c>
+      <c r="B153" s="62"/>
       <c r="C153" s="5" t="s">
         <v>983</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F153" s="28" t="s">
-        <v>975</v>
-      </c>
-      <c r="G153" s="27" t="s">
-        <v>976</v>
+      <c r="F153" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>985</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>977</v>
+        <v>986</v>
       </c>
       <c r="I153" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>86</v>
+        <v>931</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>971</v>
+        <v>987</v>
       </c>
       <c r="M153" s="5" t="s">
-        <v>973</v>
+        <v>988</v>
       </c>
       <c r="N153" s="3" t="s">
-        <v>971</v>
+        <v>987</v>
       </c>
       <c r="O153" s="5" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="P153" s="5"/>
-      <c r="Q153" s="5" t="s">
-        <v>985</v>
+      <c r="Q153" s="85" t="s">
+        <v>990</v>
       </c>
       <c r="R153" s="19"/>
       <c r="S153" s="24" t="s">
         <v>257</v>
       </c>
       <c r="T153" s="23" t="s">
-        <v>986</v>
-      </c>
-      <c r="U153" s="23"/>
+        <v>991</v>
+      </c>
+      <c r="U153" s="25">
+        <v>1</v>
+      </c>
       <c r="V153" s="23"/>
       <c r="W153"/>
       <c r="X153" s="5"/>
       <c r="Y153" s="5"/>
       <c r="Z153" s="5"/>
     </row>
-    <row r="154" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="B154" s="62"/>
+      <c r="C154" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G154" s="27" t="s">
+        <v>985</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="I154" s="3">
+        <v>3</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L154" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="B154" s="62" t="s">
+      <c r="M154" s="5" t="s">
         <v>988</v>
       </c>
-      <c r="C154" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="G154" s="27" t="s">
-        <v>976</v>
-      </c>
-      <c r="H154" s="5" t="s">
-        <v>977</v>
-      </c>
-      <c r="I154" s="3">
-        <v>1</v>
-      </c>
-      <c r="J154" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K154" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L154" s="3" t="s">
-        <v>971</v>
-      </c>
-      <c r="M154" s="5" t="s">
-        <v>973</v>
-      </c>
       <c r="N154" s="3" t="s">
-        <v>971</v>
+        <v>987</v>
       </c>
       <c r="O154" s="5" t="s">
-        <v>990</v>
-      </c>
-      <c r="Q154" s="5" t="s">
-        <v>991</v>
-      </c>
+        <v>994</v>
+      </c>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="85" t="s">
+        <v>995</v>
+      </c>
+      <c r="R154" s="19"/>
       <c r="S154" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="T154" s="23" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="155" spans="1:26" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A155" s="7" t="s">
-        <v>993</v>
-      </c>
-      <c r="B155" s="84" t="s">
-        <v>994</v>
-      </c>
-      <c r="C155" s="61" t="s">
-        <v>995</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>975</v>
+      <c r="T154" s="23"/>
+      <c r="U154" s="25">
+        <v>1</v>
+      </c>
+      <c r="V154" s="23"/>
+      <c r="W154"/>
+      <c r="X154" s="5"/>
+      <c r="Y154" s="5"/>
+      <c r="Z154" s="5"/>
+    </row>
+    <row r="155" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="B155" s="62"/>
+      <c r="C155" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>593</v>
       </c>
       <c r="G155" s="27" t="s">
-        <v>976</v>
+        <v>985</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>977</v>
-      </c>
-      <c r="I155" s="7">
-        <v>1</v>
+        <v>986</v>
+      </c>
+      <c r="I155" s="3">
+        <v>3</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K155" s="7" t="s">
-        <v>30</v>
+        <v>931</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>971</v>
+        <v>987</v>
       </c>
       <c r="M155" s="5" t="s">
-        <v>973</v>
-      </c>
-      <c r="N155" s="7" t="s">
-        <v>971</v>
-      </c>
-      <c r="O155" s="40" t="s">
+        <v>988</v>
+      </c>
+      <c r="N155" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="O155" s="5" t="s">
         <v>996</v>
       </c>
-      <c r="P155" s="8"/>
-      <c r="Q155" s="8" t="s">
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5" t="s">
         <v>997</v>
       </c>
-      <c r="S155" s="30"/>
-      <c r="T155" s="7" t="s">
+      <c r="R155" s="19"/>
+      <c r="S155" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="T155" s="23"/>
+      <c r="U155" s="23"/>
+      <c r="V155" s="23"/>
+      <c r="W155"/>
+      <c r="X155" s="5"/>
+      <c r="Y155" s="5"/>
+      <c r="Z155" s="5"/>
+    </row>
+    <row r="156" spans="1:26" s="9" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
         <v>998</v>
-      </c>
-      <c r="U155" s="9"/>
-      <c r="V155" s="9"/>
-      <c r="W155" s="9"/>
-      <c r="X155" s="8"/>
-      <c r="Y155" s="8"/>
-      <c r="Z155" s="8"/>
-    </row>
-    <row r="156" spans="1:26" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A156" s="3" t="s">
-        <v>999</v>
       </c>
       <c r="B156" s="62"/>
       <c r="C156" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>1001</v>
+        <v>643</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="G156" s="10" t="s">
-        <v>1002</v>
+      <c r="G156" s="27" t="s">
+        <v>985</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="I156" s="3">
         <v>3</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>948</v>
+        <v>931</v>
       </c>
       <c r="K156" s="3" t="s">
         <v>58</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="M156" s="5" t="s">
-        <v>1005</v>
+        <v>988</v>
       </c>
       <c r="N156" s="3" t="s">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="O156" s="5" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="P156" s="5"/>
-      <c r="Q156" s="85" t="s">
-        <v>1007</v>
+      <c r="Q156" s="86" t="s">
+        <v>1001</v>
       </c>
       <c r="R156" s="19"/>
       <c r="S156" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="T156" s="23" t="s">
-        <v>1008</v>
-      </c>
+      <c r="T156" s="23"/>
       <c r="U156" s="25">
         <v>1</v>
       </c>
@@ -14071,121 +14022,127 @@
       <c r="Y156" s="5"/>
       <c r="Z156" s="5"/>
     </row>
-    <row r="157" spans="1:26" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" s="9" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B157" s="62"/>
-      <c r="C157" s="5" t="s">
-        <v>1010</v>
+        <v>1002</v>
+      </c>
+      <c r="B157" s="62" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C157" s="66" t="s">
+        <v>1004</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>651</v>
+        <v>1005</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F157" s="3" t="s">
-        <v>593</v>
+      <c r="F157" s="28" t="s">
+        <v>1006</v>
       </c>
       <c r="G157" s="27" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="I157" s="3">
         <v>3</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>948</v>
+        <v>377</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="M157" s="5" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="N157" s="3" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="O157" s="5" t="s">
         <v>1011</v>
       </c>
       <c r="P157" s="5"/>
-      <c r="Q157" s="85" t="s">
+      <c r="Q157" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="R157" s="19"/>
       <c r="S157" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="T157" s="23"/>
-      <c r="U157" s="25">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="T157" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="U157" s="23"/>
       <c r="V157" s="23"/>
       <c r="W157"/>
       <c r="X157" s="5"/>
       <c r="Y157" s="5"/>
       <c r="Z157" s="5"/>
     </row>
-    <row r="158" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B158" s="62"/>
+        <v>1009</v>
+      </c>
+      <c r="B158" s="62" t="s">
+        <v>1014</v>
+      </c>
       <c r="C158" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="D158" s="3" t="s">
-        <v>643</v>
-      </c>
       <c r="E158" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>593</v>
+        <v>44</v>
+      </c>
+      <c r="F158" s="28" t="s">
+        <v>1006</v>
       </c>
       <c r="G158" s="27" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="I158" s="3">
         <v>3</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>948</v>
+        <v>377</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="M158" s="5" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="N158" s="3" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="O158" s="5" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="P158" s="5"/>
       <c r="Q158" s="5" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="R158" s="19"/>
       <c r="S158" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="T158" s="23"/>
+        <v>35</v>
+      </c>
+      <c r="T158" s="24" t="s">
+        <v>1017</v>
+      </c>
       <c r="U158" s="23"/>
       <c r="V158" s="23"/>
       <c r="W158"/>
@@ -14195,60 +14152,64 @@
     </row>
     <row r="159" spans="1:26" s="9" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B159" s="62"/>
+        <v>1018</v>
+      </c>
+      <c r="B159" s="62" t="s">
+        <v>1019</v>
+      </c>
       <c r="C159" s="5" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>643</v>
+        <v>1005</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>593</v>
+        <v>25</v>
+      </c>
+      <c r="F159" s="28" t="s">
+        <v>1006</v>
       </c>
       <c r="G159" s="27" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="I159" s="3">
         <v>3</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>948</v>
+        <v>377</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="L159" s="3" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="M159" s="5" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="N159" s="3" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="O159" s="5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="P159" s="5"/>
-      <c r="Q159" s="86" t="s">
-        <v>1018</v>
+        <v>1021</v>
+      </c>
+      <c r="P159" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="Q159" s="5" t="s">
+        <v>1023</v>
       </c>
       <c r="R159" s="19"/>
       <c r="S159" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="T159" s="23"/>
-      <c r="U159" s="25">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="T159" s="25" t="s">
+        <v>1024</v>
+      </c>
+      <c r="U159" s="23"/>
       <c r="V159" s="23"/>
       <c r="W159"/>
       <c r="X159" s="5"/>
@@ -14257,28 +14218,28 @@
     </row>
     <row r="160" spans="1:26" s="9" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="B160" s="62" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C160" s="66" t="s">
-        <v>1021</v>
+        <v>1026</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>1027</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>1022</v>
+        <v>1005</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F160" s="28" t="s">
-        <v>1023</v>
+        <v>1006</v>
       </c>
       <c r="G160" s="27" t="s">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>1025</v>
+        <v>1008</v>
       </c>
       <c r="I160" s="3">
         <v>3</v>
@@ -14290,13 +14251,13 @@
         <v>30</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>1026</v>
+        <v>1009</v>
       </c>
       <c r="M160" s="5" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="N160" s="3" t="s">
-        <v>1026</v>
+        <v>1009</v>
       </c>
       <c r="O160" s="5" t="s">
         <v>1028</v>
@@ -14309,7 +14270,7 @@
       <c r="S160" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="T160" s="11" t="s">
+      <c r="T160" s="25" t="s">
         <v>1030</v>
       </c>
       <c r="U160" s="23"/>
@@ -14319,63 +14280,59 @@
       <c r="Y160" s="5"/>
       <c r="Z160" s="5"/>
     </row>
-    <row r="161" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="B161" s="62" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G161" s="27" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I161" s="3">
+        <v>1</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L161" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="C161" s="5" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F161" s="28" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G161" s="27" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H161" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I161" s="3">
-        <v>3</v>
-      </c>
-      <c r="J161" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="K161" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L161" s="3" t="s">
-        <v>1026</v>
-      </c>
       <c r="M161" s="5" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="N161" s="3" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="O161" s="5" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="P161" s="5"/>
       <c r="Q161" s="5" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="R161" s="19"/>
-      <c r="S161" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="T161" s="24" t="s">
-        <v>1034</v>
-      </c>
+      <c r="S161" s="24"/>
+      <c r="T161" s="23"/>
       <c r="U161" s="23"/>
       <c r="V161" s="23"/>
       <c r="W161"/>
@@ -14383,65 +14340,59 @@
       <c r="Y161" s="5"/>
       <c r="Z161" s="5"/>
     </row>
-    <row r="162" spans="1:26" s="9" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="B162" s="62" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F162" s="28" t="s">
-        <v>1023</v>
+      <c r="F162" s="3" t="s">
+        <v>1035</v>
       </c>
       <c r="G162" s="27" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="I162" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>377</v>
+        <v>931</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="M162" s="5" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="N162" s="3" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="O162" s="5" t="s">
-        <v>1038</v>
-      </c>
-      <c r="P162" s="5" t="s">
-        <v>1039</v>
-      </c>
+        <v>1043</v>
+      </c>
+      <c r="P162" s="5"/>
       <c r="Q162" s="5" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="R162" s="19"/>
-      <c r="S162" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="T162" s="25" t="s">
-        <v>1041</v>
-      </c>
+      <c r="S162" s="24"/>
+      <c r="T162" s="23"/>
       <c r="U162" s="23"/>
       <c r="V162" s="23"/>
       <c r="W162"/>
@@ -14449,63 +14400,59 @@
       <c r="Y162" s="5"/>
       <c r="Z162" s="5"/>
     </row>
-    <row r="163" spans="1:26" s="9" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B163" s="62" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F163" s="28" t="s">
-        <v>1023</v>
+      <c r="F163" s="3" t="s">
+        <v>1035</v>
       </c>
       <c r="G163" s="27" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="I163" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>377</v>
+        <v>931</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="M163" s="5" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="N163" s="3" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="O163" s="5" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="P163" s="5"/>
       <c r="Q163" s="5" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="R163" s="19"/>
-      <c r="S163" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="T163" s="25" t="s">
-        <v>1047</v>
-      </c>
+      <c r="S163" s="24"/>
+      <c r="T163" s="23"/>
       <c r="U163" s="23"/>
       <c r="V163" s="23"/>
       <c r="W163"/>
@@ -14513,185 +14460,65 @@
       <c r="Y163" s="5"/>
       <c r="Z163" s="5"/>
     </row>
-    <row r="164" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A164" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B164" s="62" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G164" s="27" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H164" s="5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="I164" s="3">
-        <v>1</v>
-      </c>
-      <c r="J164" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="K164" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L164" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="M164" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="N164" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="O164" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="P164" s="5"/>
-      <c r="Q164" s="5" t="s">
-        <v>1056</v>
-      </c>
-      <c r="R164" s="19"/>
-      <c r="S164" s="24"/>
-      <c r="T164" s="23"/>
-      <c r="U164" s="23"/>
-      <c r="V164" s="23"/>
-      <c r="W164"/>
-      <c r="X164" s="5"/>
-      <c r="Y164" s="5"/>
-      <c r="Z164" s="5"/>
-    </row>
-    <row r="165" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B165" s="62" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G165" s="27" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H165" s="5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="I165" s="3">
-        <v>1</v>
-      </c>
-      <c r="J165" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="K165" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L165" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="M165" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="N165" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="O165" s="5" t="s">
-        <v>1060</v>
-      </c>
-      <c r="P165" s="5"/>
-      <c r="Q165" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="R165" s="19"/>
-      <c r="S165" s="24"/>
-      <c r="T165" s="23"/>
-      <c r="U165" s="23"/>
-      <c r="V165" s="23"/>
-      <c r="W165"/>
-      <c r="X165" s="5"/>
-      <c r="Y165" s="5"/>
-      <c r="Z165" s="5"/>
-    </row>
-    <row r="166" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A166" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B166" s="62" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G166" s="27" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H166" s="5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="I166" s="3">
-        <v>1</v>
-      </c>
-      <c r="J166" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="K166" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L166" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="M166" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="N166" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="O166" s="5" t="s">
-        <v>1065</v>
-      </c>
-      <c r="P166" s="5"/>
-      <c r="Q166" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="R166" s="19"/>
-      <c r="S166" s="24"/>
-      <c r="T166" s="23"/>
-      <c r="U166" s="23"/>
-      <c r="V166" s="23"/>
-      <c r="W166"/>
-      <c r="X166" s="5"/>
-      <c r="Y166" s="5"/>
-      <c r="Z166" s="5"/>
+    <row r="164" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A164" s="29"/>
+      <c r="C164" s="65"/>
+      <c r="D164" s="29"/>
+      <c r="F164" s="42"/>
+      <c r="G164" s="79"/>
+      <c r="H164" s="76"/>
+      <c r="I164" s="42"/>
+      <c r="J164" s="42"/>
+      <c r="K164" s="42"/>
+      <c r="L164" s="29"/>
+      <c r="M164" s="29"/>
+      <c r="N164" s="29"/>
+      <c r="O164" s="77"/>
+      <c r="R164"/>
+      <c r="S164" s="43"/>
+      <c r="T164"/>
+      <c r="U164"/>
+      <c r="V164"/>
+    </row>
+    <row r="165" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A165" s="29"/>
+      <c r="C165" s="65"/>
+      <c r="D165" s="29"/>
+      <c r="F165" s="42"/>
+      <c r="G165" s="79"/>
+      <c r="H165" s="76"/>
+      <c r="I165" s="42"/>
+      <c r="J165" s="42"/>
+      <c r="K165" s="42"/>
+      <c r="L165" s="29"/>
+      <c r="M165" s="29"/>
+      <c r="N165" s="29"/>
+      <c r="O165" s="77"/>
+      <c r="R165"/>
+      <c r="S165" s="43"/>
+      <c r="T165"/>
+      <c r="U165"/>
+      <c r="V165"/>
+    </row>
+    <row r="166" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A166" s="29"/>
+      <c r="C166" s="65"/>
+      <c r="D166" s="29"/>
+      <c r="F166" s="42"/>
+      <c r="G166" s="79"/>
+      <c r="H166" s="76"/>
+      <c r="I166" s="42"/>
+      <c r="J166" s="42"/>
+      <c r="K166" s="42"/>
+      <c r="L166" s="29"/>
+      <c r="M166" s="29"/>
+      <c r="N166" s="29"/>
+      <c r="O166" s="77"/>
+      <c r="R166"/>
+      <c r="S166" s="43"/>
+      <c r="T166"/>
+      <c r="U166"/>
+      <c r="V166"/>
     </row>
     <row r="167" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" s="29"/>
@@ -14714,89 +14541,29 @@
       <c r="V167"/>
     </row>
     <row r="168" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A168" s="29"/>
-      <c r="C168" s="65"/>
-      <c r="D168" s="29"/>
-      <c r="F168" s="42"/>
-      <c r="G168" s="79"/>
-      <c r="H168" s="76"/>
-      <c r="I168" s="42"/>
-      <c r="J168" s="42"/>
-      <c r="K168" s="42"/>
-      <c r="L168" s="29"/>
-      <c r="M168" s="29"/>
-      <c r="N168" s="29"/>
-      <c r="O168" s="77"/>
+      <c r="F168" s="3"/>
+      <c r="O168" s="44"/>
       <c r="R168"/>
       <c r="S168" s="43"/>
-      <c r="T168"/>
+      <c r="T168" s="3"/>
       <c r="U168"/>
       <c r="V168"/>
     </row>
-    <row r="169" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A169" s="29"/>
-      <c r="C169" s="65"/>
-      <c r="D169" s="29"/>
-      <c r="F169" s="42"/>
-      <c r="G169" s="79"/>
-      <c r="H169" s="76"/>
-      <c r="I169" s="42"/>
-      <c r="J169" s="42"/>
-      <c r="K169" s="42"/>
-      <c r="L169" s="29"/>
-      <c r="M169" s="29"/>
-      <c r="N169" s="29"/>
-      <c r="O169" s="77"/>
-      <c r="R169"/>
-      <c r="S169" s="43"/>
-      <c r="T169"/>
-      <c r="U169"/>
-      <c r="V169"/>
-    </row>
-    <row r="170" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A170" s="29"/>
-      <c r="C170" s="65"/>
-      <c r="D170" s="29"/>
-      <c r="F170" s="42"/>
-      <c r="G170" s="79"/>
-      <c r="H170" s="76"/>
-      <c r="I170" s="42"/>
-      <c r="J170" s="42"/>
-      <c r="K170" s="42"/>
-      <c r="L170" s="29"/>
-      <c r="M170" s="29"/>
-      <c r="N170" s="29"/>
-      <c r="O170" s="77"/>
-      <c r="R170"/>
-      <c r="S170" s="43"/>
-      <c r="T170"/>
-      <c r="U170"/>
-      <c r="V170"/>
-    </row>
-    <row r="171" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F171" s="3"/>
-      <c r="O171" s="44"/>
-      <c r="R171"/>
-      <c r="S171" s="43"/>
-      <c r="T171" s="3"/>
-      <c r="U171"/>
-      <c r="V171"/>
-    </row>
-    <row r="172" spans="1:26" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="169" spans="1:26" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:Z171" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z171">
-      <sortCondition ref="G1:G171"/>
+  <autoFilter ref="A1:Z168" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z168">
+      <sortCondition ref="G1:G168"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{83C11A11-0EC3-4A7D-819D-0AFF8FDD8B51}"/>
     <hyperlink ref="M4" r:id="rId2" xr:uid="{3CF38AE3-80E9-438D-BCB4-51BD15767868}"/>
     <hyperlink ref="M5" r:id="rId3" xr:uid="{10404177-45F3-4686-9317-733DC4AB05A1}"/>
-    <hyperlink ref="M148" r:id="rId4" display="mailto:dagevos@essb.eur.nl" xr:uid="{ECCF26E7-F678-4478-92B7-3BFCD98FCF11}"/>
-    <hyperlink ref="M149" r:id="rId5" display="mailto:dagevos@essb.eur.nl" xr:uid="{6FB17644-1EE3-43B8-BE88-0D9E76A23242}"/>
-    <hyperlink ref="M150" r:id="rId6" display="mailto:dagevos@essb.eur.nl" xr:uid="{2AC718B6-B61E-4919-A130-DB741C08358B}"/>
-    <hyperlink ref="M151" r:id="rId7" display="mailto:dagevos@essb.eur.nl" xr:uid="{0E31D3C3-00EE-4B98-BC71-907C17D9A61E}"/>
+    <hyperlink ref="M145" r:id="rId4" display="mailto:dagevos@essb.eur.nl" xr:uid="{ECCF26E7-F678-4478-92B7-3BFCD98FCF11}"/>
+    <hyperlink ref="M146" r:id="rId5" display="mailto:dagevos@essb.eur.nl" xr:uid="{6FB17644-1EE3-43B8-BE88-0D9E76A23242}"/>
+    <hyperlink ref="M147" r:id="rId6" display="mailto:dagevos@essb.eur.nl" xr:uid="{2AC718B6-B61E-4919-A130-DB741C08358B}"/>
+    <hyperlink ref="M148" r:id="rId7" display="mailto:dagevos@essb.eur.nl" xr:uid="{0E31D3C3-00EE-4B98-BC71-907C17D9A61E}"/>
     <hyperlink ref="M42" r:id="rId8" xr:uid="{FFF59A88-473E-4FD6-8D2E-05400CB47F85}"/>
     <hyperlink ref="M44" r:id="rId9" xr:uid="{85226911-96BE-40F4-B0EB-4AAA8D5EF7C5}"/>
     <hyperlink ref="M45" r:id="rId10" xr:uid="{4AAA4D2A-37DA-41CA-AFCA-0B110F5F16ED}"/>
@@ -14823,7 +14590,7 @@
     <hyperlink ref="C94" r:id="rId31" display="mailto:Renaud.MAES@umons.ac.be" xr:uid="{0755F065-4F91-46DB-80AD-ABA4D7C540A2}"/>
     <hyperlink ref="C13" r:id="rId32" xr:uid="{84B98E05-9DEA-48DC-8E39-4B8B63A4569B}"/>
     <hyperlink ref="C12" r:id="rId33" xr:uid="{A6A0D6D6-7C95-4DB7-B011-2C8C633AF111}"/>
-    <hyperlink ref="C149" r:id="rId34" xr:uid="{74DC6D33-C2B6-42E7-B2E8-A049186740DB}"/>
+    <hyperlink ref="C146" r:id="rId34" xr:uid="{74DC6D33-C2B6-42E7-B2E8-A049186740DB}"/>
     <hyperlink ref="C19" r:id="rId35" display="mailto:m.j.jimenezhenriquez@vu.nl" xr:uid="{2EF72237-8DAE-4FF2-96C0-99C9B355B9D9}"/>
     <hyperlink ref="C18" r:id="rId36" display="mailto:m.garniervillarreal@vu.nl" xr:uid="{9CEFEAB1-37FE-45CC-8810-3BBA03EE0BFC}"/>
     <hyperlink ref="C17" r:id="rId37" display="mailto:T.D.Jorgensen@uva.nl" xr:uid="{CE1022FA-3171-466A-8C77-CA8E740CE501}"/>
@@ -14838,7 +14605,7 @@
     <hyperlink ref="M113" r:id="rId46" xr:uid="{0354D0E2-945F-498C-ADA9-6369FF2D0C19}"/>
     <hyperlink ref="M114" r:id="rId47" xr:uid="{22D2263A-4152-4544-9B1D-0D0BF9C06191}"/>
     <hyperlink ref="C52" r:id="rId48" xr:uid="{563FA68D-4372-4F3F-BC57-ACE775FD7ABE}"/>
-    <hyperlink ref="C155" r:id="rId49" xr:uid="{C6C0C88C-C182-4990-882E-65980F152B11}"/>
+    <hyperlink ref="C152" r:id="rId49" xr:uid="{C6C0C88C-C182-4990-882E-65980F152B11}"/>
     <hyperlink ref="M14" r:id="rId50" xr:uid="{7F1C9710-757D-45BB-AF49-F66DF3219C9F}"/>
     <hyperlink ref="M15" r:id="rId51" xr:uid="{8FBA40F3-3C7B-46D7-A4B9-46FEAD404F3E}"/>
     <hyperlink ref="M16" r:id="rId52" xr:uid="{EA54E73E-5F4E-4481-BC31-98BAD6C83D9F}"/>
@@ -14870,7 +14637,7 @@
     <hyperlink ref="M13" r:id="rId78" xr:uid="{DAC23CA6-641C-48C5-8B5E-3AD11C68D9CF}"/>
     <hyperlink ref="M43" r:id="rId79" xr:uid="{97F74104-2303-4906-BBC0-948E7A5319A3}"/>
     <hyperlink ref="M80" r:id="rId80" xr:uid="{FFD38655-A9A2-491A-94CC-A5EDAAFB7821}"/>
-    <hyperlink ref="C142" r:id="rId81" xr:uid="{CE2A0929-0962-4558-9A38-71AD31A28A56}"/>
+    <hyperlink ref="C139" r:id="rId81" xr:uid="{CE2A0929-0962-4558-9A38-71AD31A28A56}"/>
     <hyperlink ref="C65" r:id="rId82" xr:uid="{F987C437-C9F6-4197-80E2-77D1153DC490}"/>
     <hyperlink ref="M60" r:id="rId83" xr:uid="{A1274740-A087-4E1B-90D6-94DC5D215BD7}"/>
     <hyperlink ref="M57" r:id="rId84" xr:uid="{F7F0621D-1289-4AA9-BE26-96B00361501C}"/>
@@ -14891,8 +14658,10 @@
     <hyperlink ref="M48" r:id="rId99" xr:uid="{00D4A9C1-A49F-46E0-BD16-80FC99C6FB9E}"/>
     <hyperlink ref="M49" r:id="rId100" xr:uid="{04F84E68-5074-44EF-B179-C51DD6092F43}"/>
     <hyperlink ref="M10" r:id="rId101" xr:uid="{2B240C49-D4A6-4DF2-B7E6-101B23BB68BB}"/>
-    <hyperlink ref="C160" r:id="rId102" xr:uid="{27D4A506-EE12-4FF4-8B96-453D239E81EA}"/>
-    <hyperlink ref="M147" r:id="rId103" display="mailto:dagevos@essb.eur.nl" xr:uid="{1B523BA2-6E34-4B6A-8EAC-2E0683752143}"/>
+    <hyperlink ref="C157" r:id="rId102" xr:uid="{27D4A506-EE12-4FF4-8B96-453D239E81EA}"/>
+    <hyperlink ref="M144" r:id="rId103" display="mailto:dagevos@essb.eur.nl" xr:uid="{1B523BA2-6E34-4B6A-8EAC-2E0683752143}"/>
+    <hyperlink ref="M124" r:id="rId104" xr:uid="{9C3CB78B-3CAC-4D9A-8A3E-F2D4A7A92D6A}"/>
+    <hyperlink ref="M125" r:id="rId105" xr:uid="{1E175B7F-2D88-49BB-9AED-433651E5D4EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14930,24 +14699,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="103" t="s">
-        <v>1067</v>
+        <v>1050</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
       <c r="D1" s="47" t="s">
-        <v>1068</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>1069</v>
+        <v>1052</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1070</v>
+        <v>1053</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="52" t="s">
-        <v>1071</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -14969,13 +14738,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>1072</v>
+        <v>1055</v>
       </c>
       <c r="C4" s="50" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>1073</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -14989,7 +14758,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>1074</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.3">
@@ -15020,29 +14789,29 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1075</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="104" t="s">
-        <v>1076</v>
+        <v>1059</v>
       </c>
       <c r="B11" s="104"/>
       <c r="C11" s="104"/>
       <c r="D11" s="47" t="s">
-        <v>1077</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
-        <v>1078</v>
+        <v>1061</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="47" t="s">
-        <v>1080</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -15050,11 +14819,11 @@
         <v>1</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>1081</v>
+        <v>1064</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="49" t="s">
-        <v>1082</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -15062,11 +14831,11 @@
         <v>2</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="49" t="s">
-        <v>1084</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -15074,23 +14843,23 @@
         <v>3</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>1085</v>
+        <v>1068</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="49" t="s">
-        <v>1086</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
-        <v>1087</v>
+        <v>1070</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="52" t="s">
-        <v>1089</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -15098,11 +14867,11 @@
         <v>4</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>1090</v>
+        <v>1073</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="49" t="s">
-        <v>1091</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -15110,11 +14879,11 @@
         <v>5</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>1092</v>
+        <v>1075</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="49" t="s">
-        <v>1093</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -15122,11 +14891,11 @@
         <v>6</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>1094</v>
+        <v>1077</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="49" t="s">
-        <v>1095</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -15134,23 +14903,23 @@
         <v>7</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>1096</v>
+        <v>1079</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="49" t="s">
-        <v>1097</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
-        <v>1098</v>
+        <v>1081</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>1099</v>
+        <v>1082</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="47" t="s">
-        <v>1100</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -15158,11 +14927,11 @@
         <v>8</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>1101</v>
+        <v>1084</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="53" t="s">
-        <v>1102</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -15170,11 +14939,11 @@
         <v>9</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>1103</v>
+        <v>1086</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="49" t="s">
-        <v>1104</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -15182,11 +14951,11 @@
         <v>10</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>1105</v>
+        <v>1088</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="49" t="s">
-        <v>1106</v>
+        <v>1089</v>
       </c>
     </row>
   </sheetData>
@@ -15213,10 +14982,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
-        <v>1107</v>
+        <v>1090</v>
       </c>
       <c r="B1" s="91" t="s">
-        <v>1108</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -15240,7 +15009,7 @@
         <v>76</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>1109</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -15253,7 +15022,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="91" t="s">
-        <v>1110</v>
+        <v>1093</v>
       </c>
       <c r="B6" s="91" t="s">
         <v>109</v>
@@ -15285,7 +15054,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="91" t="s">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="B10" s="91" t="s">
         <v>197</v>
@@ -15293,7 +15062,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="91" t="s">
-        <v>1112</v>
+        <v>1095</v>
       </c>
       <c r="B11" s="91" t="s">
         <v>197</v>
@@ -15333,7 +15102,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="91" t="s">
-        <v>1113</v>
+        <v>1096</v>
       </c>
       <c r="B16" s="91" t="s">
         <v>319</v>
@@ -15341,7 +15110,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="91" t="s">
-        <v>1114</v>
+        <v>1097</v>
       </c>
       <c r="B17" s="91" t="s">
         <v>319</v>
@@ -15349,18 +15118,18 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="91" t="s">
-        <v>1115</v>
+        <v>1098</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>1116</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="91" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>1116</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -15368,7 +15137,7 @@
         <v>379</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>1118</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -15405,7 +15174,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="91" t="s">
-        <v>899</v>
+        <v>882</v>
       </c>
       <c r="B25" s="91" t="s">
         <v>522</v>
@@ -15413,23 +15182,23 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="91" t="s">
-        <v>1119</v>
+        <v>1102</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>1120</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="91" t="s">
-        <v>1121</v>
+        <v>1104</v>
       </c>
       <c r="B27" s="91" t="s">
-        <v>1120</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="91" t="s">
-        <v>1122</v>
+        <v>1105</v>
       </c>
       <c r="B28" s="91" t="s">
         <v>594</v>
@@ -15437,7 +15206,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="91" t="s">
-        <v>1123</v>
+        <v>1106</v>
       </c>
       <c r="B29" s="91" t="s">
         <v>594</v>
@@ -15461,18 +15230,18 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="91" t="s">
-        <v>1124</v>
+        <v>1107</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>1125</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="91" t="s">
-        <v>1126</v>
+        <v>1109</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>1127</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -15488,7 +15257,7 @@
         <v>760</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>1128</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -15496,39 +15265,39 @@
         <v>792</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>788</v>
+        <v>819</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="91" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>813</v>
+        <v>788</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="91" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>831</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="91" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="B39" s="91" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="91" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="B40" s="91" t="s">
-        <v>883</v>
+        <v>866</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -15536,63 +15305,63 @@
         <v>539</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="91" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="B42" s="91" t="s">
-        <v>922</v>
+        <v>905</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="91" t="s">
-        <v>1129</v>
+        <v>1113</v>
       </c>
       <c r="B43" s="91" t="s">
-        <v>946</v>
+        <v>929</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="91" t="s">
-        <v>1130</v>
+        <v>1114</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>946</v>
+        <v>929</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="91" t="s">
-        <v>973</v>
+        <v>956</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>976</v>
+        <v>959</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="91" t="s">
-        <v>1005</v>
+        <v>988</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>1002</v>
+        <v>985</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="91" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>1024</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="91" t="s">
-        <v>1050</v>
+        <v>1033</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>1053</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -15626,22 +15395,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="94" t="s">
-        <v>1131</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="95" t="s">
-        <v>1132</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="94" t="s">
-        <v>1133</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="94" t="s">
-        <v>1126</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15651,7 +15420,7 @@
     </row>
     <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="94" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15671,12 +15440,12 @@
     </row>
     <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="94" t="s">
-        <v>1134</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="94" t="s">
-        <v>1135</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15691,12 +15460,12 @@
     </row>
     <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="94" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="96" t="s">
-        <v>1136</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15706,22 +15475,22 @@
     </row>
     <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="94" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="94" t="s">
-        <v>1137</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="94" t="s">
-        <v>1138</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="94" t="s">
-        <v>1139</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15731,12 +15500,12 @@
     </row>
     <row r="22" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="94" t="s">
-        <v>1140</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="95" t="s">
-        <v>1141</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15746,7 +15515,7 @@
     </row>
     <row r="25" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="94" t="s">
-        <v>1142</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15761,17 +15530,17 @@
     </row>
     <row r="28" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="94" t="s">
-        <v>1143</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="94" t="s">
-        <v>1010</v>
+        <v>993</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="94" t="s">
-        <v>1144</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15781,17 +15550,17 @@
     </row>
     <row r="32" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="94" t="s">
-        <v>1145</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="95" t="s">
-        <v>1146</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="95" t="s">
-        <v>1147</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15816,12 +15585,12 @@
     </row>
     <row r="39" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="94" t="s">
-        <v>1148</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="95" t="s">
-        <v>1149</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15831,17 +15600,17 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="95" t="s">
-        <v>1150</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="94" t="s">
-        <v>954</v>
+        <v>937</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="94" t="s">
-        <v>1151</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15856,12 +15625,12 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="95" t="s">
-        <v>1152</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="95" t="s">
-        <v>1153</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15871,32 +15640,32 @@
     </row>
     <row r="50" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="94" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="94" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="94" t="s">
-        <v>973</v>
+        <v>956</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="94" t="s">
-        <v>1154</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="95" t="s">
-        <v>1155</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="94" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15906,12 +15675,12 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="95" t="s">
-        <v>1156</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="94" t="s">
-        <v>912</v>
+        <v>895</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15931,12 +15700,12 @@
     </row>
     <row r="62" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="94" t="s">
-        <v>1157</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="94" t="s">
-        <v>1158</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15959,12 +15728,12 @@
     </row>
     <row r="68" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="94" t="s">
-        <v>983</v>
+        <v>966</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="94" t="s">
-        <v>1159</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15979,7 +15748,7 @@
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="95" t="s">
-        <v>1160</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15994,42 +15763,42 @@
     </row>
     <row r="75" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="94" t="s">
-        <v>1161</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="94" t="s">
-        <v>1162</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="94" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="94" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="94" t="s">
-        <v>989</v>
+        <v>972</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="94" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="94" t="s">
-        <v>1163</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="94" t="s">
-        <v>1164</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16039,7 +15808,7 @@
     </row>
     <row r="84" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="94" t="s">
-        <v>1165</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16049,7 +15818,7 @@
     </row>
     <row r="86" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="94" t="s">
-        <v>1166</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16059,22 +15828,22 @@
     </row>
     <row r="88" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="94" t="s">
-        <v>1167</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="94" t="s">
-        <v>1168</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="94" t="s">
-        <v>1169</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="94" t="s">
-        <v>1170</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16084,12 +15853,12 @@
     </row>
     <row r="93" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="94" t="s">
-        <v>1171</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="95" t="s">
-        <v>1172</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16104,12 +15873,12 @@
     </row>
     <row r="97" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="94" t="s">
-        <v>933</v>
+        <v>916</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="95" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16129,7 +15898,7 @@
     </row>
     <row r="102" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="94" t="s">
-        <v>958</v>
+        <v>941</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16139,12 +15908,12 @@
     </row>
     <row r="104" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="94" t="s">
-        <v>1174</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="94" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16159,32 +15928,32 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="95" t="s">
-        <v>1175</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="94" t="s">
-        <v>1176</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="94" t="s">
-        <v>882</v>
+        <v>865</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="94" t="s">
-        <v>1177</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="94" t="s">
-        <v>1178</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="94" t="s">
-        <v>1179</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16194,7 +15963,7 @@
     </row>
     <row r="115" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="94" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16229,12 +15998,12 @@
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="95" t="s">
-        <v>1180</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="94" t="s">
-        <v>1059</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16259,7 +16028,7 @@
     </row>
     <row r="128" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="94" t="s">
-        <v>1181</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16269,12 +16038,12 @@
     </row>
     <row r="130" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="94" t="s">
-        <v>1005</v>
+        <v>988</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="94" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16289,7 +16058,7 @@
     </row>
     <row r="134" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="94" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16299,12 +16068,12 @@
     </row>
     <row r="136" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="94" t="s">
-        <v>899</v>
+        <v>882</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="94" t="s">
-        <v>821</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16314,17 +16083,17 @@
     </row>
     <row r="139" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="94" t="s">
-        <v>1182</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="94" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="94" t="s">
-        <v>1183</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16344,7 +16113,7 @@
     </row>
     <row r="145" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="94" t="s">
-        <v>1000</v>
+        <v>983</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16359,17 +16128,17 @@
     </row>
     <row r="148" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="94" t="s">
-        <v>1184</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="94" t="s">
-        <v>840</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="94" t="s">
-        <v>1185</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16379,27 +16148,27 @@
     </row>
     <row r="152" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="94" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="94" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="94" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="94" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="94" t="s">
-        <v>878</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16409,7 +16178,7 @@
     </row>
     <row r="158" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="94" t="s">
-        <v>1189</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16449,7 +16218,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="95" t="s">
-        <v>1190</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16459,7 +16228,7 @@
     </row>
     <row r="168" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="94" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16474,12 +16243,12 @@
     </row>
     <row r="171" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="94" t="s">
-        <v>1191</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="94" t="s">
-        <v>1192</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16494,7 +16263,7 @@
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="95" t="s">
-        <v>1193</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16504,7 +16273,7 @@
     </row>
     <row r="177" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="94" t="s">
-        <v>1016</v>
+        <v>999</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16519,7 +16288,7 @@
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="95" t="s">
-        <v>1194</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16529,17 +16298,17 @@
     </row>
     <row r="182" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="94" t="s">
-        <v>1195</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="94" t="s">
-        <v>1064</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="94" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16549,7 +16318,7 @@
     </row>
     <row r="186" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="94" t="s">
-        <v>1196</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16579,22 +16348,22 @@
     </row>
     <row r="192" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="94" t="s">
-        <v>1050</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="95" t="s">
-        <v>1197</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="95" t="s">
-        <v>1123</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="94" t="s">
-        <v>1198</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
@@ -16640,8 +16409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D41787-B72F-4912-9B98-B389F7320DB5}">
   <dimension ref="A1:F247"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J119" sqref="J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16653,53 +16422,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1199</v>
+        <v>1186</v>
       </c>
       <c r="C1" t="s">
-        <v>1200</v>
+        <v>1187</v>
       </c>
       <c r="E1" t="s">
-        <v>1201</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="100" t="s">
-        <v>1202</v>
+        <v>1189</v>
       </c>
       <c r="C2" s="95" t="s">
-        <v>1132</v>
+        <v>1116</v>
       </c>
       <c r="E2" s="95" t="s">
-        <v>1132</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="100" t="s">
-        <v>1203</v>
+        <v>1190</v>
       </c>
       <c r="C3" s="94" t="s">
-        <v>1133</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="100" t="s">
-        <v>1133</v>
+        <v>1117</v>
       </c>
       <c r="C4" s="94" t="s">
-        <v>1126</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="100" t="s">
-        <v>1126</v>
+        <v>1109</v>
       </c>
       <c r="C5" s="91" t="s">
-        <v>1126</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="100" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="C6" s="94" t="s">
         <v>479</v>
@@ -16710,21 +16479,21 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="100" t="s">
-        <v>1204</v>
+        <v>1191</v>
       </c>
       <c r="C7" s="91"/>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="100" t="s">
-        <v>1205</v>
+        <v>1192</v>
       </c>
       <c r="C8" s="94" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="100" t="s">
-        <v>1206</v>
+        <v>1193</v>
       </c>
       <c r="C9" s="94" t="s">
         <v>151</v>
@@ -16735,7 +16504,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="100" t="s">
-        <v>1207</v>
+        <v>1194</v>
       </c>
       <c r="C10" s="94" t="s">
         <v>519</v>
@@ -16754,29 +16523,29 @@
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="100" t="s">
-        <v>1208</v>
+        <v>1195</v>
       </c>
       <c r="C12" s="94" t="s">
-        <v>1134</v>
+        <v>1118</v>
       </c>
       <c r="E12" s="94" t="s">
-        <v>1134</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="100" t="s">
-        <v>1209</v>
+        <v>1196</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>1111</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="100" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>1135</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -16789,7 +16558,7 @@
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="100" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C16" s="94" t="s">
         <v>765</v>
@@ -16797,10 +16566,10 @@
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="100" t="s">
-        <v>1140</v>
+        <v>1124</v>
       </c>
       <c r="C17" s="94" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -16808,10 +16577,10 @@
         <v>156</v>
       </c>
       <c r="C18" s="96" t="s">
-        <v>1136</v>
+        <v>1120</v>
       </c>
       <c r="E18" s="96" t="s">
-        <v>1136</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -16824,21 +16593,21 @@
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="100" t="s">
-        <v>1210</v>
+        <v>1197</v>
       </c>
       <c r="C20" s="94" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="100" t="s">
-        <v>1211</v>
+        <v>1198</v>
       </c>
       <c r="C21" s="94" t="s">
-        <v>1137</v>
+        <v>1121</v>
       </c>
       <c r="E21" s="94" t="s">
-        <v>1137</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -16846,26 +16615,26 @@
         <v>792</v>
       </c>
       <c r="C22" s="94" t="s">
-        <v>1138</v>
+        <v>1122</v>
       </c>
       <c r="E22" s="94" t="s">
-        <v>1138</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="100" t="s">
-        <v>1119</v>
+        <v>1102</v>
       </c>
       <c r="C23" s="94" t="s">
-        <v>1139</v>
+        <v>1123</v>
       </c>
       <c r="E23" s="94" t="s">
-        <v>1139</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="100" t="s">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="C24" s="94" t="s">
         <v>362</v>
@@ -16876,15 +16645,15 @@
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="100" t="s">
-        <v>1146</v>
+        <v>1130</v>
       </c>
       <c r="C25" s="94" t="s">
-        <v>1140</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="100" t="s">
-        <v>1212</v>
+        <v>1199</v>
       </c>
       <c r="C26" s="91" t="s">
         <v>156</v>
@@ -16892,7 +16661,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="100" t="s">
-        <v>1213</v>
+        <v>1200</v>
       </c>
       <c r="C27" s="95"/>
     </row>
@@ -16906,15 +16675,15 @@
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="100" t="s">
-        <v>1214</v>
+        <v>1201</v>
       </c>
       <c r="C29" s="94" t="s">
-        <v>1142</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="100" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
       <c r="C30" s="94" t="s">
         <v>554</v>
@@ -16930,16 +16699,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="100" t="s">
-        <v>1216</v>
+        <v>1203</v>
       </c>
       <c r="C32" s="91"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="100" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="C33" s="91" t="s">
-        <v>1119</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -16950,10 +16719,10 @@
     </row>
     <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="100" t="s">
-        <v>1115</v>
+        <v>1098</v>
       </c>
       <c r="C35" s="94" t="s">
-        <v>1010</v>
+        <v>993</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -16961,10 +16730,10 @@
         <v>263</v>
       </c>
       <c r="C36" s="94" t="s">
-        <v>1144</v>
+        <v>1128</v>
       </c>
       <c r="E36" s="94" t="s">
-        <v>1144</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -16976,7 +16745,7 @@
     </row>
     <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="100" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="C38" s="94" t="s">
         <v>342</v>
@@ -16987,13 +16756,13 @@
     </row>
     <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="100" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="C39" s="94" t="s">
-        <v>1145</v>
+        <v>1129</v>
       </c>
       <c r="E39" s="94" t="s">
-        <v>1145</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -17009,18 +16778,18 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="100" t="s">
-        <v>1218</v>
+        <v>1205</v>
       </c>
       <c r="C41" s="95" t="s">
-        <v>1146</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="100" t="s">
-        <v>1219</v>
+        <v>1206</v>
       </c>
       <c r="C42" s="95" t="s">
-        <v>1147</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17047,7 +16816,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="100" t="s">
-        <v>1220</v>
+        <v>1207</v>
       </c>
       <c r="C46" s="94" t="s">
         <v>237</v>
@@ -17058,7 +16827,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="100" t="s">
-        <v>983</v>
+        <v>966</v>
       </c>
       <c r="C47" s="94" t="s">
         <v>166</v>
@@ -17069,18 +16838,18 @@
     </row>
     <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="100" t="s">
-        <v>1221</v>
+        <v>1208</v>
       </c>
       <c r="C48" s="94" t="s">
-        <v>1148</v>
+        <v>1132</v>
       </c>
       <c r="E48" s="94" t="s">
-        <v>1148</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="100" t="s">
-        <v>1159</v>
+        <v>1143</v>
       </c>
       <c r="C49" s="91" t="s">
         <v>454</v>
@@ -17088,18 +16857,18 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="100" t="s">
-        <v>1222</v>
+        <v>1209</v>
       </c>
       <c r="C50" s="95" t="s">
-        <v>1149</v>
+        <v>1133</v>
       </c>
       <c r="E50" s="95" t="s">
-        <v>1149</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="100" t="s">
-        <v>1223</v>
+        <v>1210</v>
       </c>
       <c r="C51" s="94" t="s">
         <v>32</v>
@@ -17124,37 +16893,37 @@
         <v>72</v>
       </c>
       <c r="C53" s="95" t="s">
-        <v>1150</v>
+        <v>1134</v>
       </c>
       <c r="E53" s="95" t="s">
-        <v>1150</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="100" t="s">
-        <v>1224</v>
+        <v>1211</v>
       </c>
       <c r="C54" s="91"/>
     </row>
     <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="100" t="s">
-        <v>1225</v>
+        <v>1212</v>
       </c>
       <c r="C55" s="94" t="s">
-        <v>954</v>
+        <v>937</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="100" t="s">
-        <v>1226</v>
+        <v>1213</v>
       </c>
       <c r="C56" s="94" t="s">
-        <v>1151</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="100" t="s">
-        <v>1227</v>
+        <v>1214</v>
       </c>
       <c r="C57" s="94" t="s">
         <v>356</v>
@@ -17162,15 +16931,15 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="100" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C58" s="91" t="s">
-        <v>1115</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="100" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
       <c r="C59" s="94" t="s">
         <v>263</v>
@@ -17182,15 +16951,15 @@
         <v>487</v>
       </c>
       <c r="C60" s="91" t="s">
-        <v>1112</v>
+        <v>1095</v>
       </c>
       <c r="E60" s="91" t="s">
-        <v>1112</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="100" t="s">
-        <v>1166</v>
+        <v>1150</v>
       </c>
       <c r="C61" s="95"/>
       <c r="E61" s="95"/>
@@ -17200,15 +16969,15 @@
         <v>437</v>
       </c>
       <c r="C62" s="95" t="s">
-        <v>1153</v>
+        <v>1137</v>
       </c>
       <c r="E62" s="95" t="s">
-        <v>1153</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="100" t="s">
-        <v>1229</v>
+        <v>1216</v>
       </c>
       <c r="C63" s="94" t="s">
         <v>348</v>
@@ -17216,15 +16985,15 @@
     </row>
     <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="100" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
       <c r="C64" s="94" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="100" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
       <c r="C65" s="91"/>
     </row>
@@ -17233,7 +17002,7 @@
         <v>407</v>
       </c>
       <c r="C66" s="94" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17241,15 +17010,15 @@
         <v>462</v>
       </c>
       <c r="C67" s="94" t="s">
-        <v>973</v>
+        <v>956</v>
       </c>
       <c r="E67" s="94" t="s">
-        <v>973</v>
+        <v>956</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="100" t="s">
-        <v>933</v>
+        <v>916</v>
       </c>
       <c r="C68" s="91"/>
       <c r="E68" s="91"/>
@@ -17259,10 +17028,10 @@
         <v>474</v>
       </c>
       <c r="C69" s="94" t="s">
-        <v>1154</v>
+        <v>1138</v>
       </c>
       <c r="E69" s="94" t="s">
-        <v>1154</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -17270,26 +17039,26 @@
         <v>529</v>
       </c>
       <c r="C70" s="95" t="s">
-        <v>1155</v>
+        <v>1139</v>
       </c>
       <c r="E70" s="95" t="s">
-        <v>1155</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="100" t="s">
-        <v>958</v>
+        <v>941</v>
       </c>
       <c r="C71" s="94" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="E71" s="94" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="100" t="s">
-        <v>1232</v>
+        <v>1219</v>
       </c>
       <c r="C72" s="91"/>
     </row>
@@ -17303,26 +17072,26 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="100" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
       <c r="C74" s="95" t="s">
-        <v>1156</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="100" t="s">
-        <v>882</v>
+        <v>865</v>
       </c>
       <c r="C75" s="94" t="s">
-        <v>912</v>
+        <v>895</v>
       </c>
       <c r="E75" s="94" t="s">
-        <v>912</v>
+        <v>895</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="100" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="C76" s="94" t="s">
         <v>812</v>
@@ -17330,7 +17099,7 @@
     </row>
     <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="100" t="s">
-        <v>1178</v>
+        <v>1162</v>
       </c>
       <c r="C77" s="94" t="s">
         <v>53</v>
@@ -17338,7 +17107,7 @@
     </row>
     <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="100" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="C78" s="94" t="s">
         <v>720</v>
@@ -17352,13 +17121,13 @@
     </row>
     <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="100" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
       <c r="C80" s="94" t="s">
-        <v>1157</v>
+        <v>1141</v>
       </c>
       <c r="E80" s="94" t="s">
-        <v>1157</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -17366,15 +17135,15 @@
         <v>770</v>
       </c>
       <c r="C81" s="94" t="s">
-        <v>1158</v>
+        <v>1142</v>
       </c>
       <c r="E81" s="94" t="s">
-        <v>1158</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="100" t="s">
-        <v>1237</v>
+        <v>1224</v>
       </c>
       <c r="C82" s="94" t="s">
         <v>162</v>
@@ -17404,14 +17173,14 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="100" t="s">
-        <v>1180</v>
+        <v>1164</v>
       </c>
       <c r="C85" s="91"/>
       <c r="E85" s="91"/>
     </row>
     <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="100" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="C86" s="94"/>
       <c r="E86" s="94"/>
@@ -17421,7 +17190,7 @@
         <v>503</v>
       </c>
       <c r="C87" s="94" t="s">
-        <v>983</v>
+        <v>966</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -17429,12 +17198,12 @@
         <v>413</v>
       </c>
       <c r="C88" s="94" t="s">
-        <v>1159</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="100" t="s">
-        <v>1239</v>
+        <v>1226</v>
       </c>
       <c r="C89" s="94" t="s">
         <v>559</v>
@@ -17442,7 +17211,7 @@
     </row>
     <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="100" t="s">
-        <v>1240</v>
+        <v>1227</v>
       </c>
       <c r="C90" s="94" t="s">
         <v>442</v>
@@ -17453,18 +17222,18 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="100" t="s">
-        <v>1241</v>
+        <v>1228</v>
       </c>
       <c r="C91" s="95" t="s">
-        <v>1160</v>
+        <v>1144</v>
       </c>
       <c r="E91" s="95" t="s">
-        <v>1160</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="100" t="s">
-        <v>1242</v>
+        <v>1229</v>
       </c>
       <c r="C92" s="94" t="s">
         <v>72</v>
@@ -17472,7 +17241,7 @@
     </row>
     <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="100" t="s">
-        <v>1243</v>
+        <v>1230</v>
       </c>
       <c r="C93" s="94" t="s">
         <v>292</v>
@@ -17480,100 +17249,101 @@
     </row>
     <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="100" t="s">
-        <v>1244</v>
+        <v>1231</v>
       </c>
       <c r="C94" s="94" t="s">
-        <v>1161</v>
+        <v>1145</v>
       </c>
       <c r="E94" s="94"/>
       <c r="F94" s="95" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="100" t="s">
-        <v>1246</v>
+        <v>1233</v>
       </c>
       <c r="C95" s="94" t="s">
-        <v>1162</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="100" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="C96" s="94" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E96" s="94" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1010</v>
+      </c>
+      <c r="E96" s="94"/>
+      <c r="F96" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="100" t="s">
         <v>515</v>
       </c>
       <c r="C97" s="91"/>
       <c r="E97" s="91"/>
     </row>
-    <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="100" t="s">
-        <v>899</v>
+        <v>882</v>
       </c>
       <c r="C98" s="94" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="E98" s="94" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="100" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="C99" s="94" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="100" t="s">
         <v>308</v>
       </c>
       <c r="C100" s="94" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="100" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="C101" s="91"/>
     </row>
-    <row r="102" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="100" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="C102" s="94" t="s">
-        <v>1163</v>
+        <v>1147</v>
       </c>
       <c r="E102" s="94" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="100" t="s">
         <v>656</v>
       </c>
       <c r="C103" s="94" t="s">
-        <v>1164</v>
+        <v>1148</v>
       </c>
       <c r="E103" s="94" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="100" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="C104" s="94" t="s">
         <v>806</v>
@@ -17582,78 +17352,81 @@
         <v>806</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="100" t="s">
         <v>498</v>
       </c>
       <c r="C105" s="94" t="s">
-        <v>1165</v>
+        <v>1149</v>
       </c>
       <c r="E105" s="94" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="100" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="C106" s="94" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="100" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="C107" s="94" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="100" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="C108" s="94" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="100" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="C109" s="94" t="s">
-        <v>1167</v>
+        <v>1151</v>
       </c>
       <c r="E109" s="94"/>
-    </row>
-    <row r="110" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F109" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="100" t="s">
         <v>534</v>
       </c>
       <c r="C110" s="94" t="s">
-        <v>1168</v>
+        <v>1152</v>
       </c>
       <c r="E110" s="94" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="100" t="s">
-        <v>1255</v>
+        <v>1244</v>
       </c>
       <c r="C111" s="94" t="s">
-        <v>1169</v>
+        <v>1153</v>
       </c>
       <c r="E111" s="94" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="100" t="s">
         <v>385</v>
       </c>
       <c r="C112" s="94" t="s">
-        <v>1170</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17666,24 +17439,24 @@
     </row>
     <row r="114" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="100" t="s">
-        <v>1256</v>
+        <v>1245</v>
       </c>
       <c r="C114" s="94" t="s">
-        <v>1171</v>
+        <v>1155</v>
       </c>
       <c r="E114" s="94" t="s">
-        <v>1171</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="100" t="s">
-        <v>1257</v>
+        <v>1246</v>
       </c>
       <c r="C115" s="95" t="s">
-        <v>1172</v>
+        <v>1156</v>
       </c>
       <c r="E115" s="95" t="s">
-        <v>1172</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -17691,7 +17464,7 @@
         <v>330</v>
       </c>
       <c r="C116" s="91" t="s">
-        <v>1121</v>
+        <v>1104</v>
       </c>
       <c r="E116" s="91"/>
     </row>
@@ -17705,7 +17478,7 @@
     </row>
     <row r="118" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="100" t="s">
-        <v>1258</v>
+        <v>1247</v>
       </c>
       <c r="C118" s="94" t="s">
         <v>462</v>
@@ -17713,10 +17486,10 @@
     </row>
     <row r="119" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="100" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="C119" s="94" t="s">
-        <v>933</v>
+        <v>916</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -17724,15 +17497,15 @@
         <v>81</v>
       </c>
       <c r="C120" s="95" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="E120" s="95" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="100" t="s">
-        <v>1259</v>
+        <v>1248</v>
       </c>
       <c r="C121" s="94" t="s">
         <v>474</v>
@@ -17759,15 +17532,15 @@
     </row>
     <row r="124" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="100" t="s">
-        <v>1122</v>
+        <v>1105</v>
       </c>
       <c r="C124" s="94" t="s">
-        <v>958</v>
+        <v>941</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="100" t="s">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="C125" s="94" t="s">
         <v>317</v>
@@ -17775,36 +17548,36 @@
     </row>
     <row r="126" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="100" t="s">
-        <v>1260</v>
+        <v>1249</v>
       </c>
       <c r="C126" s="94" t="s">
-        <v>1174</v>
+        <v>1158</v>
       </c>
       <c r="E126" s="94" t="s">
-        <v>1174</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="100" t="s">
-        <v>1261</v>
+        <v>1250</v>
       </c>
       <c r="C127" s="94" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="E127" s="94" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="100" t="s">
-        <v>1262</v>
+        <v>1251</v>
       </c>
       <c r="C128" s="91"/>
       <c r="E128" s="91"/>
     </row>
     <row r="129" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="100" t="s">
-        <v>1263</v>
+        <v>1252</v>
       </c>
       <c r="C129" s="94" t="s">
         <v>373</v>
@@ -17815,7 +17588,7 @@
     </row>
     <row r="130" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="100" t="s">
-        <v>1264</v>
+        <v>1253</v>
       </c>
       <c r="C130" s="94" t="s">
         <v>432</v>
@@ -17826,13 +17599,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="100" t="s">
-        <v>1194</v>
+        <v>1181</v>
       </c>
       <c r="C131" s="95" t="s">
-        <v>1175</v>
+        <v>1159</v>
       </c>
       <c r="E131" s="95" t="s">
-        <v>1175</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17840,51 +17613,51 @@
         <v>419</v>
       </c>
       <c r="C132" s="94" t="s">
-        <v>1176</v>
+        <v>1160</v>
       </c>
       <c r="E132" s="94" t="s">
-        <v>1176</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="100" t="s">
-        <v>1265</v>
+        <v>1254</v>
       </c>
       <c r="C133" s="94" t="s">
-        <v>882</v>
+        <v>865</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="100" t="s">
-        <v>1266</v>
+        <v>1255</v>
       </c>
       <c r="C134" s="94" t="s">
-        <v>1177</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="100" t="s">
-        <v>1064</v>
+        <v>1047</v>
       </c>
       <c r="C135" s="94" t="s">
-        <v>1178</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="100" t="s">
-        <v>1267</v>
+        <v>1256</v>
       </c>
       <c r="C136" s="91"/>
     </row>
     <row r="137" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="100" t="s">
-        <v>1268</v>
+        <v>1257</v>
       </c>
       <c r="C137" s="94" t="s">
-        <v>1179</v>
+        <v>1163</v>
       </c>
       <c r="E137" s="94" t="s">
-        <v>1179</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17900,10 +17673,10 @@
         <v>23</v>
       </c>
       <c r="C139" s="91" t="s">
-        <v>1130</v>
+        <v>1114</v>
       </c>
       <c r="E139" s="91" t="s">
-        <v>1130</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17911,22 +17684,22 @@
         <v>397</v>
       </c>
       <c r="C140" s="94" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="E140" s="94" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="100" t="s">
-        <v>1050</v>
+        <v>1033</v>
       </c>
       <c r="C141" s="91"/>
       <c r="E141" s="91"/>
     </row>
     <row r="142" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="100" t="s">
-        <v>1123</v>
+        <v>1106</v>
       </c>
       <c r="C142" s="94" t="s">
         <v>117</v>
@@ -17937,7 +17710,7 @@
     </row>
     <row r="143" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="100" t="s">
-        <v>1269</v>
+        <v>1258</v>
       </c>
       <c r="C143" s="94" t="s">
         <v>770</v>
@@ -17945,13 +17718,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="100" t="s">
-        <v>1270</v>
+        <v>1259</v>
       </c>
       <c r="C144" s="91"/>
     </row>
     <row r="145" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="94" t="s">
-        <v>989</v>
+        <v>972</v>
       </c>
       <c r="C145" s="94" t="s">
         <v>492</v>
@@ -17983,12 +17756,12 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C151" s="95" t="s">
-        <v>1180</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C152" s="94" t="s">
-        <v>1059</v>
+        <v>1042</v>
       </c>
       <c r="E152" s="94"/>
     </row>
@@ -18023,10 +17796,10 @@
     </row>
     <row r="159" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C159" s="94" t="s">
-        <v>1181</v>
+        <v>1165</v>
       </c>
       <c r="E159" s="94" t="s">
-        <v>1181</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -18039,10 +17812,10 @@
     </row>
     <row r="161" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C161" s="94" t="s">
-        <v>1005</v>
+        <v>988</v>
       </c>
       <c r="E161" s="94" t="s">
-        <v>1005</v>
+        <v>988</v>
       </c>
     </row>
     <row r="162" spans="3:5" x14ac:dyDescent="0.3">
@@ -18050,15 +17823,15 @@
     </row>
     <row r="163" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C163" s="91" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="164" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C164" s="94" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="E164" s="94" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
     </row>
     <row r="165" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -18079,7 +17852,7 @@
     </row>
     <row r="168" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C168" s="94" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="169" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -18089,7 +17862,7 @@
     </row>
     <row r="170" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C170" s="94" t="s">
-        <v>899</v>
+        <v>882</v>
       </c>
     </row>
     <row r="171" spans="3:5" x14ac:dyDescent="0.3">
@@ -18097,7 +17870,7 @@
     </row>
     <row r="172" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C172" s="94" t="s">
-        <v>821</v>
+        <v>1166</v>
       </c>
       <c r="E172" s="94"/>
     </row>
@@ -18108,12 +17881,12 @@
     </row>
     <row r="174" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C174" s="94" t="s">
-        <v>1182</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="175" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C175" s="94" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
     </row>
     <row r="176" spans="3:5" x14ac:dyDescent="0.3">
@@ -18121,10 +17894,10 @@
     </row>
     <row r="177" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C177" s="94" t="s">
-        <v>1183</v>
+        <v>1168</v>
       </c>
       <c r="E177" s="94" t="s">
-        <v>1183</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="178" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -18150,10 +17923,10 @@
     </row>
     <row r="181" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C181" s="94" t="s">
-        <v>1000</v>
+        <v>983</v>
       </c>
       <c r="E181" s="94" t="s">
-        <v>1000</v>
+        <v>983</v>
       </c>
     </row>
     <row r="182" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -18168,55 +17941,55 @@
     </row>
     <row r="184" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C184" s="94" t="s">
-        <v>1184</v>
+        <v>1169</v>
       </c>
       <c r="E184" s="94" t="s">
-        <v>1184</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="185" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C185" s="94" t="s">
-        <v>840</v>
+        <v>1170</v>
       </c>
       <c r="E185" s="94" t="s">
-        <v>840</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="186" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C186" s="94" t="s">
-        <v>1185</v>
+        <v>1171</v>
       </c>
       <c r="E186" s="94" t="s">
-        <v>1185</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="187" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C187" s="94" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="188" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C188" s="94" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="E188" s="94" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="189" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C189" s="94" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="E189" s="94" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="190" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C190" s="94" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
       <c r="E190" s="94" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.3">
@@ -18225,10 +17998,10 @@
     </row>
     <row r="192" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C192" s="94" t="s">
-        <v>878</v>
+        <v>1175</v>
       </c>
       <c r="E192" s="94" t="s">
-        <v>878</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="193" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -18238,10 +18011,10 @@
     </row>
     <row r="194" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C194" s="94" t="s">
-        <v>1189</v>
+        <v>1176</v>
       </c>
       <c r="E194" s="94" t="s">
-        <v>1189</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="195" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -18303,10 +18076,10 @@
     </row>
     <row r="205" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C205" s="95" t="s">
-        <v>1190</v>
+        <v>1177</v>
       </c>
       <c r="E205" s="95" t="s">
-        <v>1190</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="206" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -18316,7 +18089,7 @@
     </row>
     <row r="207" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C207" s="94" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="208" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -18337,10 +18110,10 @@
     </row>
     <row r="211" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C211" s="94" t="s">
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="E211" s="94" t="s">
-        <v>1191</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="212" spans="3:5" x14ac:dyDescent="0.3">
@@ -18353,10 +18126,10 @@
     </row>
     <row r="213" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C213" s="94" t="s">
-        <v>1192</v>
+        <v>1179</v>
       </c>
       <c r="E213" s="94" t="s">
-        <v>1192</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="214" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -18378,7 +18151,7 @@
     </row>
     <row r="218" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C218" s="95" t="s">
-        <v>1193</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="219" spans="3:5" x14ac:dyDescent="0.3">
@@ -18394,7 +18167,7 @@
     </row>
     <row r="221" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C221" s="94" t="s">
-        <v>1016</v>
+        <v>999</v>
       </c>
     </row>
     <row r="222" spans="3:5" x14ac:dyDescent="0.3">
@@ -18412,7 +18185,7 @@
     </row>
     <row r="225" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C225" s="95" t="s">
-        <v>1194</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="226" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -18430,15 +18203,15 @@
     </row>
     <row r="229" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C229" s="94" t="s">
-        <v>1064</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="230" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C230" s="94" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
       <c r="E230" s="94" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
     </row>
     <row r="231" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -18451,7 +18224,7 @@
     </row>
     <row r="232" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C232" s="94" t="s">
-        <v>1196</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="233" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -18490,20 +18263,20 @@
     </row>
     <row r="239" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C239" s="94" t="s">
-        <v>1050</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C240" s="91" t="s">
-        <v>1050</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="241" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C241" s="95" t="s">
-        <v>1197</v>
+        <v>1184</v>
       </c>
       <c r="E241" s="95" t="s">
-        <v>1197</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="242" spans="3:5" x14ac:dyDescent="0.3">
@@ -18511,12 +18284,12 @@
     </row>
     <row r="243" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C243" s="91" t="s">
-        <v>1123</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="244" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C244" s="94" t="s">
-        <v>1198</v>
+        <v>1185</v>
       </c>
       <c r="E244" s="94"/>
     </row>
@@ -18530,7 +18303,7 @@
     </row>
     <row r="247" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E247" t="s">
-        <v>1271</v>
+        <v>1260</v>
       </c>
     </row>
   </sheetData>

--- a/docs/paper_total_sessies_2025_2.xlsx
+++ b/docs/paper_total_sessies_2025_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vunl-my.sharepoint.com/personal/j_c_muis_vu_nl/Documents/Documents/GitHub/dvds2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{877EAA2D-3255-4979-B2E3-9046FDE48074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01E12D88-5102-473B-A60B-492323208461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="492" yWindow="2688" windowWidth="22548" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22548" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alle abstracts" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="mail adressen vz" sheetId="3" r:id="rId4"/>
     <sheet name="indieners mail adressen" sheetId="4" r:id="rId5"/>
     <sheet name="registratie 2 juni" sheetId="6" r:id="rId6"/>
+    <sheet name="registratie 12 juni" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'alle abstracts'!$A$1:$Z$168</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3704" uniqueCount="1288">
   <si>
     <t>naam</t>
   </si>
@@ -2696,7 +2697,7 @@
     <t>M-2</t>
   </si>
   <si>
-    <t>Family &amp; Youth 2 – Transistions in youth and young adults</t>
+    <t>Family &amp; Youth 2 – Transitions in youth and young adults</t>
   </si>
   <si>
     <t>HG-02A33</t>
@@ -2887,10 +2888,7 @@
     <t>N-1</t>
   </si>
   <si>
-    <t>Education 3 – Racialization, Inclusion &amp; Inequality in Schools</t>
-  </si>
-  <si>
-    <t>HG-05A33</t>
+    <t>Education 2 – Racialization, Inclusion &amp; Inequality in Schools</t>
   </si>
   <si>
     <t>Parenting Diversity: How Parents Navigate Race, Racism, and Inclusion in Dutch Primary Schools</t>
@@ -2941,6 +2939,9 @@
     <t>Onderwijs 1 – Representatie, Curriculum &amp; Gelijkheid in het Basisonderwijs</t>
   </si>
   <si>
+    <t>HG-05A33</t>
+  </si>
+  <si>
     <t>Marloes Hagenaars</t>
   </si>
   <si>
@@ -2994,7 +2995,7 @@
     <t>N-3</t>
   </si>
   <si>
-    <t xml:space="preserve">Education 2 – Critical Knowledge &amp; Inequality in Higher Education </t>
+    <t xml:space="preserve">Education 3 – Critical Knowledge &amp; Inequality in Higher Education </t>
   </si>
   <si>
     <t>Elisabeth Klinkenberg</t>
@@ -4271,6 +4272,87 @@
   </si>
   <si>
     <t>N = 99</t>
+  </si>
+  <si>
+    <t>geregistreerd</t>
+  </si>
+  <si>
+    <t>reminder 13 juni</t>
+  </si>
+  <si>
+    <t>a.kok1@amsterdamumc.nl</t>
+  </si>
+  <si>
+    <t>elif.lootens@ugent.be</t>
+  </si>
+  <si>
+    <t>elifkeskiner@gmail.com</t>
+  </si>
+  <si>
+    <t>ellen.verbakel@ru.nl</t>
+  </si>
+  <si>
+    <t>F.a.nagel@vu.nl</t>
+  </si>
+  <si>
+    <t>f.e.lelie@gmail.com</t>
+  </si>
+  <si>
+    <t>F.J.S.van.der.woude@student.rug.nl</t>
+  </si>
+  <si>
+    <t>isabir@qau.edu.pk</t>
+  </si>
+  <si>
+    <t>joukjeswinkels@gmail.com</t>
+  </si>
+  <si>
+    <t>julsojch@gmail.com</t>
+  </si>
+  <si>
+    <t>Katia.begall@ru.nl</t>
+  </si>
+  <si>
+    <t>Keller@essb.eur.nl</t>
+  </si>
+  <si>
+    <t>Khadija.El.Youssfi@vub.be</t>
+  </si>
+  <si>
+    <t>l.f.f.depoorter@uva.nl</t>
+  </si>
+  <si>
+    <t>l.heyse@rug.nl</t>
+  </si>
+  <si>
+    <t>Marjanwynia@gmail.com</t>
+  </si>
+  <si>
+    <t>martynaozaist@gmail.com</t>
+  </si>
+  <si>
+    <t>MRosenkrantzLindegaard@nscr.nl</t>
+  </si>
+  <si>
+    <t>n.a.kusmallah@vu.nl</t>
+  </si>
+  <si>
+    <t>niels.spierings@ru.nl</t>
+  </si>
+  <si>
+    <t>nooitgedagt@essb.eur.nl</t>
+  </si>
+  <si>
+    <t>s.oudshoorn@caop.nl</t>
+  </si>
+  <si>
+    <t>t.m.Chowdhury@vu.nl</t>
+  </si>
+  <si>
+    <t>T.vanderlippe@uu.nl</t>
+  </si>
+  <si>
+    <t>w.ultee@ru.nl</t>
   </si>
 </sst>
 </file>
@@ -5195,9 +5277,9 @@
   <dimension ref="A1:Z169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="77" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A133" sqref="A133:XFD133"/>
+      <selection pane="bottomLeft" activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12437,10 +12519,10 @@
         <v>851</v>
       </c>
       <c r="I130" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>852</v>
+        <v>758</v>
       </c>
       <c r="K130" s="3" t="s">
         <v>30</v>
@@ -12455,11 +12537,11 @@
         <v>846</v>
       </c>
       <c r="O130" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="P130" s="5"/>
       <c r="Q130" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="R130" s="19"/>
       <c r="S130" s="24"/>
@@ -12473,11 +12555,11 @@
     </row>
     <row r="131" spans="1:26" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B131" s="62"/>
       <c r="C131" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>848</v>
@@ -12495,10 +12577,10 @@
         <v>851</v>
       </c>
       <c r="I131" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>852</v>
+        <v>758</v>
       </c>
       <c r="K131" s="3" t="s">
         <v>30</v>
@@ -12513,11 +12595,11 @@
         <v>846</v>
       </c>
       <c r="O131" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="P131" s="5"/>
       <c r="Q131" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="R131" s="19"/>
       <c r="S131" s="24"/>
@@ -12531,13 +12613,13 @@
     </row>
     <row r="132" spans="1:26" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B132" s="62" t="s">
         <v>859</v>
       </c>
-      <c r="B132" s="62" t="s">
+      <c r="C132" s="5" t="s">
         <v>860</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>861</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>848</v>
@@ -12555,10 +12637,10 @@
         <v>851</v>
       </c>
       <c r="I132" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>852</v>
+        <v>758</v>
       </c>
       <c r="K132" s="3" t="s">
         <v>30</v>
@@ -12573,11 +12655,11 @@
         <v>846</v>
       </c>
       <c r="O132" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="P132" s="5"/>
       <c r="Q132" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="R132" s="19"/>
       <c r="S132" s="24"/>
@@ -12591,11 +12673,11 @@
     </row>
     <row r="133" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B133" s="62"/>
       <c r="C133" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>848</v>
@@ -12607,16 +12689,16 @@
         <v>849</v>
       </c>
       <c r="G133" s="27" t="s">
+        <v>865</v>
+      </c>
+      <c r="H133" s="5" t="s">
         <v>866</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>867</v>
       </c>
       <c r="I133" s="3">
         <v>1</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="K133" s="3" t="s">
         <v>58</v>
@@ -12667,16 +12749,16 @@
         <v>849</v>
       </c>
       <c r="G134" s="27" t="s">
+        <v>865</v>
+      </c>
+      <c r="H134" s="5" t="s">
         <v>866</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>867</v>
       </c>
       <c r="I134" s="3">
         <v>1</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="K134" s="3" t="s">
         <v>58</v>
@@ -12727,16 +12809,16 @@
         <v>849</v>
       </c>
       <c r="G135" s="27" t="s">
+        <v>865</v>
+      </c>
+      <c r="H135" s="5" t="s">
         <v>866</v>
-      </c>
-      <c r="H135" s="5" t="s">
-        <v>867</v>
       </c>
       <c r="I135" s="3">
         <v>1</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="K135" s="3" t="s">
         <v>58</v>
@@ -12796,7 +12878,7 @@
         <v>2</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="K136" s="3" t="s">
         <v>30</v>
@@ -12854,7 +12936,7 @@
         <v>2</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="K137" s="3" t="s">
         <v>30</v>
@@ -12914,7 +12996,7 @@
         <v>2</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="K138" s="3" t="s">
         <v>30</v>
@@ -12974,7 +13056,7 @@
         <v>2</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="K139" s="3" t="s">
         <v>30</v>
@@ -15297,7 +15379,7 @@
         <v>869</v>
       </c>
       <c r="B40" s="91" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -15384,7 +15466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988237D7-6243-4088-8FE6-9BA5F8DCAEF5}">
   <dimension ref="A1:A197"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
+    <sheetView topLeftCell="A138" workbookViewId="0">
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
@@ -15778,7 +15860,7 @@
     </row>
     <row r="78" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="94" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15938,7 +16020,7 @@
     </row>
     <row r="110" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="94" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16043,7 +16125,7 @@
     </row>
     <row r="131" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="94" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -16409,8 +16491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D41787-B72F-4912-9B98-B389F7320DB5}">
   <dimension ref="A1:F247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J119" sqref="J119"/>
+    <sheetView topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17080,7 +17162,7 @@
     </row>
     <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="100" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C75" s="94" t="s">
         <v>895</v>
@@ -17291,10 +17373,10 @@
         <v>882</v>
       </c>
       <c r="C98" s="94" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E98" s="94" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -17624,7 +17706,7 @@
         <v>1254</v>
       </c>
       <c r="C133" s="94" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17828,10 +17910,10 @@
     </row>
     <row r="164" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C164" s="94" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E164" s="94" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="165" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -18344,6 +18426,1799 @@
     <hyperlink ref="E241" r:id="rId31" xr:uid="{D86D19AC-C166-4C9C-AE0A-93634F8F0216}"/>
     <hyperlink ref="E245" r:id="rId32" xr:uid="{6E6BF19D-6023-4664-8F0E-31E723D30E10}"/>
     <hyperlink ref="F94" r:id="rId33" xr:uid="{9EBD559B-012B-4AE6-890F-ECE25C94AE0C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E804EE0B-6B79-47C3-95FF-1EACDA3B140E}">
+  <dimension ref="A1:E245"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="100" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="100" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="100" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="100" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="100" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="100" t="s">
+        <v>479</v>
+      </c>
+      <c r="C7" s="91"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="100" t="s">
+        <v>842</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="100" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="100" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="100" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E12" s="94" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="100" t="s">
+        <v>797</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="100" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C14" s="94" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="100" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C15" s="94" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="100" t="s">
+        <v>753</v>
+      </c>
+      <c r="C16" s="94" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="100" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C17" s="94" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="100" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C18" s="96" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="100" t="s">
+        <v>890</v>
+      </c>
+      <c r="C19" s="94" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="100" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C20" s="94" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="100" t="s">
+        <v>367</v>
+      </c>
+      <c r="C21" s="94" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="100" t="s">
+        <v>828</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="100" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C23" s="94" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="100" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C24" s="94" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="100" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C25" s="94" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="91" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="100" t="s">
+        <v>469</v>
+      </c>
+      <c r="C27" s="95"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="100" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C28" s="94" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="100" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C29" s="94" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="100" t="s">
+        <v>792</v>
+      </c>
+      <c r="C30" s="94" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="100" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C31" s="94" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="100" t="s">
+        <v>993</v>
+      </c>
+      <c r="C32" s="91"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="100" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C33" s="91" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="100" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C34" s="94"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="100" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C35" s="94" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="100" t="s">
+        <v>281</v>
+      </c>
+      <c r="C36" s="94" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="100" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" s="91"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="100" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="94" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="100" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C39" s="94" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="100" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C40" s="95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="100" t="s">
+        <v>454</v>
+      </c>
+      <c r="C41" s="95" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="95" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="100" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C43" s="94" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="100" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C44" s="91"/>
+    </row>
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="100" t="s">
+        <v>356</v>
+      </c>
+      <c r="C45" s="94" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="100" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C46" s="94" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="100" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" s="94" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="100" t="s">
+        <v>348</v>
+      </c>
+      <c r="C48" s="94" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="100" t="s">
+        <v>908</v>
+      </c>
+      <c r="C49" s="91" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="100" t="s">
+        <v>903</v>
+      </c>
+      <c r="C50" s="95" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="100" t="s">
+        <v>956</v>
+      </c>
+      <c r="C51" s="94" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="100" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C53" s="95" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="100" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C54" s="91"/>
+    </row>
+    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="100" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C55" s="94" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="100" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C56" s="94" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="100" t="s">
+        <v>812</v>
+      </c>
+      <c r="C57" s="94" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="91" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="100" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C59" s="94" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="91" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="100" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" s="95"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="100" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C62" s="95" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="100" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C63" s="94" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="100" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C64" s="94" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="100" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C65" s="91"/>
+    </row>
+    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="100" t="s">
+        <v>966</v>
+      </c>
+      <c r="C66" s="94" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="100" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C67" s="94" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="100" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C68" s="91"/>
+    </row>
+    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="100" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C69" s="94" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="100" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C70" s="95" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="100" t="s">
+        <v>304</v>
+      </c>
+      <c r="C71" s="94" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="91"/>
+    </row>
+    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="100" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C73" s="94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="100" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C74" s="95" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="100" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C75" s="94" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="100" t="s">
+        <v>855</v>
+      </c>
+      <c r="C76" s="94" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="100" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C77" s="94" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="100" t="s">
+        <v>818</v>
+      </c>
+      <c r="C78" s="94" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="100" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C79" s="91"/>
+    </row>
+    <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="100" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C80" s="94" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="100" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C81" s="94" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="100" t="s">
+        <v>487</v>
+      </c>
+      <c r="C82" s="94" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="100" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C83" s="94" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="100" t="s">
+        <v>437</v>
+      </c>
+      <c r="C84" s="94" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="100" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C85" s="91"/>
+    </row>
+    <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="100" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C86" s="94"/>
+    </row>
+    <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="100" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C87" s="94" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="100" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C88" s="94" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="100" t="s">
+        <v>407</v>
+      </c>
+      <c r="C89" s="94" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="100" t="s">
+        <v>462</v>
+      </c>
+      <c r="C90" s="94" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="100" t="s">
+        <v>916</v>
+      </c>
+      <c r="C91" s="95" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="100" t="s">
+        <v>474</v>
+      </c>
+      <c r="C92" s="94" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="100" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C93" s="94" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="100" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C94" s="94" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="100" t="s">
+        <v>529</v>
+      </c>
+      <c r="C95" s="94" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="100" t="s">
+        <v>941</v>
+      </c>
+      <c r="C96" s="94" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="100" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C97" s="91"/>
+    </row>
+    <row r="98" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="100" t="s">
+        <v>317</v>
+      </c>
+      <c r="C98" s="94" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="100" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C99" s="94" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="100" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C100" s="94" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="100" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C101" s="91"/>
+    </row>
+    <row r="102" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="100" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C102" s="94" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="100" t="s">
+        <v>864</v>
+      </c>
+      <c r="C103" s="94" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="100" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C104" s="94" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="100" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C105" s="94" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="100" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C106" s="94" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="100" t="s">
+        <v>538</v>
+      </c>
+      <c r="C107" s="94" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="100" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C108" s="94" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="100" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C109" s="94" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="100" t="s">
+        <v>837</v>
+      </c>
+      <c r="C110" s="94" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="100" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C111" s="94" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="100" t="s">
+        <v>770</v>
+      </c>
+      <c r="C112" s="94" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="100" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C113" s="94" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="100" t="s">
+        <v>539</v>
+      </c>
+      <c r="C114" s="94" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="100" t="s">
+        <v>286</v>
+      </c>
+      <c r="C115" s="95" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116" s="91" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="100" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C117" s="94" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="100" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C118" s="94" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="100" t="s">
+        <v>503</v>
+      </c>
+      <c r="C119" s="94" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="100" t="s">
+        <v>413</v>
+      </c>
+      <c r="C120" s="95" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="100" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C121" s="94" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="100" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C122" s="94" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="100" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C123" s="94" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="100" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C124" s="94" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="100" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C125" s="94" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="100" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C126" s="94" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="C127" s="94" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="100" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C128" s="91"/>
+    </row>
+    <row r="129" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="100" t="s">
+        <v>860</v>
+      </c>
+      <c r="C129" s="94" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A130" s="100" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C130" s="94" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="100" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C131" s="95" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A132" s="100" t="s">
+        <v>515</v>
+      </c>
+      <c r="C132" s="94" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="100" t="s">
+        <v>882</v>
+      </c>
+      <c r="C133" s="94" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="100" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C134" s="94" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A135" s="100" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C135" s="94" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="100" t="s">
+        <v>308</v>
+      </c>
+      <c r="C136" s="91"/>
+    </row>
+    <row r="137" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A137" s="100" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C137" s="94" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A138" s="100" t="s">
+        <v>869</v>
+      </c>
+      <c r="C138" s="94" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="100" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C139" s="91" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="100" t="s">
+        <v>656</v>
+      </c>
+      <c r="C140" s="94" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="100" t="s">
+        <v>983</v>
+      </c>
+      <c r="C141" s="91"/>
+    </row>
+    <row r="142" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A142" s="100" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C142" s="94" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="100" t="s">
+        <v>498</v>
+      </c>
+      <c r="C143" s="94" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="100" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C144" s="91"/>
+    </row>
+    <row r="145" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A145" s="100" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C145" s="94" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A146" s="100" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C146" s="94" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="100" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C147" s="91"/>
+    </row>
+    <row r="148" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A148" s="100" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C148" s="94" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A149" s="100" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C149" s="94" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="100" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C150" s="91"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="100" t="s">
+        <v>534</v>
+      </c>
+      <c r="C151" s="95" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A152" s="100" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C152" s="94" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A153" s="100" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C153" s="94" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="100" t="s">
+        <v>385</v>
+      </c>
+      <c r="C154" s="91"/>
+    </row>
+    <row r="155" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A155" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="C155" s="94" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="100" t="s">
+        <v>511</v>
+      </c>
+      <c r="C156" s="91"/>
+    </row>
+    <row r="157" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A157" s="100" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C157" s="94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A158" s="100" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C158" s="94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A159" s="100" t="s">
+        <v>330</v>
+      </c>
+      <c r="C159" s="94" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A160" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="C160" s="94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A161" s="100" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C161" s="94" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="100" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C162" s="91"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="100" t="s">
+        <v>449</v>
+      </c>
+      <c r="C163" s="91" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A164" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="C164" s="94" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A165" s="100" t="s">
+        <v>226</v>
+      </c>
+      <c r="C165" s="94" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A166" s="100" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C166" s="94" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="100" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C167" s="91"/>
+    </row>
+    <row r="168" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A168" s="100" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C168" s="94" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A169" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="C169" s="94" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A170" s="100" t="s">
+        <v>760</v>
+      </c>
+      <c r="C170" s="94" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="100" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C171" s="91"/>
+    </row>
+    <row r="172" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A172" s="100" t="s">
+        <v>999</v>
+      </c>
+      <c r="C172" s="94" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A173" s="100" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C173" s="94" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A174" s="100" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C174" s="94" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A175" s="100" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C175" s="94" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="100" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C176" s="91"/>
+    </row>
+    <row r="177" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A177" s="100" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C177" s="94" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A178" s="100" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C178" s="94" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A179" s="100" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C179" s="94" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A180" s="100" t="s">
+        <v>419</v>
+      </c>
+      <c r="C180" s="94" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A181" s="100" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C181" s="94" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A182" s="100" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C182" s="94" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A183" s="100" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C183" s="94" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A184" s="100" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C184" s="94" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A185" s="100" t="s">
+        <v>877</v>
+      </c>
+      <c r="C185" s="94" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A186" s="100" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C186" s="94" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A187" s="100" t="s">
+        <v>424</v>
+      </c>
+      <c r="C187" s="94" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A188" s="100" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C188" s="94" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="100" t="s">
+        <v>647</v>
+      </c>
+      <c r="C189" s="94" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A190" s="100" t="s">
+        <v>642</v>
+      </c>
+      <c r="C190" s="94" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C191" s="91"/>
+    </row>
+    <row r="192" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A192" s="100" t="s">
+        <v>231</v>
+      </c>
+      <c r="C192" s="94" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A193" s="100" t="s">
+        <v>397</v>
+      </c>
+      <c r="C193" s="94" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A194" s="100" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C194" s="94" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A195" s="100" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C195" s="94" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A196" s="100" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C196" s="94" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="100" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C197" s="93"/>
+    </row>
+    <row r="198" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A198" s="100" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C198" s="94" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C199" s="94" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C200" s="94" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C201" s="91" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C202" s="94" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C203" s="94" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C204" s="94" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C205" s="95" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C206" s="94" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C207" s="94" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C208" s="94" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C209" s="91"/>
+    </row>
+    <row r="210" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C210" s="94" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C211" s="94" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C212" s="91" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C213" s="94" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C214" s="94" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C215" s="94" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C216" s="91"/>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C217" s="95"/>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C218" s="95" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C219" s="91"/>
+    </row>
+    <row r="220" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C220" s="94" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C221" s="94" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C222" s="91"/>
+    </row>
+    <row r="223" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C223" s="94" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C224" s="94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C225" s="95" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C226" s="94" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C227" s="91" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C228" s="94"/>
+    </row>
+    <row r="229" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C229" s="94" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C230" s="94" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C231" s="94" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C232" s="94" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C233" s="94" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C234" s="91"/>
+    </row>
+    <row r="235" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C235" s="94" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C236" s="94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C237" s="94" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C238" s="94" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C239" s="94" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C240" s="91" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C241" s="95" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C242" s="95"/>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C243" s="91" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C244" s="94" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C245" s="95" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A1048576">
+    <sortCondition ref="A2:A1048576"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9F684518-14DD-49D4-9094-EE59C2E98F7C}"/>
+    <hyperlink ref="C41" r:id="rId2" xr:uid="{43091BD4-F946-4818-894C-BF3F2A484CA4}"/>
+    <hyperlink ref="C42" r:id="rId3" xr:uid="{0F561232-1099-48CF-B91A-67B8246E8EB5}"/>
+    <hyperlink ref="C50" r:id="rId4" xr:uid="{A9469D09-59DB-4ABE-B173-8D857793CB02}"/>
+    <hyperlink ref="C53" r:id="rId5" xr:uid="{7C35F6F5-0E46-450B-BE3D-D7B18D1D5572}"/>
+    <hyperlink ref="C62" r:id="rId6" xr:uid="{6907FEBD-126D-438C-8A0F-D7DB6EA48315}"/>
+    <hyperlink ref="C70" r:id="rId7" xr:uid="{AEF97ABC-63A2-43C7-9D9C-B3308F44AE74}"/>
+    <hyperlink ref="C74" r:id="rId8" xr:uid="{4E6EA9C4-1B1E-4B74-8A57-1B05EC83D339}"/>
+    <hyperlink ref="C91" r:id="rId9" xr:uid="{5B2BFC46-1360-46DA-997E-4DF8561FB91E}"/>
+    <hyperlink ref="C115" r:id="rId10" xr:uid="{A63262DA-DD51-4E6B-BF61-61F909E24F31}"/>
+    <hyperlink ref="C120" r:id="rId11" xr:uid="{8DEA6E30-A58C-443C-84E1-49D3C09B751D}"/>
+    <hyperlink ref="C131" r:id="rId12" xr:uid="{75E77BE4-69E4-464E-B98B-6366021DDC89}"/>
+    <hyperlink ref="C151" r:id="rId13" xr:uid="{1777F258-86D6-4B04-BB0C-6A3FA52C8E66}"/>
+    <hyperlink ref="C205" r:id="rId14" xr:uid="{89BB0638-E4BC-4091-99B8-C06D4DB27B19}"/>
+    <hyperlink ref="C218" r:id="rId15" xr:uid="{B4AAABA4-3769-482F-86D5-49D676751D09}"/>
+    <hyperlink ref="C225" r:id="rId16" xr:uid="{75331E17-9E36-467F-94B9-5D0CA513156A}"/>
+    <hyperlink ref="C241" r:id="rId17" xr:uid="{1FBF670C-D15C-49F0-A859-74A15F699C66}"/>
+    <hyperlink ref="C245" r:id="rId18" xr:uid="{4A738A15-18A3-42F6-999B-FB4E8FB8F993}"/>
+    <hyperlink ref="C40" r:id="rId19" xr:uid="{212B4B15-7462-439D-9E9E-A00F1D846EFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/paper_total_sessies_2025_2.xlsx
+++ b/docs/paper_total_sessies_2025_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vunl-my.sharepoint.com/personal/j_c_muis_vu_nl/Documents/Documents/GitHub/dvds2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{353D8730-F34F-4901-8293-82E86A31A16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A3A9B94-CBB9-4B7A-A351-5F34A1FE8329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="22548" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="492" yWindow="1536" windowWidth="22548" windowHeight="10188" firstSheet="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alle abstracts" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="indieners mail adressen" sheetId="4" r:id="rId5"/>
     <sheet name="registratie 2 juni" sheetId="6" r:id="rId6"/>
     <sheet name="registratie 12 juni" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'alle abstracts'!$A$1:$Z$162</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3654" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3678" uniqueCount="1276">
   <si>
     <t>naam</t>
   </si>
@@ -2665,6 +2666,12 @@
     <t xml:space="preserve">Politieke Sociologie 4 – Representatie en publiek discourse    </t>
   </si>
   <si>
+    <t>Niels Spierings</t>
+  </si>
+  <si>
+    <t>niels.spierings@ru.nl</t>
+  </si>
+  <si>
     <t>Giving voice to the unheard? The social construction of ‘feeling (un)heard’ in Dutch news articles between 1990-2023.</t>
   </si>
   <si>
@@ -2749,7 +2756,7 @@
     <t>Erik van Ingen</t>
   </si>
   <si>
-    <t>r.corten@uu.nl</t>
+    <t>e.j.van.ingen@vu.nl</t>
   </si>
   <si>
     <t>Professors in the Media: Dynamics of Cumulative Advantage, Reputation, and Gender</t>
@@ -2759,9 +2766,6 @@
   </si>
   <si>
     <t>Chantal Goossens, Linda Schoonmade, Martijn Huisman</t>
-  </si>
-  <si>
-    <t>e.j.van.ingen@vu.nl</t>
   </si>
   <si>
     <t>35. Sociale netwerken</t>
@@ -3652,6 +3656,9 @@
     <t>l.woensdregt@vu.nl</t>
   </si>
   <si>
+    <t>r.corten@uu.nl</t>
+  </si>
+  <si>
     <t>C-5</t>
   </si>
   <si>
@@ -4177,6 +4184,9 @@
     <t>reminder 13 juni</t>
   </si>
   <si>
+    <t>aangemeld na 11 juni</t>
+  </si>
+  <si>
     <t>a.kok1@amsterdamumc.nl</t>
   </si>
   <si>
@@ -4231,6 +4241,9 @@
     <t>gmail</t>
   </si>
   <si>
+    <t>jochem.tolsma@ru.nl</t>
+  </si>
+  <si>
     <t>Marjanwynia@gmail.com</t>
   </si>
   <si>
@@ -4243,9 +4256,6 @@
     <t>n.a.kusmallah@vu.nl</t>
   </si>
   <si>
-    <t>niels.spierings@ru.nl</t>
-  </si>
-  <si>
     <t>nooitgedagt@essb.eur.nl</t>
   </si>
   <si>
@@ -4261,6 +4271,9 @@
     <t>t.m.Chowdhury@vu.nl</t>
   </si>
   <si>
+    <t>Michaelrojekgiffin@gmail.com</t>
+  </si>
+  <si>
     <t>T.vanderlippe@uu.nl</t>
   </si>
   <si>
@@ -4273,14 +4286,35 @@
     <t>w.ultee@ru.nl</t>
   </si>
   <si>
+    <t>Dirk@Kleintjens.com</t>
+  </si>
+  <si>
+    <t>h.ghorashi@vu.nl</t>
+  </si>
+  <si>
+    <t>l.s.m.wolff@vu.nl</t>
+  </si>
+  <si>
+    <t>R.j.f.franken@uu.nl</t>
+  </si>
+  <si>
+    <t>Maaike.Paredis@UGent.be</t>
+  </si>
+  <si>
+    <t>Myriamhemsteede@gmail.com</t>
+  </si>
+  <si>
     <t>N = 18</t>
+  </si>
+  <si>
+    <t>reminder van 13 juni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4476,6 +4510,34 @@
       <name val="Arial"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -4597,7 +4659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4879,6 +4941,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5198,9 +5264,9 @@
   <dimension ref="A1:Z163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="77" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H92" sqref="H92"/>
+      <selection pane="bottomLeft" activeCell="M125" sqref="M125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11924,27 +11990,27 @@
         <v>30</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>746</v>
+        <v>801</v>
       </c>
       <c r="M122" s="38" t="s">
-        <v>747</v>
+        <v>802</v>
       </c>
       <c r="N122" s="3" t="s">
         <v>725</v>
       </c>
       <c r="O122" s="5" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="P122" s="5"/>
       <c r="Q122" s="5" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="R122" s="19"/>
       <c r="S122" s="23" t="s">
         <v>103</v>
       </c>
       <c r="T122" s="24" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="U122" s="22"/>
       <c r="V122" s="22"/>
@@ -11955,14 +12021,14 @@
     </row>
     <row r="123" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B123" s="61"/>
       <c r="C123" s="5" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>57</v>
@@ -11986,20 +12052,20 @@
         <v>30</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>746</v>
+        <v>801</v>
       </c>
       <c r="M123" s="38" t="s">
-        <v>747</v>
+        <v>802</v>
       </c>
       <c r="N123" s="3" t="s">
         <v>725</v>
       </c>
       <c r="O123" s="5" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="P123" s="5"/>
       <c r="Q123" s="5" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="R123" s="19"/>
       <c r="S123" s="23"/>
@@ -12013,13 +12079,13 @@
     </row>
     <row r="124" spans="1:26" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B124" s="61" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C124" s="65" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>125</v>
@@ -12046,20 +12112,20 @@
         <v>30</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>746</v>
+        <v>801</v>
       </c>
       <c r="M124" s="38" t="s">
-        <v>747</v>
+        <v>802</v>
       </c>
       <c r="N124" s="3" t="s">
         <v>725</v>
       </c>
       <c r="O124" s="5" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="P124" s="5"/>
       <c r="Q124" s="5" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="R124" s="19"/>
       <c r="S124" s="23"/>
@@ -12073,13 +12139,13 @@
     </row>
     <row r="125" spans="1:26" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B125" s="61" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>692</v>
@@ -12106,27 +12172,27 @@
         <v>30</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>746</v>
+        <v>801</v>
       </c>
       <c r="M125" s="38" t="s">
-        <v>747</v>
+        <v>802</v>
       </c>
       <c r="N125" s="3" t="s">
         <v>725</v>
       </c>
       <c r="O125" s="5" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="P125" s="5"/>
       <c r="Q125" s="5" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="R125" s="19"/>
       <c r="S125" s="23" t="s">
         <v>103</v>
       </c>
       <c r="T125" s="24" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="U125" s="22"/>
       <c r="V125" s="22"/>
@@ -12137,13 +12203,13 @@
     </row>
     <row r="126" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B126" s="81" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>556</v>
@@ -12152,38 +12218,38 @@
         <v>153</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="G126" s="26" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I126" s="3">
         <v>1</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>536</v>
+        <v>129</v>
       </c>
       <c r="K126" s="3" t="s">
         <v>62</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="M126" s="38" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="N126" s="7" t="s">
         <v>561</v>
       </c>
       <c r="O126" s="8" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="P126" s="8"/>
       <c r="Q126" s="40" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="R126" s="19"/>
       <c r="S126" s="29"/>
@@ -12194,60 +12260,60 @@
     </row>
     <row r="127" spans="1:26" s="9" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B127" s="61" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="G127" s="26" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I127" s="3">
         <v>1</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>536</v>
+        <v>129</v>
       </c>
       <c r="K127" s="3" t="s">
         <v>62</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="M127" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="O127" s="5" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="P127" s="5"/>
       <c r="Q127" s="5" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="R127" s="19"/>
       <c r="S127" s="23" t="s">
         <v>67</v>
       </c>
       <c r="T127" s="22" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="U127" s="22"/>
       <c r="V127" s="22"/>
@@ -12258,60 +12324,60 @@
     </row>
     <row r="128" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B128" s="61" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F128" s="27" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="G128" s="26" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I128" s="3">
         <v>1</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>536</v>
+        <v>129</v>
       </c>
       <c r="K128" s="3" t="s">
         <v>62</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="M128" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="O128" s="5" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="P128" s="5"/>
       <c r="Q128" s="5" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="R128" s="19"/>
       <c r="S128" s="23" t="s">
         <v>67</v>
       </c>
       <c r="T128" s="22" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="U128" s="22"/>
       <c r="V128" s="22"/>
@@ -12322,13 +12388,13 @@
     </row>
     <row r="129" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B129" s="83" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C129" s="60" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>556</v>
@@ -12337,43 +12403,43 @@
         <v>153</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="G129" s="26" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I129" s="7">
         <v>1</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>536</v>
+        <v>129</v>
       </c>
       <c r="K129" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="M129" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="N129" s="7" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="O129" s="39" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="P129" s="8"/>
       <c r="Q129" s="8" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="R129" s="19"/>
       <c r="S129" s="29"/>
       <c r="T129" s="7" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="X129" s="8"/>
       <c r="Y129" s="8"/>
@@ -12381,51 +12447,51 @@
     </row>
     <row r="130" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B130" s="81"/>
       <c r="C130" s="62" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G130" s="26" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H130" s="35" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="I130" s="7">
         <v>2</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K130" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L130" s="13" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="M130" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="N130" s="13" t="s">
         <v>856</v>
       </c>
-      <c r="N130" s="13" t="s">
-        <v>855</v>
-      </c>
       <c r="O130" s="36" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="P130" s="8"/>
       <c r="Q130" s="8" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="R130" s="19"/>
       <c r="S130" s="23"/>
@@ -12438,51 +12504,51 @@
     </row>
     <row r="131" spans="1:26" s="9" customFormat="1" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="12" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B131" s="81"/>
       <c r="C131" s="62" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G131" s="26" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H131" s="35" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="I131" s="7">
         <v>2</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K131" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L131" s="13" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="M131" s="15" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="N131" s="13" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="O131" s="36" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="P131" s="8"/>
       <c r="Q131" s="8" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="R131" s="19"/>
       <c r="S131" s="23"/>
@@ -12495,51 +12561,51 @@
     </row>
     <row r="132" spans="1:26" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A132" s="12" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B132" s="81"/>
       <c r="C132" s="36" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G132" s="26" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H132" s="35" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="I132" s="7">
         <v>2</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K132" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L132" s="13" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="M132" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="N132" s="13" t="s">
         <v>856</v>
       </c>
-      <c r="N132" s="13" t="s">
-        <v>855</v>
-      </c>
       <c r="O132" s="36" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="P132" s="8"/>
       <c r="Q132" s="8" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="R132" s="19"/>
       <c r="S132" s="23"/>
@@ -12552,53 +12618,53 @@
     </row>
     <row r="133" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A133" s="13" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B133" s="81" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C133" s="63" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G133" s="26" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H133" s="35" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="I133" s="7">
         <v>2</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K133" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L133" s="13" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="M133" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="N133" s="13" t="s">
         <v>856</v>
       </c>
-      <c r="N133" s="13" t="s">
-        <v>855</v>
-      </c>
       <c r="O133" s="36" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="P133" s="8"/>
       <c r="Q133" s="14" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="R133" s="19"/>
       <c r="S133" s="23"/>
@@ -12611,51 +12677,51 @@
     </row>
     <row r="134" spans="1:26" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A134" s="13" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B134" s="81"/>
       <c r="C134" s="60" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H134" s="35" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="I134" s="7">
         <v>3</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K134" s="16" t="s">
         <v>62</v>
       </c>
       <c r="L134" s="13" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="M134" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="N134" s="13" t="s">
         <v>856</v>
       </c>
-      <c r="N134" s="13" t="s">
-        <v>855</v>
-      </c>
       <c r="O134" s="36" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="P134" s="8"/>
       <c r="Q134" s="17" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="R134" s="19"/>
       <c r="S134" s="23"/>
@@ -12668,53 +12734,53 @@
     </row>
     <row r="135" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A135" s="12" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B135" s="81" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G135" s="26" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H135" s="35" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="I135" s="7">
         <v>3</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K135" s="16" t="s">
         <v>62</v>
       </c>
       <c r="L135" s="13" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="M135" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="N135" s="13" t="s">
         <v>856</v>
       </c>
-      <c r="N135" s="13" t="s">
-        <v>855</v>
-      </c>
       <c r="O135" s="36" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="P135" s="8"/>
       <c r="Q135" s="8" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="R135" s="19"/>
       <c r="S135" s="23"/>
@@ -12727,53 +12793,53 @@
     </row>
     <row r="136" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A136" s="13" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B136" s="81" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C136" s="63" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H136" s="35" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="I136" s="7">
         <v>3</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K136" s="16" t="s">
         <v>62</v>
       </c>
       <c r="L136" s="13" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="M136" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="N136" s="13" t="s">
         <v>856</v>
       </c>
-      <c r="N136" s="13" t="s">
-        <v>855</v>
-      </c>
       <c r="O136" s="35" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="P136" s="8"/>
       <c r="Q136" s="8" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="R136" s="19"/>
       <c r="S136" s="23"/>
@@ -12786,53 +12852,53 @@
     </row>
     <row r="137" spans="1:26" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A137" s="13" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B137" s="81" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C137" s="63" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G137" s="26" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H137" s="35" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="I137" s="7">
         <v>3</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K137" s="16" t="s">
         <v>62</v>
       </c>
       <c r="L137" s="13" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="M137" s="15" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="N137" s="13" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="O137" s="35" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="P137" s="8"/>
       <c r="Q137" s="8" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="R137" s="19"/>
       <c r="S137" s="23"/>
@@ -12845,28 +12911,28 @@
     </row>
     <row r="138" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B138" s="61" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G138" s="26" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I138" s="3">
         <v>1</v>
@@ -12878,20 +12944,20 @@
         <v>30</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="M138" s="5" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="N138" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="O138" s="5" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="P138" s="5"/>
       <c r="Q138" s="5" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="R138" s="19"/>
       <c r="S138" s="23"/>
@@ -12905,28 +12971,28 @@
     </row>
     <row r="139" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B139" s="61" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G139" s="26" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I139" s="3">
         <v>1</v>
@@ -12938,20 +13004,20 @@
         <v>30</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="M139" s="5" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="N139" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="O139" s="5" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P139" s="5"/>
       <c r="Q139" s="5" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="R139" s="19"/>
       <c r="S139" s="23"/>
@@ -12965,28 +13031,28 @@
     </row>
     <row r="140" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B140" s="61" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G140" s="26" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I140" s="3">
         <v>1</v>
@@ -12998,20 +13064,20 @@
         <v>30</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="M140" s="5" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="N140" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="O140" s="5" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="P140" s="5"/>
       <c r="Q140" s="5" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="R140" s="19"/>
       <c r="S140" s="23"/>
@@ -13025,28 +13091,28 @@
     </row>
     <row r="141" spans="1:26" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B141" s="61" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G141" s="26" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="I141" s="3">
         <v>3</v>
@@ -13058,20 +13124,20 @@
         <v>62</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="M141" s="30" t="s">
+        <v>923</v>
+      </c>
+      <c r="N141" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="N141" s="3" t="s">
-        <v>921</v>
-      </c>
       <c r="O141" s="5" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="P141" s="5"/>
       <c r="Q141" s="5" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="R141" s="69"/>
       <c r="S141" s="70" t="s">
@@ -13087,28 +13153,28 @@
     </row>
     <row r="142" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B142" s="81" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>57</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G142" s="26" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="I142" s="3">
         <v>3</v>
@@ -13120,20 +13186,20 @@
         <v>62</v>
       </c>
       <c r="L142" s="7" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="M142" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="N142" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="N142" s="7" t="s">
-        <v>921</v>
-      </c>
       <c r="O142" s="8" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="P142" s="8"/>
       <c r="Q142" s="8" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="R142" s="19"/>
       <c r="S142" s="23" t="s">
@@ -13148,28 +13214,28 @@
     </row>
     <row r="143" spans="1:26" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B143" s="81" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G143" s="26" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="I143" s="3">
         <v>3</v>
@@ -13181,20 +13247,20 @@
         <v>62</v>
       </c>
       <c r="L143" s="7" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="M143" s="15" t="s">
+        <v>923</v>
+      </c>
+      <c r="N143" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="N143" s="7" t="s">
-        <v>921</v>
-      </c>
       <c r="O143" s="8" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="P143" s="8"/>
       <c r="Q143" s="8" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="R143" s="19"/>
       <c r="S143" s="23" t="s">
@@ -13209,26 +13275,26 @@
     </row>
     <row r="144" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B144" s="81"/>
       <c r="C144" s="8" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G144" s="26" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="I144" s="3">
         <v>3</v>
@@ -13240,20 +13306,20 @@
         <v>62</v>
       </c>
       <c r="L144" s="7" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="M144" s="15" t="s">
+        <v>923</v>
+      </c>
+      <c r="N144" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="N144" s="7" t="s">
-        <v>921</v>
-      </c>
       <c r="O144" s="8" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="P144" s="8"/>
       <c r="Q144" s="8" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="R144" s="19"/>
       <c r="S144" s="23" t="s">
@@ -13271,10 +13337,10 @@
         <v>176</v>
       </c>
       <c r="B145" s="61" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>169</v>
@@ -13283,19 +13349,19 @@
         <v>77</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G145" s="26" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="I145" s="3">
         <v>3</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="K145" s="3" t="s">
         <v>30</v>
@@ -13304,17 +13370,17 @@
         <v>176</v>
       </c>
       <c r="M145" s="5" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="N145" s="3" t="s">
         <v>176</v>
       </c>
       <c r="O145" s="5" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="P145" s="5"/>
       <c r="Q145" s="5" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="R145" s="19"/>
       <c r="S145" s="23"/>
@@ -13328,13 +13394,13 @@
     </row>
     <row r="146" spans="1:26" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B146" s="61" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>169</v>
@@ -13343,19 +13409,19 @@
         <v>57</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G146" s="26" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="I146" s="3">
         <v>3</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="K146" s="3" t="s">
         <v>30</v>
@@ -13364,28 +13430,28 @@
         <v>176</v>
       </c>
       <c r="M146" s="5" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="N146" s="3" t="s">
         <v>176</v>
       </c>
       <c r="O146" s="5" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="Q146" s="5" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="T146" s="22"/>
     </row>
     <row r="147" spans="1:26" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B147" s="61" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>174</v>
@@ -13394,19 +13460,19 @@
         <v>77</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G147" s="26" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="I147" s="3">
         <v>3</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="K147" s="3" t="s">
         <v>30</v>
@@ -13415,24 +13481,24 @@
         <v>176</v>
       </c>
       <c r="M147" s="5" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="N147" s="3" t="s">
         <v>176</v>
       </c>
       <c r="O147" s="5" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="P147" s="5"/>
       <c r="Q147" s="5" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="R147" s="19"/>
       <c r="S147" s="23" t="s">
         <v>67</v>
       </c>
       <c r="T147" s="22" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="U147" s="22"/>
       <c r="V147" s="22"/>
@@ -13443,11 +13509,11 @@
     </row>
     <row r="148" spans="1:26" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B148" s="61"/>
       <c r="C148" s="5" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>169</v>
@@ -13456,19 +13522,19 @@
         <v>527</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G148" s="26" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="I148" s="3">
         <v>3</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="K148" s="3" t="s">
         <v>30</v>
@@ -13477,17 +13543,17 @@
         <v>176</v>
       </c>
       <c r="M148" s="5" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="N148" s="3" t="s">
         <v>176</v>
       </c>
       <c r="O148" s="5" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="P148" s="5"/>
       <c r="Q148" s="5" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="R148" s="19"/>
       <c r="S148" s="23"/>
@@ -13501,53 +13567,53 @@
     </row>
     <row r="149" spans="1:26" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B149" s="61" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>153</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G149" s="26" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="I149" s="3">
         <v>1</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="K149" s="3" t="s">
         <v>62</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="M149" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="N149" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="N149" s="3" t="s">
-        <v>967</v>
-      </c>
       <c r="O149" s="5" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="P149" s="5"/>
       <c r="Q149" s="5" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="R149" s="19"/>
       <c r="S149" s="23"/>
@@ -13561,53 +13627,53 @@
     </row>
     <row r="150" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B150" s="81" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G150" s="26" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="I150" s="7">
         <v>1</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="K150" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="M150" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="N150" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="N150" s="3" t="s">
-        <v>967</v>
-      </c>
       <c r="O150" s="8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="P150" s="8"/>
       <c r="Q150" s="8" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="R150" s="19"/>
       <c r="S150" s="29"/>
@@ -13617,53 +13683,53 @@
     </row>
     <row r="151" spans="1:26" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B151" s="81" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G151" s="26" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="I151" s="7">
         <v>1</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="K151" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="M151" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="N151" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="N151" s="3" t="s">
-        <v>967</v>
-      </c>
       <c r="O151" s="8" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="P151" s="8"/>
       <c r="Q151" s="8" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="R151" s="19"/>
       <c r="S151" s="29"/>
@@ -13673,13 +13739,13 @@
     </row>
     <row r="152" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B152" s="61" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>169</v>
@@ -13688,13 +13754,13 @@
         <v>77</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G152" s="26" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="I152" s="3">
         <v>1</v>
@@ -13706,20 +13772,20 @@
         <v>62</v>
       </c>
       <c r="L152" s="28" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="M152" s="5" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="N152" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O152" s="5" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="P152" s="5"/>
       <c r="Q152" s="5" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="R152" s="19"/>
       <c r="S152" s="23"/>
@@ -13733,13 +13799,13 @@
     </row>
     <row r="153" spans="1:26" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B153" s="61" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>169</v>
@@ -13748,13 +13814,13 @@
         <v>71</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G153" s="26" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="I153" s="3">
         <v>1</v>
@@ -13766,20 +13832,20 @@
         <v>62</v>
       </c>
       <c r="L153" s="28" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="M153" s="5" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="N153" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O153" s="5" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="P153" s="5"/>
       <c r="Q153" s="5" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="R153" s="19"/>
       <c r="S153" s="23"/>
@@ -13793,13 +13859,13 @@
     </row>
     <row r="154" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B154" s="61" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>174</v>
@@ -13808,13 +13874,13 @@
         <v>153</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G154" s="26" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="I154" s="3">
         <v>1</v>
@@ -13826,20 +13892,20 @@
         <v>62</v>
       </c>
       <c r="L154" s="28" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="M154" s="5" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="N154" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O154" s="5" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="P154" s="5"/>
       <c r="Q154" s="5" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="R154" s="19"/>
       <c r="S154" s="23"/>
@@ -13853,53 +13919,53 @@
     </row>
     <row r="155" spans="1:26" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B155" s="61" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G155" s="26" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I155" s="3">
         <v>2</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="K155" s="3" t="s">
         <v>62</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="M155" s="15" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="N155" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="O155" s="5" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="P155" s="5"/>
       <c r="Q155" s="5" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="R155" s="19"/>
       <c r="S155" s="23"/>
@@ -13913,53 +13979,53 @@
     </row>
     <row r="156" spans="1:26" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B156" s="81" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E156" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G156" s="26" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I156" s="7">
         <v>2</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="K156" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="M156" s="15" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="N156" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="O156" s="8" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="P156" s="8"/>
       <c r="Q156" s="8" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="R156" s="19"/>
       <c r="S156" s="29"/>
@@ -13969,53 +14035,53 @@
     </row>
     <row r="157" spans="1:26" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B157" s="61" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F157" s="24" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G157" s="26" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I157" s="3">
         <v>2</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="K157" s="3" t="s">
         <v>62</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="M157" s="15" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="N157" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="O157" s="5" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="P157" s="5"/>
       <c r="Q157" s="5" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="R157" s="19"/>
       <c r="S157" s="23"/>
@@ -14209,18 +14275,18 @@
     <hyperlink ref="M119" r:id="rId83" xr:uid="{5AA10A2D-DE03-41B5-B7A1-B2994EF93008}"/>
     <hyperlink ref="M120" r:id="rId84" xr:uid="{B2F31B8A-3D28-4705-A8A7-84DA2BBBC494}"/>
     <hyperlink ref="M122" r:id="rId85" xr:uid="{6CC2A919-4054-48AC-A08F-90824024AFF4}"/>
-    <hyperlink ref="M123" r:id="rId86" xr:uid="{25C9ECC7-F8F8-4ED8-B330-52AC5D89A7EA}"/>
-    <hyperlink ref="M124" r:id="rId87" xr:uid="{6512C40A-A6D0-4BBC-8021-C9A4B51B8700}"/>
-    <hyperlink ref="M125" r:id="rId88" xr:uid="{CCE83301-D067-451E-A48D-59DE290DE20D}"/>
-    <hyperlink ref="M114" r:id="rId89" xr:uid="{10E1E31B-F92E-4FB8-BF36-585EAF5BBABA}"/>
-    <hyperlink ref="M115" r:id="rId90" xr:uid="{C660FBFB-04F8-4521-A370-3EC4B3635FDA}"/>
-    <hyperlink ref="M116" r:id="rId91" xr:uid="{00D4A9C1-A49F-46E0-BD16-80FC99C6FB9E}"/>
-    <hyperlink ref="M20" r:id="rId92" xr:uid="{2B240C49-D4A6-4DF2-B7E6-101B23BB68BB}"/>
-    <hyperlink ref="C12" r:id="rId93" xr:uid="{27D4A506-EE12-4FF4-8B96-453D239E81EA}"/>
-    <hyperlink ref="M2" r:id="rId94" display="mailto:dagevos@essb.eur.nl" xr:uid="{1B523BA2-6E34-4B6A-8EAC-2E0683752143}"/>
-    <hyperlink ref="M49" r:id="rId95" xr:uid="{9C3CB78B-3CAC-4D9A-8A3E-F2D4A7A92D6A}"/>
-    <hyperlink ref="M40" r:id="rId96" xr:uid="{1E175B7F-2D88-49BB-9AED-433651E5D4EF}"/>
-    <hyperlink ref="M89" r:id="rId97" xr:uid="{E8F1D1D0-1252-4D99-899F-B25A89CEC1AE}"/>
+    <hyperlink ref="M114" r:id="rId86" xr:uid="{10E1E31B-F92E-4FB8-BF36-585EAF5BBABA}"/>
+    <hyperlink ref="M115" r:id="rId87" xr:uid="{C660FBFB-04F8-4521-A370-3EC4B3635FDA}"/>
+    <hyperlink ref="M116" r:id="rId88" xr:uid="{00D4A9C1-A49F-46E0-BD16-80FC99C6FB9E}"/>
+    <hyperlink ref="M20" r:id="rId89" xr:uid="{2B240C49-D4A6-4DF2-B7E6-101B23BB68BB}"/>
+    <hyperlink ref="C12" r:id="rId90" xr:uid="{27D4A506-EE12-4FF4-8B96-453D239E81EA}"/>
+    <hyperlink ref="M2" r:id="rId91" display="mailto:dagevos@essb.eur.nl" xr:uid="{1B523BA2-6E34-4B6A-8EAC-2E0683752143}"/>
+    <hyperlink ref="M49" r:id="rId92" xr:uid="{9C3CB78B-3CAC-4D9A-8A3E-F2D4A7A92D6A}"/>
+    <hyperlink ref="M40" r:id="rId93" xr:uid="{1E175B7F-2D88-49BB-9AED-433651E5D4EF}"/>
+    <hyperlink ref="M89" r:id="rId94" xr:uid="{E8F1D1D0-1252-4D99-899F-B25A89CEC1AE}"/>
+    <hyperlink ref="M123" r:id="rId95" xr:uid="{B319479B-2DE4-41EE-B8F5-10578FC29CC5}"/>
+    <hyperlink ref="M124" r:id="rId96" xr:uid="{147AC49E-825E-4E29-BAAA-66F35463E148}"/>
+    <hyperlink ref="M125" r:id="rId97" xr:uid="{4B120E9C-105D-4331-B268-8F03A7DD65DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14257,25 +14323,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="A1" s="107" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
       <c r="D1" s="46" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="51" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -14283,13 +14349,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -14297,13 +14363,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -14311,13 +14377,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.3">
@@ -14325,13 +14391,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -14339,38 +14405,38 @@
         <v>5</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="54" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="104" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
+      <c r="A11" s="108" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="46" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="46" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -14378,11 +14444,11 @@
         <v>1</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="48" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -14390,11 +14456,11 @@
         <v>2</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="48" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -14402,23 +14468,23 @@
         <v>3</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="48" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="51" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -14426,11 +14492,11 @@
         <v>4</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C17" s="49"/>
       <c r="D17" s="48" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -14438,11 +14504,11 @@
         <v>5</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="48" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -14450,11 +14516,11 @@
         <v>6</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="48" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -14462,23 +14528,23 @@
         <v>7</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="48" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="46" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C21" s="47"/>
       <c r="D21" s="46" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -14486,11 +14552,11 @@
         <v>8</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="52" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -14498,11 +14564,11 @@
         <v>9</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="48" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -14510,11 +14576,11 @@
         <v>10</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="48" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
   </sheetData>
@@ -14530,7 +14596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC2B297-996D-4A63-922F-E1015EF01E0B}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A48"/>
     </sheetView>
   </sheetViews>
@@ -14541,18 +14607,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="89" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B2" s="89" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -14568,7 +14634,7 @@
         <v>147</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -14581,7 +14647,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="89" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B6" s="89" t="s">
         <v>512</v>
@@ -14605,15 +14671,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="89" t="s">
-        <v>827</v>
+        <v>1058</v>
       </c>
       <c r="B9" s="89" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="89" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B10" s="89" t="s">
         <v>611</v>
@@ -14621,7 +14687,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="89" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B11" s="89" t="s">
         <v>611</v>
@@ -14661,7 +14727,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="89" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B16" s="89" t="s">
         <v>744</v>
@@ -14669,7 +14735,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="89" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B17" s="89" t="s">
         <v>744</v>
@@ -14677,58 +14743,58 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="89" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="89" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="89" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B20" s="89" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="89" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B21" s="89" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="89" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B22" s="89" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="89" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B23" s="89" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="89" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B24" s="89" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -14741,23 +14807,23 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="89" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B26" s="89" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="89" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B27" s="89" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="89" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B28" s="89" t="s">
         <v>382</v>
@@ -14765,7 +14831,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="89" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B29" s="89" t="s">
         <v>382</v>
@@ -14789,18 +14855,18 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="89" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B32" s="89" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="89" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -14816,7 +14882,7 @@
         <v>64</v>
       </c>
       <c r="B35" s="89" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -14840,7 +14906,7 @@
         <v>276</v>
       </c>
       <c r="B38" s="89" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -14877,7 +14943,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="89" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B43" s="89" t="s">
         <v>27</v>
@@ -14885,7 +14951,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="89" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B44" s="89" t="s">
         <v>27</v>
@@ -14893,10 +14959,10 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="89" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B45" s="89" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -14917,10 +14983,10 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="89" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B48" s="89" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -14943,7 +15009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988237D7-6243-4088-8FE6-9BA5F8DCAEF5}">
   <dimension ref="A1:A197"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
@@ -14954,27 +15020,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="93" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="92" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="92" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="92" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -14999,12 +15065,12 @@
     </row>
     <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="92" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="92" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15024,12 +15090,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="94" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="92" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15039,47 +15105,47 @@
     </row>
     <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="92" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="92" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="92" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="92" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="92" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="93" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="92" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="92" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="92" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15089,7 +15155,7 @@
     </row>
     <row r="28" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="92" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15099,27 +15165,27 @@
     </row>
     <row r="30" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="92" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="92" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="92" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="93" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="93" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15144,22 +15210,22 @@
     </row>
     <row r="39" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="92" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="93" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="92" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="93" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15169,12 +15235,12 @@
     </row>
     <row r="44" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="92" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="92" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15184,12 +15250,12 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="93" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="93" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15209,17 +15275,17 @@
     </row>
     <row r="52" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="92" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="92" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="93" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15234,7 +15300,7 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="93" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15259,12 +15325,12 @@
     </row>
     <row r="62" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="92" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="92" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15287,27 +15353,27 @@
     </row>
     <row r="68" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="92" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="92" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="92" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="92" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="93" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15322,12 +15388,12 @@
     </row>
     <row r="75" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="92" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="92" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15342,7 +15408,7 @@
     </row>
     <row r="79" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="92" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15352,12 +15418,12 @@
     </row>
     <row r="81" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="92" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="92" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15367,17 +15433,17 @@
     </row>
     <row r="84" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="92" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="92" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="92" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15387,37 +15453,37 @@
     </row>
     <row r="88" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="92" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="92" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="92" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="92" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="92" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="92" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="93" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15427,7 +15493,7 @@
     </row>
     <row r="96" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="92" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15437,12 +15503,12 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="93" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="92" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15467,7 +15533,7 @@
     </row>
     <row r="104" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="92" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15487,12 +15553,12 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="93" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="92" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15502,17 +15568,17 @@
     </row>
     <row r="111" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="92" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="92" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="92" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15537,7 +15603,7 @@
     </row>
     <row r="118" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="92" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15557,17 +15623,17 @@
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="93" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="92" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="92" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15587,12 +15653,12 @@
     </row>
     <row r="128" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="92" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="92" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15607,7 +15673,7 @@
     </row>
     <row r="132" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="92" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15622,7 +15688,7 @@
     </row>
     <row r="135" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="92" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15632,7 +15698,7 @@
     </row>
     <row r="137" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="92" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15642,7 +15708,7 @@
     </row>
     <row r="139" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="92" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15652,7 +15718,7 @@
     </row>
     <row r="141" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="92" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15677,27 +15743,27 @@
     </row>
     <row r="146" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="92" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="92" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="92" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="92" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="92" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15712,22 +15778,22 @@
     </row>
     <row r="153" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="92" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="92" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="92" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="92" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15737,7 +15803,7 @@
     </row>
     <row r="158" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="92" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15747,7 +15813,7 @@
     </row>
     <row r="160" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="92" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15777,7 +15843,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="93" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15792,7 +15858,7 @@
     </row>
     <row r="169" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="92" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15802,12 +15868,12 @@
     </row>
     <row r="171" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="92" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="92" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15822,12 +15888,12 @@
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="93" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="92" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15847,7 +15913,7 @@
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="93" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15857,12 +15923,12 @@
     </row>
     <row r="182" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="92" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="92" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15872,12 +15938,12 @@
     </row>
     <row r="185" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="92" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="92" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15892,7 +15958,7 @@
     </row>
     <row r="189" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="92" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -15907,22 +15973,22 @@
     </row>
     <row r="192" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="92" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="93" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="93" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="92" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
@@ -15981,48 +16047,48 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="C1" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="E1" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="98" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C2" s="93" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="E2" s="93" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="98" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="C3" s="92" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="98" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C4" s="92" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="98" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -16030,21 +16096,21 @@
         <v>297</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E6" s="92" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="98" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="C7" s="89"/>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="98" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="C8" s="92" t="s">
         <v>297</v>
@@ -16052,7 +16118,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="98" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="C9" s="92" t="s">
         <v>555</v>
@@ -16063,7 +16129,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="98" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="C10" s="92" t="s">
         <v>151</v>
@@ -16082,21 +16148,21 @@
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="98" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="C12" s="92" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="E12" s="92" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="98" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="C13" s="89" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -16104,12 +16170,12 @@
         <v>207</v>
       </c>
       <c r="C14" s="92" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="98" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C15" s="92" t="s">
         <v>55</v>
@@ -16125,7 +16191,7 @@
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="98" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="C17" s="92" t="s">
         <v>207</v>
@@ -16136,23 +16202,23 @@
         <v>560</v>
       </c>
       <c r="C18" s="94" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="E18" s="94" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="98" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="98" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="C20" s="92" t="s">
         <v>282</v>
@@ -16160,13 +16226,13 @@
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="98" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C21" s="92" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="E21" s="92" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -16174,21 +16240,21 @@
         <v>308</v>
       </c>
       <c r="C22" s="92" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="E22" s="92" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="98" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="C23" s="92" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="E23" s="92" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -16196,23 +16262,23 @@
         <v>344</v>
       </c>
       <c r="C24" s="92" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E24" s="92" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="98" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="C25" s="92" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="98" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="C26" s="89" t="s">
         <v>560</v>
@@ -16220,7 +16286,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="98" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="C27" s="93"/>
     </row>
@@ -16229,28 +16295,28 @@
         <v>691</v>
       </c>
       <c r="C28" s="92" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="98" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="C29" s="92" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="98" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C30" s="92" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="98" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C31" s="92" t="s">
         <v>308</v>
@@ -16258,27 +16324,27 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="98" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C32" s="89"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="98" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="C33" s="89" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="98" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C34" s="92"/>
     </row>
     <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="98" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C35" s="92" t="s">
         <v>344</v>
@@ -16289,10 +16355,10 @@
         <v>647</v>
       </c>
       <c r="C36" s="92" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="E36" s="92" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -16307,10 +16373,10 @@
         <v>226</v>
       </c>
       <c r="C38" s="92" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="E38" s="92" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -16318,10 +16384,10 @@
         <v>220</v>
       </c>
       <c r="C39" s="92" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="E39" s="92" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -16337,18 +16403,18 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="98" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="C41" s="93" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="98" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="C42" s="93" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -16375,7 +16441,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="98" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="C46" s="92" t="s">
         <v>653</v>
@@ -16386,7 +16452,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="98" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C47" s="92" t="s">
         <v>570</v>
@@ -16397,43 +16463,43 @@
     </row>
     <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="98" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="C48" s="92" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="E48" s="92" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="98" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="98" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="C50" s="93" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="E50" s="93" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="98" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="C51" s="92" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E51" s="92" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -16441,10 +16507,10 @@
         <v>255</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E52" s="89" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -16452,21 +16518,21 @@
         <v>143</v>
       </c>
       <c r="C53" s="93" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="E53" s="93" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="98" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="C54" s="89"/>
     </row>
     <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="98" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="C55" s="92" t="s">
         <v>36</v>
@@ -16474,18 +16540,18 @@
     </row>
     <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="98" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C56" s="92" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="98" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C57" s="92" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -16493,12 +16559,12 @@
         <v>269</v>
       </c>
       <c r="C58" s="89" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="98" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="C59" s="92" t="s">
         <v>647</v>
@@ -16507,18 +16573,18 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="98" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C60" s="89" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E60" s="89" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="98" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="C61" s="93"/>
       <c r="E61" s="93"/>
@@ -16528,15 +16594,15 @@
         <v>766</v>
       </c>
       <c r="C62" s="93" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="E62" s="93" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="98" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="C63" s="92" t="s">
         <v>798</v>
@@ -16544,7 +16610,7 @@
     </row>
     <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="98" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C64" s="92" t="s">
         <v>226</v>
@@ -16552,7 +16618,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="98" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="C65" s="89"/>
     </row>
@@ -16566,13 +16632,13 @@
     </row>
     <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="98" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C67" s="92" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E67" s="92" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -16584,13 +16650,13 @@
     </row>
     <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="98" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C69" s="92" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="E69" s="92" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -16598,10 +16664,10 @@
         <v>163</v>
       </c>
       <c r="C70" s="93" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="E70" s="93" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -16617,7 +16683,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="98" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="C72" s="89"/>
     </row>
@@ -16631,10 +16697,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="98" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="C74" s="93" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -16650,7 +16716,7 @@
     </row>
     <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="98" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="C76" s="92" t="s">
         <v>328</v>
@@ -16658,7 +16724,7 @@
     </row>
     <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="98" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="C77" s="92" t="s">
         <v>124</v>
@@ -16666,7 +16732,7 @@
     </row>
     <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="98" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="C78" s="92" t="s">
         <v>494</v>
@@ -16680,13 +16746,13 @@
     </row>
     <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="98" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="C80" s="92" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="E80" s="92" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -16694,15 +16760,15 @@
         <v>76</v>
       </c>
       <c r="C81" s="92" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="E81" s="92" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="98" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C82" s="92" t="s">
         <v>566</v>
@@ -16732,24 +16798,24 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="98" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="C85" s="89"/>
       <c r="E85" s="89"/>
     </row>
     <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="98" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="C86" s="92"/>
       <c r="E86" s="92"/>
     </row>
     <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="98" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C87" s="92" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -16757,42 +16823,42 @@
         <v>786</v>
       </c>
       <c r="C88" s="92" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="98" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="C89" s="92" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="98" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="C90" s="92" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E90" s="92" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="98" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C91" s="93" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="E91" s="93" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="98" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="C92" s="92" t="s">
         <v>143</v>
@@ -16800,7 +16866,7 @@
     </row>
     <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="98" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="C93" s="92" t="s">
         <v>244</v>
@@ -16808,39 +16874,39 @@
     </row>
     <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="98" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="C94" s="92" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="E94" s="92"/>
       <c r="F94" s="93" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="98" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="C95" s="92" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="98" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C96" s="92" t="s">
         <v>100</v>
       </c>
       <c r="E96" s="92"/>
       <c r="F96" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="98" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C97" s="89"/>
       <c r="E97" s="89"/>
@@ -16858,10 +16924,10 @@
     </row>
     <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="98" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="C99" s="92" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -16874,7 +16940,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="98" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="C101" s="89"/>
     </row>
@@ -16883,10 +16949,10 @@
         <v>705</v>
       </c>
       <c r="C102" s="92" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="E102" s="92" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -16894,15 +16960,15 @@
         <v>369</v>
       </c>
       <c r="C103" s="92" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="E103" s="92" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="98" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="C104" s="92" t="s">
         <v>322</v>
@@ -16913,34 +16979,34 @@
     </row>
     <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="98" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C105" s="92" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="E105" s="92" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="98" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="C106" s="92" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="98" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="C107" s="92" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="98" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="C108" s="92" t="s">
         <v>766</v>
@@ -16948,14 +17014,14 @@
     </row>
     <row r="109" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="98" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="C109" s="92" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="E109" s="92"/>
       <c r="F109" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -16963,21 +17029,21 @@
         <v>168</v>
       </c>
       <c r="C110" s="92" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="E110" s="92" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="98" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="C111" s="92" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="E111" s="92" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -16985,7 +17051,7 @@
         <v>731</v>
       </c>
       <c r="C112" s="92" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -16993,29 +17059,29 @@
         <v>591</v>
       </c>
       <c r="C113" s="92" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="98" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="C114" s="92" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="E114" s="92" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="98" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="C115" s="93" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="E115" s="93" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -17023,7 +17089,7 @@
         <v>754</v>
       </c>
       <c r="C116" s="89" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="E116" s="89"/>
     </row>
@@ -17037,10 +17103,10 @@
     </row>
     <row r="118" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="98" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="C118" s="92" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17056,18 +17122,18 @@
         <v>585</v>
       </c>
       <c r="C120" s="93" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="E120" s="93" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="98" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="C121" s="92" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17091,7 +17157,7 @@
     </row>
     <row r="124" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="98" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="C124" s="92" t="s">
         <v>40</v>
@@ -17107,18 +17173,18 @@
     </row>
     <row r="126" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="98" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="C126" s="92" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="E126" s="92" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="98" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="C127" s="92" t="s">
         <v>276</v>
@@ -17129,14 +17195,14 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="98" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="C128" s="89"/>
       <c r="E128" s="89"/>
     </row>
     <row r="129" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="98" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="C129" s="92" t="s">
         <v>718</v>
@@ -17147,7 +17213,7 @@
     </row>
     <row r="130" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="98" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="C130" s="92" t="s">
         <v>737</v>
@@ -17158,13 +17224,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="98" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="C131" s="93" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="E131" s="93" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17172,15 +17238,15 @@
         <v>792</v>
       </c>
       <c r="C132" s="92" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="E132" s="92" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="98" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="C133" s="92" t="s">
         <v>701</v>
@@ -17188,35 +17254,35 @@
     </row>
     <row r="134" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="98" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C134" s="92" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="98" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C135" s="92" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="98" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="C136" s="89"/>
     </row>
     <row r="137" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="98" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="C137" s="92" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E137" s="92" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17229,13 +17295,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="98" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C139" s="89" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="E139" s="89" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17251,14 +17317,14 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="98" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C141" s="89"/>
       <c r="E141" s="89"/>
     </row>
     <row r="142" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="98" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="C142" s="92" t="s">
         <v>520</v>
@@ -17269,7 +17335,7 @@
     </row>
     <row r="143" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="98" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="C143" s="92" t="s">
         <v>76</v>
@@ -17277,16 +17343,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="98" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="C144" s="89"/>
     </row>
     <row r="145" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="92" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C145" s="92" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17315,18 +17381,18 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C151" s="93" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C152" s="92" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E152" s="92"/>
     </row>
     <row r="153" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C153" s="92" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -17355,18 +17421,18 @@
     </row>
     <row r="159" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C159" s="92" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="E159" s="92" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C160" s="92" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E160" s="92" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="161" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17382,7 +17448,7 @@
     </row>
     <row r="163" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C163" s="89" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="164" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17395,10 +17461,10 @@
     </row>
     <row r="165" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C165" s="92" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E165" s="92" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="166" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17416,7 +17482,7 @@
     </row>
     <row r="169" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C169" s="92" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="170" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17429,7 +17495,7 @@
     </row>
     <row r="172" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C172" s="92" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="E172" s="92"/>
     </row>
@@ -17440,7 +17506,7 @@
     </row>
     <row r="174" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C174" s="92" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="175" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17453,10 +17519,10 @@
     </row>
     <row r="177" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C177" s="92" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="E177" s="92" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="178" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17490,36 +17556,36 @@
     </row>
     <row r="182" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C182" s="92" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="183" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C183" s="92" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="184" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C184" s="92" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="E184" s="92" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="185" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C185" s="92" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="E185" s="92" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="186" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C186" s="92" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="E186" s="92" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="187" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17529,26 +17595,26 @@
     </row>
     <row r="188" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C188" s="92" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="E188" s="92" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="189" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C189" s="92" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="E189" s="92" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="190" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C190" s="92" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="E190" s="92" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.3">
@@ -17557,10 +17623,10 @@
     </row>
     <row r="192" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C192" s="92" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="E192" s="92" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="193" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17570,10 +17636,10 @@
     </row>
     <row r="194" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C194" s="92" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="E194" s="92" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="195" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17591,10 +17657,10 @@
     </row>
     <row r="198" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C198" s="92" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E198" s="92" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="199" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17609,10 +17675,10 @@
     </row>
     <row r="201" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C201" s="89" t="s">
-        <v>827</v>
+        <v>1058</v>
       </c>
       <c r="E201" s="89" t="s">
-        <v>827</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="202" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17635,10 +17701,10 @@
     </row>
     <row r="205" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C205" s="93" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="E205" s="93" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="206" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17653,10 +17719,10 @@
     </row>
     <row r="208" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C208" s="92" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E208" s="92" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="209" spans="3:5" x14ac:dyDescent="0.3">
@@ -17669,10 +17735,10 @@
     </row>
     <row r="211" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C211" s="92" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="E211" s="92" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="212" spans="3:5" x14ac:dyDescent="0.3">
@@ -17685,10 +17751,10 @@
     </row>
     <row r="213" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C213" s="92" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="E213" s="92" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="214" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17710,7 +17776,7 @@
     </row>
     <row r="218" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C218" s="93" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="219" spans="3:5" x14ac:dyDescent="0.3">
@@ -17718,10 +17784,10 @@
     </row>
     <row r="220" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C220" s="92" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="E220" s="92" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="221" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17744,7 +17810,7 @@
     </row>
     <row r="225" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C225" s="93" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="226" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17762,7 +17828,7 @@
     </row>
     <row r="229" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C229" s="92" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="230" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17775,15 +17841,15 @@
     </row>
     <row r="231" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C231" s="92" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="E231" s="92" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="232" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C232" s="92" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="233" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17804,7 +17870,7 @@
     </row>
     <row r="236" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C236" s="92" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="237" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -17822,20 +17888,20 @@
     </row>
     <row r="239" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C239" s="92" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C240" s="89" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="241" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C241" s="93" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="E241" s="93" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="242" spans="3:5" x14ac:dyDescent="0.3">
@@ -17843,12 +17909,12 @@
     </row>
     <row r="243" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C243" s="89" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="244" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C244" s="92" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="E244" s="92"/>
     </row>
@@ -17862,7 +17928,7 @@
     </row>
     <row r="247" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E247" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
   </sheetData>
@@ -17912,8 +17978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E804EE0B-6B79-47C3-95FF-1EACDA3B140E}">
   <dimension ref="A1:G247"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+    <sheetView topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="E245" sqref="E245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17923,64 +17989,67 @@
     <col min="5" max="5" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="C1" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="E1" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1233</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="98" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C2" s="93" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="98" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C3" s="92" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="98" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="C4" s="92" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="98" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="98" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="98" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C7" s="89"/>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="98" t="s">
         <v>297</v>
       </c>
@@ -17988,7 +18057,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="98" t="s">
         <v>555</v>
       </c>
@@ -17996,59 +18065,59 @@
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="98" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="C10" s="92" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="98" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="C11" s="92" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="98" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="C12" s="92" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="E12" s="92"/>
       <c r="F12" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="98" t="s">
         <v>313</v>
       </c>
       <c r="C13" s="89" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="98" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="C14" s="92" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="98" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="C15" s="92" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="98" t="s">
         <v>55</v>
       </c>
@@ -18058,7 +18127,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="98" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="C17" s="92" t="s">
         <v>207</v>
@@ -18066,10 +18135,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="98" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="C18" s="94" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -18077,12 +18146,12 @@
         <v>207</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="98" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="C20" s="92" t="s">
         <v>282</v>
@@ -18090,10 +18159,10 @@
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="98" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C21" s="92" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -18101,38 +18170,38 @@
         <v>282</v>
       </c>
       <c r="C22" s="92" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="98" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="C23" s="92" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="E23" s="92"/>
       <c r="F23" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="98" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C24" s="92" t="s">
-        <v>811</v>
-      </c>
-      <c r="E24" s="92" t="s">
-        <v>811</v>
+        <v>813</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="98" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="C25" s="92" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -18145,24 +18214,24 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="98" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C27" s="93"/>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="98" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="C28" s="92" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="98" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C29" s="92" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -18170,12 +18239,12 @@
         <v>308</v>
       </c>
       <c r="C30" s="92" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="98" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="C31" s="92" t="s">
         <v>308</v>
@@ -18187,74 +18256,72 @@
       </c>
       <c r="C32" s="89"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="98" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="C33" s="89" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="98" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="C34" s="92"/>
     </row>
-    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="98" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="C35" s="92" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="98" t="s">
         <v>691</v>
       </c>
       <c r="C36" s="92" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F36" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="98" t="s">
         <v>653</v>
       </c>
       <c r="C37" s="89"/>
     </row>
-    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="98" t="s">
         <v>570</v>
       </c>
       <c r="C38" s="92" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E38" s="92" t="s">
-        <v>1094</v>
-      </c>
+        <v>1096</v>
+      </c>
+      <c r="E38" s="92"/>
       <c r="F38" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="98" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="C39" s="92" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="E39" s="92"/>
       <c r="F39" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="93" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="C40" s="93" t="s">
         <v>597</v>
@@ -18262,54 +18329,57 @@
       <c r="E40" s="93" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="98" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="98" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C41" s="93" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="98" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C42" s="93" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="98" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C43" s="92" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="98" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="C44" s="89"/>
     </row>
-    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="98" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C45" s="92" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="98" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C46" s="92" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="98" t="s">
         <v>647</v>
       </c>
@@ -18317,16 +18387,16 @@
         <v>570</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="98" t="s">
         <v>798</v>
       </c>
       <c r="C48" s="92" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="E48" s="92"/>
       <c r="F48" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -18334,7 +18404,7 @@
         <v>226</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -18342,19 +18412,19 @@
         <v>220</v>
       </c>
       <c r="C50" s="93" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="E50" s="93"/>
       <c r="F50" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="98" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C51" s="92" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -18365,70 +18435,76 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="98" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="C53" s="93" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E53" s="93" t="s">
-        <v>1100</v>
+        <v>1102</v>
+      </c>
+      <c r="E53" s="104" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="98" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="C54" s="89"/>
+      <c r="E54" s="105"/>
     </row>
     <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="98" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="C55" s="92" t="s">
         <v>36</v>
       </c>
+      <c r="E55" s="105"/>
     </row>
     <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="98" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="C56" s="92" t="s">
-        <v>1101</v>
-      </c>
+        <v>1103</v>
+      </c>
+      <c r="E56" s="105"/>
     </row>
     <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="98" t="s">
         <v>328</v>
       </c>
       <c r="C57" s="92" t="s">
-        <v>805</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="E57" s="105"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="98" t="s">
         <v>124</v>
       </c>
       <c r="C58" s="89" t="s">
-        <v>1062</v>
-      </c>
+        <v>1064</v>
+      </c>
+      <c r="E58" s="105"/>
     </row>
     <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="98" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="C59" s="92" t="s">
         <v>647</v>
       </c>
+      <c r="E59" s="105"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="98" t="s">
         <v>566</v>
       </c>
       <c r="C60" s="89" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E60" s="89" t="s">
-        <v>1059</v>
+        <v>1061</v>
+      </c>
+      <c r="E60" s="106" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -18436,21 +18512,22 @@
         <v>666</v>
       </c>
       <c r="C61" s="93"/>
+      <c r="E61" s="105"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="98" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="C62" s="93" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E62" s="93" t="s">
-        <v>1103</v>
+        <v>1105</v>
+      </c>
+      <c r="E62" s="104" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="98" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="C63" s="92" t="s">
         <v>798</v>
@@ -18458,7 +18535,7 @@
     </row>
     <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="98" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="C64" s="92" t="s">
         <v>226</v>
@@ -18466,13 +18543,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="98" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="C65" s="89"/>
     </row>
     <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="98" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C66" s="92" t="s">
         <v>220</v>
@@ -18480,35 +18557,35 @@
     </row>
     <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="98" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="C67" s="92" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="98" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="C68" s="89"/>
     </row>
     <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="98" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="C69" s="92" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="98" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="C70" s="93" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E70" s="93" t="s">
-        <v>1105</v>
+        <v>1107</v>
+      </c>
+      <c r="E70" s="104" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -18527,7 +18604,7 @@
     </row>
     <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="98" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="C73" s="92" t="s">
         <v>525</v>
@@ -18535,15 +18612,15 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="98" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="C74" s="93" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="98" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C75" s="92" t="s">
         <v>212</v>
@@ -18559,7 +18636,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="98" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C77" s="92" t="s">
         <v>124</v>
@@ -18575,37 +18652,37 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="98" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C79" s="89"/>
     </row>
     <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="98" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="C80" s="92" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="E80" s="92"/>
       <c r="F80" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="98" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="C81" s="92" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="E81" s="92"/>
       <c r="F81" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="98" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C82" s="92" t="s">
         <v>566</v>
@@ -18613,7 +18690,7 @@
     </row>
     <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="98" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="C83" s="92" t="s">
         <v>666</v>
@@ -18629,30 +18706,30 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="98" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C85" s="89"/>
     </row>
     <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="98" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="C86" s="92"/>
     </row>
     <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="98" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C87" s="92" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="98" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="C88" s="92" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -18660,18 +18737,18 @@
         <v>780</v>
       </c>
       <c r="C89" s="92" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="98" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C90" s="92" t="s">
-        <v>963</v>
-      </c>
-      <c r="E90" s="92" t="s">
-        <v>963</v>
+        <v>964</v>
+      </c>
+      <c r="E90" s="103" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -18679,16 +18756,16 @@
         <v>234</v>
       </c>
       <c r="C91" s="93" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="E91" s="93"/>
       <c r="F91" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="98" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C92" s="92" t="s">
         <v>143</v>
@@ -18696,7 +18773,7 @@
     </row>
     <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="98" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="C93" s="92" t="s">
         <v>244</v>
@@ -18704,10 +18781,10 @@
     </row>
     <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="98" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="C94" s="92" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -18715,7 +18792,7 @@
         <v>163</v>
       </c>
       <c r="C95" s="92" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -18728,7 +18805,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="98" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="C97" s="89"/>
     </row>
@@ -18742,15 +18819,15 @@
     </row>
     <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="98" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="C99" s="92" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="98" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="C100" s="92" t="s">
         <v>269</v>
@@ -18758,16 +18835,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="98" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="C101" s="89"/>
     </row>
     <row r="102" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="98" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="C102" s="92" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -18775,42 +18852,42 @@
         <v>701</v>
       </c>
       <c r="C103" s="92" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="E103" s="92"/>
       <c r="F103" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="98" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="C104" s="92" t="s">
         <v>322</v>
       </c>
       <c r="F104" s="98" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="98" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="C105" s="92" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="E105" s="92"/>
       <c r="F105" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="98" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="C106" s="92" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -18818,12 +18895,12 @@
         <v>173</v>
       </c>
       <c r="C107" s="92" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="98" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="C108" s="92" t="s">
         <v>766</v>
@@ -18831,13 +18908,13 @@
     </row>
     <row r="109" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="98" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="C109" s="92" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="F109" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -18845,18 +18922,18 @@
         <v>292</v>
       </c>
       <c r="C110" s="92" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="E110" s="92" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="98" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="C111" s="92" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -18864,156 +18941,159 @@
         <v>76</v>
       </c>
       <c r="C112" s="92" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="98" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C113" s="92" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="98" t="s">
         <v>175</v>
       </c>
       <c r="C114" s="92" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="E114" s="92"/>
       <c r="F114" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="98" t="s">
         <v>696</v>
       </c>
       <c r="C115" s="93" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="E115" s="93"/>
       <c r="F115" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="98" t="s">
         <v>147</v>
       </c>
       <c r="C116" s="89" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E116" s="89" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1071</v>
+      </c>
+      <c r="E116" s="106" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="98" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="C117" s="92" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="98" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="C118" s="92" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="98" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C119" s="92" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="98" t="s">
         <v>786</v>
       </c>
       <c r="C120" s="93" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="E120" s="93" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1126</v>
+      </c>
+      <c r="G120" s="98" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="98" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="C121" s="92" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="98" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="C122" s="92" t="s">
         <v>404</v>
       </c>
       <c r="F122" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="98" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C123" s="92" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="98" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="C124" s="92" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="98" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="C125" s="92" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="98" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="C126" s="92" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="F126" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="98" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C127" s="92" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="98" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="C128" s="89"/>
     </row>
-    <row r="129" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="98" t="s">
         <v>193</v>
       </c>
@@ -19023,36 +19103,39 @@
       <c r="E129" s="92" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G129" s="98" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="98" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="C130" s="92" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="98" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C131" s="93" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="E131" s="93"/>
     </row>
-    <row r="132" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="98" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C132" s="92" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E132" s="92" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1129</v>
+      </c>
+      <c r="E132" s="103" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="98" t="s">
         <v>198</v>
       </c>
@@ -19060,41 +19143,41 @@
         <v>701</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="98" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="C134" s="92" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="98" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="C135" s="92" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="98" t="s">
         <v>259</v>
       </c>
       <c r="C136" s="89"/>
     </row>
-    <row r="137" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="98" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="C137" s="92" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E137" s="92"/>
       <c r="F137" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="98" t="s">
         <v>705</v>
       </c>
@@ -19102,15 +19185,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="98" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="C139" s="89" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="98" t="s">
         <v>369</v>
       </c>
@@ -19118,48 +19201,48 @@
         <v>292</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="98" t="s">
         <v>333</v>
       </c>
       <c r="C141" s="89"/>
     </row>
-    <row r="142" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="98" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="C142" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="E142" s="92" t="s">
+      <c r="E142" s="103" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="98" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C143" s="92" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="98" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="C144" s="89"/>
     </row>
     <row r="145" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="98" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="C145" s="92" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="98" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="C146" s="92" t="s">
         <v>175</v>
@@ -19167,13 +19250,13 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="98" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="C147" s="89"/>
     </row>
     <row r="148" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="98" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="C148" s="92" t="s">
         <v>696</v>
@@ -19181,7 +19264,7 @@
     </row>
     <row r="149" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="98" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="C149" s="92" t="s">
         <v>147</v>
@@ -19189,7 +19272,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="98" t="s">
-        <v>1254</v>
+        <v>802</v>
       </c>
       <c r="C150" s="89"/>
     </row>
@@ -19198,23 +19281,23 @@
         <v>168</v>
       </c>
       <c r="C151" s="93" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="98" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="C152" s="92" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="98" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="C153" s="92" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -19233,13 +19316,13 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="98" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C156" s="89"/>
     </row>
     <row r="157" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="98" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="C157" s="92" t="s">
         <v>543</v>
@@ -19247,7 +19330,7 @@
     </row>
     <row r="158" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="98" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="C158" s="92" t="s">
         <v>548</v>
@@ -19258,7 +19341,7 @@
         <v>754</v>
       </c>
       <c r="C159" s="92" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -19266,19 +19349,19 @@
         <v>138</v>
       </c>
       <c r="C160" s="92" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="98" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="C161" s="92" t="s">
         <v>339</v>
       </c>
       <c r="E161" s="92"/>
       <c r="F161" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -19289,10 +19372,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="98" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C163" s="89" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -19308,15 +19391,15 @@
         <v>658</v>
       </c>
       <c r="C165" s="92" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F165" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="98" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="C166" s="92" t="s">
         <v>680</v>
@@ -19324,13 +19407,13 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="98" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C167" s="89"/>
     </row>
     <row r="168" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="98" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="C168" s="92" t="s">
         <v>111</v>
@@ -19341,7 +19424,7 @@
         <v>509</v>
       </c>
       <c r="C169" s="92" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -19354,7 +19437,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="98" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="C171" s="89"/>
     </row>
@@ -19363,15 +19446,15 @@
         <v>351</v>
       </c>
       <c r="C172" s="92" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="F172" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="98" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="C173" s="92" t="s">
         <v>259</v>
@@ -19379,15 +19462,15 @@
     </row>
     <row r="174" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="98" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="C174" s="92" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="98" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="C175" s="92" t="s">
         <v>705</v>
@@ -19395,43 +19478,46 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="98" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="C176" s="89"/>
     </row>
     <row r="177" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="98" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="C177" s="92" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="E177" s="92"/>
       <c r="F177" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="98" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="C178" s="92" t="s">
         <v>86</v>
       </c>
       <c r="E178" s="92"/>
       <c r="G178" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="98" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="C179" s="92" t="s">
         <v>374</v>
       </c>
       <c r="E179" s="92" t="s">
         <v>374</v>
+      </c>
+      <c r="G179" s="98" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -19444,7 +19530,7 @@
     </row>
     <row r="181" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="98" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="C181" s="92" t="s">
         <v>333</v>
@@ -19452,30 +19538,30 @@
     </row>
     <row r="182" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="98" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C182" s="92" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="98" t="s">
-        <v>1260</v>
+        <v>1264</v>
       </c>
       <c r="C183" s="92" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="98" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C184" s="92" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="E184" s="92"/>
       <c r="F184" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -19483,42 +19569,42 @@
         <v>713</v>
       </c>
       <c r="C185" s="92" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="F185" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="98" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="C186" s="92" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="98" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="C187" s="92" t="s">
         <v>239</v>
       </c>
       <c r="E187" s="92"/>
       <c r="F187" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="98" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="C188" s="92" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="E188" s="92"/>
       <c r="F188" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -19526,11 +19612,11 @@
         <v>361</v>
       </c>
       <c r="C189" s="92" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="E189" s="92"/>
       <c r="F189" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -19538,12 +19624,12 @@
         <v>356</v>
       </c>
       <c r="C190" s="92" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="98" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C191" s="89"/>
     </row>
@@ -19552,14 +19638,14 @@
         <v>674</v>
       </c>
       <c r="C192" s="92" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="E192" s="92"/>
       <c r="F192" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="98" t="s">
         <v>771</v>
       </c>
@@ -19567,102 +19653,123 @@
         <v>168</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="98" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C194" s="92" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="98" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="C195" s="92" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="98" t="s">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="C196" s="92" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="98" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="C197" s="91"/>
     </row>
-    <row r="198" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="98" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="C198" s="92" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C199" s="92" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A200" s="98" t="s">
+        <v>1268</v>
+      </c>
       <c r="C200" s="92" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" s="98" t="s">
+        <v>1269</v>
+      </c>
       <c r="C201" s="89" t="s">
-        <v>827</v>
+        <v>1058</v>
       </c>
       <c r="E201" s="89" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1058</v>
+      </c>
+      <c r="G201" s="98" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A202" s="98" t="s">
+        <v>1270</v>
+      </c>
       <c r="C202" s="92" t="s">
         <v>575</v>
       </c>
       <c r="E202" s="92" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G202" s="98" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A203" s="98" t="s">
+        <v>1272</v>
+      </c>
       <c r="C203" s="92" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A204" s="98" t="s">
+        <v>1273</v>
+      </c>
       <c r="C204" s="92" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C205" s="93" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="E205" s="93"/>
       <c r="F205" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C206" s="92" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C207" s="92" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C208" s="92" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="209" spans="3:6" x14ac:dyDescent="0.3">
@@ -19675,11 +19782,11 @@
     </row>
     <row r="211" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C211" s="92" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="E211" s="92"/>
       <c r="F211" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="212" spans="3:6" x14ac:dyDescent="0.3">
@@ -19689,7 +19796,7 @@
     </row>
     <row r="213" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C213" s="92" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="214" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -19710,7 +19817,7 @@
     </row>
     <row r="218" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C218" s="93" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="219" spans="3:6" x14ac:dyDescent="0.3">
@@ -19718,10 +19825,10 @@
     </row>
     <row r="220" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C220" s="92" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="F220" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="221" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -19744,7 +19851,7 @@
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C225" s="93" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="226" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -19762,7 +19869,7 @@
     </row>
     <row r="229" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C229" s="92" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="230" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -19772,12 +19879,12 @@
     </row>
     <row r="231" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C231" s="92" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="232" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C232" s="92" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="233" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -19795,7 +19902,7 @@
     </row>
     <row r="236" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C236" s="92" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="237" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -19810,7 +19917,7 @@
     </row>
     <row r="239" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C239" s="92" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.3">
@@ -19818,11 +19925,11 @@
     </row>
     <row r="241" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C241" s="93" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="E241" s="93"/>
       <c r="F241" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="242" spans="3:6" x14ac:dyDescent="0.3">
@@ -19830,25 +19937,25 @@
     </row>
     <row r="243" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C243" s="89" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="244" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C244" s="92" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="245" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C245" s="93" t="s">
         <v>686</v>
       </c>
-      <c r="E245" s="93" t="s">
+      <c r="E245" s="104" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="247" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E247" t="s">
-        <v>1264</v>
+        <v>1274</v>
       </c>
     </row>
   </sheetData>
@@ -19887,7 +19994,111 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D007FB-E8AC-4BFB-9A95-C85487718958}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="98" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="98" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="98" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="98" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="98" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="98" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="98" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="98" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="98" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="98" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="98" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A12">
+    <sortCondition ref="A2:A12"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c41dcdfa-2b6c-4e92-9956-3b2ec4d5bb83">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5eb5f12a-49b5-4028-a95b-21ec1ccadfca" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFE650F672E208429EC25CAD02FA066C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec5b01d1f01704368e877978300879f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c41dcdfa-2b6c-4e92-9956-3b2ec4d5bb83" xmlns:ns3="5eb5f12a-49b5-4028-a95b-21ec1ccadfca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0fbc8e0e491695159824f1ea0bc403ab" ns2:_="" ns3:_="">
     <xsd:import namespace="c41dcdfa-2b6c-4e92-9956-3b2ec4d5bb83"/>
@@ -20110,27 +20321,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD497C26-4835-49E7-A436-4FFE666B190D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c41dcdfa-2b6c-4e92-9956-3b2ec4d5bb83">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5eb5f12a-49b5-4028-a95b-21ec1ccadfca" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EB14F69-00BB-4379-976E-CAE581E0B796}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c41dcdfa-2b6c-4e92-9956-3b2ec4d5bb83"/>
+    <ds:schemaRef ds:uri="5eb5f12a-49b5-4028-a95b-21ec1ccadfca"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BBD0D6B-9539-4544-A340-BD8997F58AE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20147,23 +20357,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD497C26-4835-49E7-A436-4FFE666B190D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EB14F69-00BB-4379-976E-CAE581E0B796}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c41dcdfa-2b6c-4e92-9956-3b2ec4d5bb83"/>
-    <ds:schemaRef ds:uri="5eb5f12a-49b5-4028-a95b-21ec1ccadfca"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/paper_total_sessies_2025_2.xlsx
+++ b/docs/paper_total_sessies_2025_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vunl-my.sharepoint.com/personal/j_c_muis_vu_nl/Documents/Documents/GitHub/dvds2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A3A9B94-CBB9-4B7A-A351-5F34A1FE8329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AD51DEE-1B24-4DDE-A2C8-1D63A6087DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="492" yWindow="1536" windowWidth="22548" windowHeight="10188" firstSheet="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="492" yWindow="1152" windowWidth="22548" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alle abstracts" sheetId="1" r:id="rId1"/>
@@ -2530,10 +2530,10 @@
     <t>quantitative analysis of protest event data, and old and new media data (tweets), on politization and street protest events.</t>
   </si>
   <si>
+    <t>Ofra Klein</t>
+  </si>
+  <si>
     <t>Delia Dumitrica</t>
-  </si>
-  <si>
-    <t>Ofra Klein</t>
   </si>
   <si>
     <t xml:space="preserve">dumitrica@eshcc.eur.nl, klein@eshcc.eur.nl </t>
@@ -5264,9 +5264,9 @@
   <dimension ref="A1:Z163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="77" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M125" sqref="M125"/>
+      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11610,10 +11610,10 @@
       </c>
     </row>
     <row r="116" spans="1:26" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A116" s="36" t="s">
+      <c r="A116" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="36" t="s">
         <v>759</v>
       </c>
       <c r="C116" s="8" t="s">
@@ -20079,15 +20079,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="c41dcdfa-2b6c-4e92-9956-3b2ec4d5bb83">
@@ -20096,6 +20087,15 @@
     <TaxCatchAll xmlns="5eb5f12a-49b5-4028-a95b-21ec1ccadfca" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20322,20 +20322,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD497C26-4835-49E7-A436-4FFE666B190D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EB14F69-00BB-4379-976E-CAE581E0B796}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c41dcdfa-2b6c-4e92-9956-3b2ec4d5bb83"/>
     <ds:schemaRef ds:uri="5eb5f12a-49b5-4028-a95b-21ec1ccadfca"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD497C26-4835-49E7-A436-4FFE666B190D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
